--- a/database/BasesDeDatosCYR.xlsx
+++ b/database/BasesDeDatosCYR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Arizmendi\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\CyroAgro\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DABCB3-938E-4E27-BDB5-E8F3EEB4C2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC929BB7-FE6D-449F-9F82-7D0932476513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{7C0439AF-609D-46AB-8CF1-0C1B3AE865CB}"/>
+    <workbookView xWindow="2573" yWindow="2573" windowWidth="16199" windowHeight="9307" xr2:uid="{7C0439AF-609D-46AB-8CF1-0C1B3AE865CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="711">
   <si>
     <t>nombre</t>
   </si>
@@ -1413,9 +1413,6 @@
     <t>/FotosProducto/BioPH.png</t>
   </si>
   <si>
-    <t>/FotosCatalogo/BioPH.pdf</t>
-  </si>
-  <si>
     <t>Biodyna</t>
   </si>
   <si>
@@ -1434,9 +1431,6 @@
     <t>/FotosProducto/Biodyna.png</t>
   </si>
   <si>
-    <t>/FotosCatalogo/Biodyna.pdf</t>
-  </si>
-  <si>
     <t>Bio Punch</t>
   </si>
   <si>
@@ -1449,9 +1443,6 @@
     <t>/FotosProducto/BioPunch.png</t>
   </si>
   <si>
-    <t>/FotosCatalogo/BioPunch.pdf</t>
-  </si>
-  <si>
     <t>Sigma</t>
   </si>
   <si>
@@ -1470,9 +1461,6 @@
     <t>/FotosProducto/Sigma.png</t>
   </si>
   <si>
-    <t>/FotosCatalogo/Sigma.pdf</t>
-  </si>
-  <si>
     <t>Tural</t>
   </si>
   <si>
@@ -1485,9 +1473,6 @@
     <t>/FotosProducto/Tural.png</t>
   </si>
   <si>
-    <t>/FotosCatalogo/Tural.pdf</t>
-  </si>
-  <si>
     <t>Prolux Adherente</t>
   </si>
   <si>
@@ -1509,9 +1494,6 @@
     <t>/FotosProducto/ProluxAdherente.png</t>
   </si>
   <si>
-    <t>/FotosCatalogo/ProluxAdherente.pdf</t>
-  </si>
-  <si>
     <t>Prolux Plus pH</t>
   </si>
   <si>
@@ -1530,9 +1512,6 @@
     <t>/FotosProducto/ProluxPlusPh.png</t>
   </si>
   <si>
-    <t>/FotosCatalogo/ProluxPlusPh.pdf</t>
-  </si>
-  <si>
     <t>Prowet CL</t>
   </si>
   <si>
@@ -1551,9 +1530,6 @@
     <t>/FotosProducto/ProwetCL.png</t>
   </si>
   <si>
-    <t>/FotosCatalogo/ProwetCL.pdf</t>
-  </si>
-  <si>
     <t>Prowet SA</t>
   </si>
   <si>
@@ -1572,9 +1548,6 @@
     <t>/FotosProducto/ProwetSA.png</t>
   </si>
   <si>
-    <t>/FotosCatalogo/ProwetSA.pdf</t>
-  </si>
-  <si>
     <t>Carbenpro 50SC</t>
   </si>
   <si>
@@ -1602,9 +1575,6 @@
     <t>/FotosProducto/Carbenpro.png</t>
   </si>
   <si>
-    <t>/FotosCatalogo/Carbenpro.pdf</t>
-  </si>
-  <si>
     <t>Promilo 50PH</t>
   </si>
   <si>
@@ -1632,9 +1602,6 @@
     <t>24 x 250 g, 10 x 1 kg</t>
   </si>
   <si>
-    <t>/FotosCatalogo/Promilo.pdf</t>
-  </si>
-  <si>
     <t>Promethyl SC 50</t>
   </si>
   <si>
@@ -1659,9 +1626,6 @@
     <t>/FotosProducto/PromethylSC.png</t>
   </si>
   <si>
-    <t>/FotosCatalogo/PromethylSC.pdf</t>
-  </si>
-  <si>
     <t>Promethyl 70PH</t>
   </si>
   <si>
@@ -1686,9 +1650,6 @@
     <t>30 x 200 g, 10 x 1 kg</t>
   </si>
   <si>
-    <t>/FotosCatalogo/Promethyl70PH.pdf</t>
-  </si>
-  <si>
     <t>Carbenpro 500F</t>
   </si>
   <si>
@@ -1713,9 +1674,6 @@
     <t>/FotosProducto/Carbenpro500F.png</t>
   </si>
   <si>
-    <t>/FotosCatalogo/Carbenpro500F.pdf</t>
-  </si>
-  <si>
     <t>Coraza 720SC</t>
   </si>
   <si>
@@ -1743,9 +1701,6 @@
     <t>12 x 1 L, 1 x 20 L, 1 x 200 L</t>
   </si>
   <si>
-    <t>/FotosCatalogo/Coraza720SC.pdf</t>
-  </si>
-  <si>
     <t>Pyraclostrobin 25SC</t>
   </si>
   <si>
@@ -1773,9 +1728,6 @@
     <t>24 x 250 ml, 12 x 1 L</t>
   </si>
   <si>
-    <t>/FotosCatalogo/Pyraclostrobin25SC.pdf</t>
-  </si>
-  <si>
     <t>Bioxystrobin</t>
   </si>
   <si>
@@ -1800,9 +1752,6 @@
     <t>/FotosProducto/Bioxystrobin.png</t>
   </si>
   <si>
-    <t>/FotosCatalogo/Bioxystrobin.pdf</t>
-  </si>
-  <si>
     <t>Terra 5% Cu</t>
   </si>
   <si>
@@ -1830,9 +1779,6 @@
     <t>25 x 400 g</t>
   </si>
   <si>
-    <t>/FotosCatalogo/Terra5Cu.pdf</t>
-  </si>
-  <si>
     <t>Agrimycu 100</t>
   </si>
   <si>
@@ -1857,9 +1803,6 @@
     <t>12 x 1 Kg.</t>
   </si>
   <si>
-    <t>/FotosCatalogo/Agrimycu100.pdf</t>
-  </si>
-  <si>
     <t>Agrimycu 500</t>
   </si>
   <si>
@@ -1884,9 +1827,6 @@
     <t>30 x 300 g, 12 x 1 Kg.</t>
   </si>
   <si>
-    <t>/FotosCatalogo/Agrimycu500.pdf</t>
-  </si>
-  <si>
     <t>Anibac Plus Cu</t>
   </si>
   <si>
@@ -1914,9 +1854,6 @@
     <t>12 x 1 L, 1 x 20 L.</t>
   </si>
   <si>
-    <t>/FotosCatalogo/AnibacPlusCu.pdf</t>
-  </si>
-  <si>
     <t>Anibac Cítrico</t>
   </si>
   <si>
@@ -1941,9 +1878,6 @@
     <t>/FotosProducto/AnibacCitrico.png</t>
   </si>
   <si>
-    <t>/FotosCatalogo/AnibacCitrico.pdf</t>
-  </si>
-  <si>
     <t>Anibac 580</t>
   </si>
   <si>
@@ -1963,9 +1897,6 @@
   </si>
   <si>
     <t>/FotosProducto/Anibac580.png</t>
-  </si>
-  <si>
-    <t>/FotosCatalogo/Anibac580.pdf</t>
   </si>
   <si>
     <t>Aguacatero, ajo, cebolla, cebollin, esparrago, arandano, frambuesa, fresa, hortalizas, tomate, berenjena, chile, pimiento morron, tabaco, maiz, pepino, calabaza, sandia, melon, brocoli, col, col de bruselas, coliflor, ejote, lechuga, espinaca, limon mexicano, lima, toronja, mandarina, naranja, mango, guayaba, zarzamora, mora azul, frambuesa, chayote, entre otros.</t>
@@ -2623,34 +2554,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0E1118-D316-435A-B988-9132BD77089D}">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T61" sqref="T61"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.265625" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" customWidth="1"/>
+    <col min="7" max="7" width="50.73046875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" customWidth="1"/>
-    <col min="18" max="18" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1328125" customWidth="1"/>
+    <col min="10" max="10" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.73046875" customWidth="1"/>
+    <col min="17" max="17" width="18.265625" customWidth="1"/>
+    <col min="18" max="18" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>144</v>
       </c>
@@ -2709,7 +2640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2717,7 +2648,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -2729,7 +2660,7 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
@@ -2738,7 +2669,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
@@ -2756,10 +2687,10 @@
         <v>27</v>
       </c>
       <c r="S2" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2767,7 +2698,7 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -2779,7 +2710,7 @@
         <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>645</v>
+        <v>622</v>
       </c>
       <c r="H3" t="s">
         <v>32</v>
@@ -2806,10 +2737,10 @@
         <v>27</v>
       </c>
       <c r="S3" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2817,7 +2748,7 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -2856,10 +2787,10 @@
         <v>27</v>
       </c>
       <c r="S4" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2867,7 +2798,7 @@
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -2906,10 +2837,10 @@
         <v>27</v>
       </c>
       <c r="S5" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2917,7 +2848,7 @@
         <v>305</v>
       </c>
       <c r="C6" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -2956,10 +2887,10 @@
         <v>27</v>
       </c>
       <c r="S6" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2967,7 +2898,7 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -3006,10 +2937,10 @@
         <v>27</v>
       </c>
       <c r="S7" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3017,7 +2948,7 @@
         <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -3056,10 +2987,10 @@
         <v>27</v>
       </c>
       <c r="S8" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3067,7 +2998,7 @@
         <v>306</v>
       </c>
       <c r="C9" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -3106,10 +3037,10 @@
         <v>27</v>
       </c>
       <c r="S9" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3117,7 +3048,7 @@
         <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -3156,10 +3087,10 @@
         <v>27</v>
       </c>
       <c r="S10" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3167,7 +3098,7 @@
         <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -3206,10 +3137,10 @@
         <v>27</v>
       </c>
       <c r="S11" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3217,7 +3148,7 @@
         <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
@@ -3256,10 +3187,10 @@
         <v>27</v>
       </c>
       <c r="S12" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3267,7 +3198,7 @@
         <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
@@ -3306,10 +3237,10 @@
         <v>27</v>
       </c>
       <c r="S13" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3317,7 +3248,7 @@
         <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
@@ -3356,10 +3287,10 @@
         <v>27</v>
       </c>
       <c r="S14" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3367,7 +3298,7 @@
         <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
@@ -3406,10 +3337,10 @@
         <v>27</v>
       </c>
       <c r="S15" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3417,7 +3348,7 @@
         <v>307</v>
       </c>
       <c r="C16" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D16" t="s">
         <v>160</v>
@@ -3456,10 +3387,10 @@
         <v>27</v>
       </c>
       <c r="S16" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3467,7 +3398,7 @@
         <v>159</v>
       </c>
       <c r="C17" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D17" t="s">
         <v>160</v>
@@ -3506,10 +3437,10 @@
         <v>27</v>
       </c>
       <c r="S17" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3517,10 +3448,10 @@
         <v>308</v>
       </c>
       <c r="C18" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D18" t="s">
-        <v>663</v>
+        <v>640</v>
       </c>
       <c r="E18" t="s">
         <v>170</v>
@@ -3556,10 +3487,10 @@
         <v>27</v>
       </c>
       <c r="S18" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3567,10 +3498,10 @@
         <v>309</v>
       </c>
       <c r="C19" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D19" t="s">
-        <v>663</v>
+        <v>640</v>
       </c>
       <c r="E19" t="s">
         <v>178</v>
@@ -3606,10 +3537,10 @@
         <v>27</v>
       </c>
       <c r="S19" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3617,7 +3548,7 @@
         <v>187</v>
       </c>
       <c r="C20" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D20" t="s">
         <v>188</v>
@@ -3656,10 +3587,10 @@
         <v>27</v>
       </c>
       <c r="S20" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3667,7 +3598,7 @@
         <v>198</v>
       </c>
       <c r="C21" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D21" t="s">
         <v>188</v>
@@ -3706,10 +3637,10 @@
         <v>27</v>
       </c>
       <c r="S21" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3717,7 +3648,7 @@
         <v>208</v>
       </c>
       <c r="C22" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D22" t="s">
         <v>217</v>
@@ -3756,10 +3687,10 @@
         <v>27</v>
       </c>
       <c r="S22" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3767,7 +3698,7 @@
         <v>219</v>
       </c>
       <c r="C23" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D23" t="s">
         <v>217</v>
@@ -3806,10 +3737,10 @@
         <v>27</v>
       </c>
       <c r="S23" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3817,7 +3748,7 @@
         <v>310</v>
       </c>
       <c r="C24" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D24" t="s">
         <v>217</v>
@@ -3856,10 +3787,10 @@
         <v>27</v>
       </c>
       <c r="S24" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3867,7 +3798,7 @@
         <v>311</v>
       </c>
       <c r="C25" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D25" t="s">
         <v>217</v>
@@ -3906,10 +3837,10 @@
         <v>27</v>
       </c>
       <c r="S25" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3917,7 +3848,7 @@
         <v>312</v>
       </c>
       <c r="C26" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D26" t="s">
         <v>247</v>
@@ -3956,10 +3887,10 @@
         <v>27</v>
       </c>
       <c r="S26" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3967,7 +3898,7 @@
         <v>256</v>
       </c>
       <c r="C27" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D27" t="s">
         <v>257</v>
@@ -4006,10 +3937,10 @@
         <v>27</v>
       </c>
       <c r="S27" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4017,7 +3948,7 @@
         <v>313</v>
       </c>
       <c r="C28" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="D28" t="s">
         <v>266</v>
@@ -4056,10 +3987,10 @@
         <v>27</v>
       </c>
       <c r="S28" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4067,7 +3998,7 @@
         <v>276</v>
       </c>
       <c r="C29" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="D29" t="s">
         <v>287</v>
@@ -4106,10 +4037,10 @@
         <v>27</v>
       </c>
       <c r="S29" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4117,7 +4048,7 @@
         <v>286</v>
       </c>
       <c r="C30" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="D30" t="s">
         <v>287</v>
@@ -4153,10 +4084,10 @@
         <v>27</v>
       </c>
       <c r="S30" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4164,7 +4095,7 @@
         <v>296</v>
       </c>
       <c r="C31" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="D31" t="s">
         <v>287</v>
@@ -4200,10 +4131,10 @@
         <v>27</v>
       </c>
       <c r="S31" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4211,7 +4142,7 @@
         <v>314</v>
       </c>
       <c r="C32" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="D32" t="s">
         <v>287</v>
@@ -4250,10 +4181,10 @@
         <v>27</v>
       </c>
       <c r="S32" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4261,7 +4192,7 @@
         <v>324</v>
       </c>
       <c r="C33" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="D33" t="s">
         <v>287</v>
@@ -4300,10 +4231,10 @@
         <v>27</v>
       </c>
       <c r="S33" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4311,7 +4242,7 @@
         <v>333</v>
       </c>
       <c r="C34" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="D34" t="s">
         <v>343</v>
@@ -4350,10 +4281,10 @@
         <v>27</v>
       </c>
       <c r="S34" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4361,7 +4292,7 @@
         <v>344</v>
       </c>
       <c r="C35" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="D35" t="s">
         <v>343</v>
@@ -4400,10 +4331,10 @@
         <v>27</v>
       </c>
       <c r="S35" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4411,7 +4342,7 @@
         <v>362</v>
       </c>
       <c r="C36" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="D36" t="s">
         <v>287</v>
@@ -4450,10 +4381,10 @@
         <v>27</v>
       </c>
       <c r="S36" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4461,7 +4392,7 @@
         <v>363</v>
       </c>
       <c r="C37" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="D37" t="s">
         <v>383</v>
@@ -4500,10 +4431,10 @@
         <v>27</v>
       </c>
       <c r="S37" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4511,7 +4442,7 @@
         <v>381</v>
       </c>
       <c r="C38" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="D38" t="s">
         <v>382</v>
@@ -4550,10 +4481,10 @@
         <v>27</v>
       </c>
       <c r="S38" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4561,7 +4492,7 @@
         <v>386</v>
       </c>
       <c r="C39" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="D39" t="s">
         <v>387</v>
@@ -4597,10 +4528,10 @@
         <v>27</v>
       </c>
       <c r="S39" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4608,7 +4539,7 @@
         <v>396</v>
       </c>
       <c r="C40" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="D40" t="s">
         <v>387</v>
@@ -4644,10 +4575,10 @@
         <v>27</v>
       </c>
       <c r="S40" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4655,7 +4586,7 @@
         <v>405</v>
       </c>
       <c r="C41" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="D41" t="s">
         <v>406</v>
@@ -4691,10 +4622,10 @@
         <v>27</v>
       </c>
       <c r="S41" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4702,7 +4633,7 @@
         <v>415</v>
       </c>
       <c r="C42" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="D42" t="s">
         <v>416</v>
@@ -4735,10 +4666,10 @@
         <v>27</v>
       </c>
       <c r="S42" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4746,7 +4677,7 @@
         <v>423</v>
       </c>
       <c r="C43" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="D43" t="s">
         <v>416</v>
@@ -4776,10 +4707,10 @@
         <v>27</v>
       </c>
       <c r="S43" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4787,7 +4718,7 @@
         <v>429</v>
       </c>
       <c r="C44" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="D44" t="s">
         <v>416</v>
@@ -4814,10 +4745,10 @@
         <v>27</v>
       </c>
       <c r="S44" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4825,7 +4756,7 @@
         <v>435</v>
       </c>
       <c r="C45" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="D45" t="s">
         <v>416</v>
@@ -4852,10 +4783,10 @@
         <v>27</v>
       </c>
       <c r="S45" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4863,7 +4794,7 @@
         <v>441</v>
       </c>
       <c r="C46" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="D46" t="s">
         <v>416</v>
@@ -4890,10 +4821,10 @@
         <v>27</v>
       </c>
       <c r="S46" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4901,7 +4832,7 @@
         <v>447</v>
       </c>
       <c r="C47" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="D47" t="s">
         <v>416</v>
@@ -4928,10 +4859,10 @@
         <v>27</v>
       </c>
       <c r="S47" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4939,7 +4870,7 @@
         <v>453</v>
       </c>
       <c r="C48" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="D48" t="s">
         <v>416</v>
@@ -4966,36 +4897,36 @@
         <v>27</v>
       </c>
       <c r="S48" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C49" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="D49" t="s">
         <v>416</v>
       </c>
       <c r="F49" t="s">
+        <v>460</v>
+      </c>
+      <c r="H49" t="s">
         <v>461</v>
       </c>
-      <c r="H49" t="s">
+      <c r="K49" t="s">
         <v>462</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>463</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>464</v>
-      </c>
-      <c r="M49" t="s">
-        <v>465</v>
       </c>
       <c r="N49" t="s">
         <v>24</v>
@@ -5004,48 +4935,48 @@
         <v>27</v>
       </c>
       <c r="S49" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C50" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="D50" t="s">
         <v>416</v>
       </c>
       <c r="E50" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="F50" t="s">
-        <v>648</v>
+        <v>625</v>
       </c>
       <c r="G50" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="H50" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="I50" t="s">
-        <v>651</v>
+        <v>628</v>
       </c>
       <c r="J50" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="K50" t="s">
+        <v>466</v>
+      </c>
+      <c r="L50" t="s">
+        <v>467</v>
+      </c>
+      <c r="M50" t="s">
         <v>468</v>
-      </c>
-      <c r="L50" t="s">
-        <v>469</v>
-      </c>
-      <c r="M50" t="s">
-        <v>470</v>
       </c>
       <c r="N50" t="s">
         <v>24</v>
@@ -5054,48 +4985,48 @@
         <v>27</v>
       </c>
       <c r="S50" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C51" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="D51" t="s">
         <v>416</v>
       </c>
       <c r="E51" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="F51" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
       <c r="G51" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="H51" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="I51" t="s">
+        <v>471</v>
+      </c>
+      <c r="J51" t="s">
+        <v>470</v>
+      </c>
+      <c r="K51" t="s">
+        <v>472</v>
+      </c>
+      <c r="L51" t="s">
+        <v>473</v>
+      </c>
+      <c r="M51" t="s">
         <v>474</v>
-      </c>
-      <c r="J51" t="s">
-        <v>473</v>
-      </c>
-      <c r="K51" t="s">
-        <v>475</v>
-      </c>
-      <c r="L51" t="s">
-        <v>476</v>
-      </c>
-      <c r="M51" t="s">
-        <v>477</v>
       </c>
       <c r="N51" t="s">
         <v>24</v>
@@ -5104,30 +5035,30 @@
         <v>27</v>
       </c>
       <c r="S51" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C52" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="D52" t="s">
-        <v>664</v>
+        <v>641</v>
       </c>
       <c r="E52" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="F52" t="s">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="G52" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="H52" t="s">
         <v>327</v>
@@ -5136,16 +5067,16 @@
         <v>281</v>
       </c>
       <c r="J52" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="K52" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L52" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M52" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="N52" t="s">
         <v>24</v>
@@ -5154,36 +5085,36 @@
         <v>27</v>
       </c>
       <c r="S52" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>479</v>
+      </c>
+      <c r="C53" t="s">
+        <v>638</v>
+      </c>
+      <c r="D53" t="s">
+        <v>480</v>
+      </c>
+      <c r="F53" t="s">
+        <v>481</v>
+      </c>
+      <c r="H53" t="s">
+        <v>482</v>
+      </c>
+      <c r="K53" t="s">
+        <v>483</v>
+      </c>
+      <c r="L53" t="s">
         <v>484</v>
       </c>
-      <c r="C53" t="s">
-        <v>661</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="M53" t="s">
         <v>485</v>
-      </c>
-      <c r="F53" t="s">
-        <v>486</v>
-      </c>
-      <c r="H53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K53" t="s">
-        <v>488</v>
-      </c>
-      <c r="L53" t="s">
-        <v>489</v>
-      </c>
-      <c r="M53" t="s">
-        <v>490</v>
       </c>
       <c r="N53" t="s">
         <v>24</v>
@@ -5192,36 +5123,36 @@
         <v>27</v>
       </c>
       <c r="S53" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C54" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="D54" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F54" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H54" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="K54" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="L54" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="M54" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="N54" t="s">
         <v>24</v>
@@ -5230,36 +5161,36 @@
         <v>27</v>
       </c>
       <c r="S54" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C55" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="D55" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F55" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="H55" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="K55" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="L55" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="M55" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="N55" t="s">
         <v>24</v>
@@ -5268,36 +5199,36 @@
         <v>27</v>
       </c>
       <c r="S55" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C56" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="D56" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F56" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="H56" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="K56" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="L56" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="M56" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="N56" t="s">
         <v>24</v>
@@ -5306,42 +5237,42 @@
         <v>27</v>
       </c>
       <c r="S56" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C57" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="D57" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E57" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F57" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="G57" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="H57" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="K57" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="L57" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="M57" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="N57" t="s">
         <v>24</v>
@@ -5350,86 +5281,86 @@
         <v>27</v>
       </c>
       <c r="S57" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C58" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="D58" t="s">
+        <v>505</v>
+      </c>
+      <c r="E58" t="s">
         <v>514</v>
       </c>
-      <c r="E58" t="s">
-        <v>524</v>
-      </c>
       <c r="F58" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="G58" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="H58" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="K58" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="L58" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="M58" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="N58" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="O58" t="s">
         <v>27</v>
       </c>
       <c r="S58" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="C59" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="D59" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E59" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="F59" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="G59" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="H59" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="K59" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="L59" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="M59" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="N59" t="s">
         <v>24</v>
@@ -5438,86 +5369,86 @@
         <v>27</v>
       </c>
       <c r="S59" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="C60" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="D60" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E60" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="F60" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="G60" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="H60" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="K60" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="L60" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="M60" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="N60" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="O60" t="s">
         <v>27</v>
       </c>
       <c r="S60" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="C61" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="D61" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E61" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="F61" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="G61" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="H61" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="K61" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="L61" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="M61" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="N61" t="s">
         <v>24</v>
@@ -5526,403 +5457,403 @@
         <v>27</v>
       </c>
       <c r="S61" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="C62" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="D62" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E62" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="F62" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="G62" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="H62" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="K62" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="L62" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="M62" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="N62" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="O62" t="s">
         <v>27</v>
       </c>
       <c r="S62" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="C63" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="D63" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E63" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="F63" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="G63" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="H63" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="K63" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="L63" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="M63" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="N63" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="O63" t="s">
         <v>27</v>
       </c>
       <c r="S63" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="C64" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="D64" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E64" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="F64" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="G64" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="H64" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="K64" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="L64" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="M64" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="N64" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="O64" t="s">
         <v>27</v>
       </c>
       <c r="S64" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="C65" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="D65" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="E65" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="F65" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="G65" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="H65" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="K65" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="L65" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="M65" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="N65" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="O65" t="s">
         <v>27</v>
       </c>
       <c r="S65" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="C66" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="D66" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="E66" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="F66" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="G66" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="H66" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="K66" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="L66" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="M66" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="N66" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="O66" t="s">
         <v>27</v>
       </c>
       <c r="S66" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="C67" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="D67" t="s">
+        <v>573</v>
+      </c>
+      <c r="E67" t="s">
         <v>590</v>
       </c>
-      <c r="E67" t="s">
-        <v>609</v>
-      </c>
       <c r="F67" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="G67" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="H67" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="K67" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="L67" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="M67" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="N67" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="O67" t="s">
         <v>27</v>
       </c>
       <c r="S67" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="C68" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="D68" t="s">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="E68" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="F68" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="G68" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="H68" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="K68" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="L68" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="M68" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="N68" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="O68" t="s">
         <v>27</v>
       </c>
       <c r="S68" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="C69" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="D69" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E69" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="F69" t="s">
-        <v>630</v>
+        <v>609</v>
       </c>
       <c r="G69" t="s">
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="H69" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="K69" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="L69" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="M69" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="N69" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="O69" t="s">
         <v>27</v>
       </c>
       <c r="S69" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>636</v>
+        <v>614</v>
       </c>
       <c r="C70" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="D70" t="s">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="E70" t="s">
-        <v>637</v>
+        <v>615</v>
       </c>
       <c r="F70" t="s">
-        <v>638</v>
+        <v>616</v>
       </c>
       <c r="G70" t="s">
-        <v>639</v>
+        <v>617</v>
       </c>
       <c r="H70" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="K70" t="s">
-        <v>640</v>
+        <v>618</v>
       </c>
       <c r="L70" t="s">
-        <v>641</v>
+        <v>619</v>
       </c>
       <c r="M70" t="s">
-        <v>642</v>
+        <v>620</v>
       </c>
       <c r="N70" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="O70" t="s">
         <v>27</v>
       </c>
       <c r="S70" t="s">
-        <v>733</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>

--- a/database/BasesDeDatosCYR.xlsx
+++ b/database/BasesDeDatosCYR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\CyroAgro\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Arizmendi\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC929BB7-FE6D-449F-9F82-7D0932476513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA350214-4008-4A99-A680-56D8349E27A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="2573" windowWidth="16199" windowHeight="9307" xr2:uid="{7C0439AF-609D-46AB-8CF1-0C1B3AE865CB}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{7C0439AF-609D-46AB-8CF1-0C1B3AE865CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="751">
   <si>
     <t>nombre</t>
   </si>
@@ -138,9 +138,6 @@
     <t>7 a 21 dias. Agua (pH): 5.5 a 7</t>
   </si>
   <si>
-    <t>Araña roja (Oligonychus punicae), Trips (Trips tabaci), Araña roja (Tetranychus urticae), Barrenador del fruto (Thecla basilides), Trips (Frankliniella occidentalis), Mosca blanca (Bemisia tabaci), Palomilla dorso de diamante (Plutella xylostella), Gusano falso medidor (Trichoplusia ni), Adultos de psilido asiático (Diaphorina citri), Pulgón negro de los cítricos (Toxoptera aurantii), Ácaro blanco (Polyphagotarsonemus latus), Cochinilla (Dactylopius coccus).</t>
-  </si>
-  <si>
     <t>/fichasTecnica/NeemCE80.pdf</t>
   </si>
   <si>
@@ -156,21 +153,12 @@
     <t>RSCO-INAC-0104R-301-015-015</t>
   </si>
   <si>
-    <t>Extracto de Canela (Cinnamomum zeylanicum) Emulsión aceite en agua (15.0%).</t>
-  </si>
-  <si>
-    <t>Aguacatero, ajo, arándano, cebolla, cebollin, esparrago, frambuesa, fresa, grosella, lima, limonero, mandarina, naranjo, nopal, tangerino, toronjo, zarzamora, berenjena, calabacita, calabaza, chayote, melon, papa, pepino, pimiento, tabaco, sandia, tomate de cascara, vid.</t>
-  </si>
-  <si>
     <t>1 a 3 L/ha. Contacto.</t>
   </si>
   <si>
     <t>7 a 21 días. Agua (pH): 5.5 a 6</t>
   </si>
   <si>
-    <t>Araña roja (Oligonychus punicae), Trips (Trips tabaci), Araña roja (Tetranychus urticae), Trips (Frankliniella occidentalis), Mosca blanca (Bemisia tabaci), Psílido asiático (Diaphorina citri), Ácaro blanco (Polyphagotarsonemus latus), Piojo harinoso (Planococcus citri), Cochinilla (Dactylopius coccus), Pulgón (Aphis illinoisensis).</t>
-  </si>
-  <si>
     <t>/fichasTecnica/Canela.pdf</t>
   </si>
   <si>
@@ -189,9 +177,6 @@
     <t>Sales potásicas de soya Concentrado soluble (50.0%).</t>
   </si>
   <si>
-    <t>Ajo, cebolla, cebollin, esparrago, fresa, zarzamora, frambuesa, arandano, grosella, limonero, naranjo, lima, tangerino, mandarina, toronjo, clementina, tangerina, pomelo, nopal, calabacita, calabaza, chayote, melon, sandia, pepino, berenjena, chile, chile habanero, chile jalapeño, jitomate, papa, pimiento morron, tabaco, tomate de cascara, espinaca, lechuga, manzano, peral, nogal, vid, papaya.</t>
-  </si>
-  <si>
     <t>1 a 3 L/200 L de agua.</t>
   </si>
   <si>
@@ -294,33 +279,6 @@
     <t>/FotosProducto/Omega.png</t>
   </si>
   <si>
-    <t>RSCO-INAC-0910A-X0384-009-60.00</t>
-  </si>
-  <si>
-    <t>Extracto de epazote (Chenopodium ambrosioides) Concentrado Soluble (60%).</t>
-  </si>
-  <si>
-    <t>Chile, papa, pimiento morrón, jitomate, tomate de cáscara, ajo, cebolla, cebollin, espárrago, poro, brócoli, col, col de bruselas, coliflor, colinabo, colza, calabaza, calabacita, chayote, melón, pepino, sandía.</t>
-  </si>
-  <si>
-    <t>1 - 2 L/100 L de agua.</t>
-  </si>
-  <si>
-    <t>Realizar 3 aplicaciones al follaje con intervalo de 7 días.</t>
-  </si>
-  <si>
-    <t>Pulgón saltador (Bactericera cockerelli), Trips (Thrips tabaci), Pulgón cenizo (Brevicoryne brassicae), Pulgón del algodonero (Aphis gossypii), Mosquita blanca (Bemisia tabaci).</t>
-  </si>
-  <si>
-    <t>/fichasTecnica/NaturalKing.pdf</t>
-  </si>
-  <si>
-    <t>/hojasSeguridad/NaturalKing.pdf</t>
-  </si>
-  <si>
-    <t>/FotosProducto/NaturalKing.png</t>
-  </si>
-  <si>
     <t>RepelentAjo</t>
   </si>
   <si>
@@ -501,9 +459,6 @@
     <t>Acondicione el pH del agua en el rango de 6.0 a 6.5</t>
   </si>
   <si>
-    <t>Nemátodo agallador (Meloidogyne incognita, Meloidogyne spp.), Nemátodo lesionador (Pratylenchus spp.), Nemátodo daga (Xiphinema spp.).</t>
-  </si>
-  <si>
     <t>/fichasTecnica/EcdyFinn.pdf</t>
   </si>
   <si>
@@ -690,9 +645,6 @@
     <t>Biofungicida Bactericida</t>
   </si>
   <si>
-    <t>RSCO-FUNG-0301M-303-052-+F22:K22095</t>
-  </si>
-  <si>
     <t>Citrus</t>
   </si>
   <si>
@@ -762,9 +714,6 @@
     <t>.200 ml a 9.0 L/ha dependiendo el cultivo.</t>
   </si>
   <si>
-    <t>de 6 a 14 días.</t>
-  </si>
-  <si>
     <t>Antracnosis (Colletotrichum gloeosporioides), Mancha púrpura (Alternaria porri), Mildiú (Peronospora rubi), Pudrición del cogollo (Phytophthora parasitica), Mildiú (Plasmopara viticola), Cenicilla (Golovinomyces cichoracearum Erysiphe cichoracearum), Pudrición de raíz y cuello (Rhizoctonia solani), Mildiú (Peronospora spp.).</t>
   </si>
   <si>
@@ -789,9 +738,6 @@
     <t>Cebolla, cebollín, ajo, espárrago, nopal, papayo, calabacita, calabaza, chayote, melón, pepino, sandía, piña, jitomate, berenjena, chile, chile habanero, pimiento, tomate de cáscara, zarzamora, fresa, frambuesa, mora, zarzaparrilla, arándano, grosella.</t>
   </si>
   <si>
-    <t>7 y 14 días. Ag ua (pH) 5.5 a 5.5</t>
-  </si>
-  <si>
     <t>Antracnosis (Colletotrichum gloeosporioides), Mildiú (Peronospora destructor), Mancha negra (Pseudocercospora opuntiae), Pudrición de la raíz y cuello (Fusarium oxysporum), (Rhizoctonia solani), Pudrición del cogollo (Phytophthora parasitica).</t>
   </si>
   <si>
@@ -840,18 +786,12 @@
     <t>RSCO-081/V/11</t>
   </si>
   <si>
-    <t>Azospirillum brasilense (1.75 x 10¹¹ UFC/7 ml de hidrog.) y Glomus intraradices (40,000 esporas/ml viables).</t>
-  </si>
-  <si>
     <t>Maíz, sorgo, trigo, cebada, avena, frutales (aguacate, limón, mango), hortalizas (tomate, cebolla, chile).</t>
   </si>
   <si>
     <t>Cereales: Inocular la semilla con 1 dosis/ha. Inocular la semilla con 1 dosis por cada 50 kg. de semilla. Frutales: Disolver en 1000 litros de agua, 3 dosis/ha. En producción: Disolver en 2000 litros de agua, 5 dosis/ha. Hortalizas: Disolver en agua suficiente y aplicar en el riego, 3 dosis/ha.</t>
   </si>
   <si>
-    <t>—</t>
-  </si>
-  <si>
     <t>Efecto: Inoculante a base de bacterias promotoras del crecimiento vegetal y hongos micorrícicos arbusculares. Mejora la nutrición de los cultivos, la tolerancia al estrés hídrico y salino e incrementa los rendimientos.</t>
   </si>
   <si>
@@ -903,9 +843,6 @@
     <t>RSCO-092/VI/19</t>
   </si>
   <si>
-    <t>Brassinolida (0.01%). Liquido soluble.</t>
-  </si>
-  <si>
     <t>Arandano, cerezo, frambuesa, fresa, grosella, mora, zarzamora, berenjena, chile, chile bel, jitomate, papa, tabaco, tomate de cascara, albaricoque, almendra, chabacano, ciruelo, durazno, manzana, membrillo, peral, tejocote, rosa.</t>
   </si>
   <si>
@@ -954,9 +891,6 @@
     <t>Cinna-NeemCE</t>
   </si>
   <si>
-    <t>Natural King</t>
-  </si>
-  <si>
     <t>Ecdy Finn</t>
   </si>
   <si>
@@ -987,9 +921,6 @@
     <t>Nitrógeno (N) 1.120%, Sodio (Na) 1.260%, Fósforo (P₂O₅) 0.8200%, Manganeso (Mn) 0.0004%, Potasio (K₂O) 5.6600%, Hierro (Fe) 0.0028%, Calcio (Ca) 0.2400%, Zinc (Zn) 0.0007%, Magnesio (Mg) 0.1400%, Boro (B) 0.1200%, Azufre (S) 0.2300%. Líquido.</t>
   </si>
   <si>
-    <t>Hormonal, antioxidante, antibiosis natural, acción coloidal y síntesis de proteínas. Fortalece el sistema inmunológico y alimentario, activando sus funciones fisiológicas (aumento en clorofila y capacidad fotosintética) que se traduce en crecimiento y desarrollo equilibrado. Estimula los mecanismos de defensa natural de la planta contra enfermedades fungosas. Proporciona tolerancia contra el estrés ambiental.</t>
-  </si>
-  <si>
     <t>0.5 a 2 L/ha. 5 a 10 ml/L de agua</t>
   </si>
   <si>
@@ -1014,18 +945,12 @@
     <t>Ácidos húmicos, Auxinas 50.048 ppm, Citocininas, Giberelinas 99.875 ppm, Nitrógeno 0.49%, Fósforo (P₂O₅) 0.21%, Potasio (K₂O) 0.41%, Hierro 0.508%, Boro 0.301%, Manganeso 0.251%, Zinc 1.032%, Calcio 1.011%, Magnesio 0.251%, Azufre 0.752%. Líquido. 5.974% Ácidos fúlvicos, 6.911% Líquido soluble.</t>
   </si>
   <si>
-    <t>Es un regulador de crecimiento que contiene auxinas, citocininas, giberelinas, enriquecido con macronutrientes (N, P y K) y micronutrientes, elementos que intervienen en los procesos de formación de tejidos y órganos que determinan el crecimiento y desarrollo normal de las plantas.</t>
-  </si>
-  <si>
     <t>1 a 2 L/ha</t>
   </si>
   <si>
     <t>Aplicación foliar desde el inicio de la floración con intervalo de 30 días hasta la producción.</t>
   </si>
   <si>
-    <t>Mango, Fam. Rutaceae: limón mexicano, limón persa, naranjo, lima, tangerino, mandarina, toronjo, pomelo.</t>
-  </si>
-  <si>
     <t>/fichasTecnica/NutriproTR.pdf</t>
   </si>
   <si>
@@ -1041,18 +966,9 @@
     <t>Nitrógeno total (N): 1.0%, Potasio (K₂O): 40.0%, Azufre (SO₃): 45.0%, Magnesio (MgO): 2.1%. Polvo.</t>
   </si>
   <si>
-    <t>Fertilizante organo-mineral en polvo que contiene nitrógeno, potasio, azufre, magnesio, aminoácidos y materia orgánica. Previene y corrige los síntomas causados por la deficiencia de estos nutrientes. Favorece el amarre y cuajado de frutos.</t>
-  </si>
-  <si>
     <t>Foliar: 4.0 a 6.0 g/L agua. Fertirriego: 5 a 10 kg/ha.</t>
   </si>
   <si>
-    <t>Foliar: Cada 7–14 días. Fertirriego: a partir de trasplante.</t>
-  </si>
-  <si>
-    <t>Jitomate, chile, sandía, melón, calabacita, pepino, fresa, papa y ornamentales.</t>
-  </si>
-  <si>
     <t>/fichasTecnica/NutriproKMg.pdf</t>
   </si>
   <si>
@@ -1077,9 +993,6 @@
     <t>Calcio (CaO): 9.0%, Magnesio (MgO): 2.0%, Boro (B): 1.0%, Azufre (S): 3.5%. Líquido.</t>
   </si>
   <si>
-    <t>Fertilizante organo-mineral líquido con nitrógeno, calcio, magnesio, boro y aminoácidos libres. Mejora el crecimiento apical, calidad de frutos, y corrige deficiencias nutricionales.</t>
-  </si>
-  <si>
     <t>Foliar: 2.5 a 3.5 ml/L de agua. Fertirriego: 2.0 a 4.0 L/ha.</t>
   </si>
   <si>
@@ -1101,18 +1014,12 @@
     <t>Nitrógeno Orgánico: (16.00%). Carbono Orgánico: (44.00%). Micro-gránulos hidrosolubles.</t>
   </si>
   <si>
-    <t>Nutriente vegetal en microgránulos solubles que contiene nitrógeno orgánico y aminoácidos activos. Estimula el desarrollo radicular, crecimiento y calidad de los frutos.</t>
-  </si>
-  <si>
     <t>5 a 20 kg/ha.</t>
   </si>
   <si>
     <t>Realizar dos aplicaciones dirigidas al suelo en la etapa de desarrollo vegetativo y floración.</t>
   </si>
   <si>
-    <t>Aguacate, berenjena, chile, jitomate, okra, papa, pimiento morrón, tomate, arándano, frambuesa, fresa, grosella, zarzamora, zarzaparrilla, calabaza, calabacita, chayote, melón, pepino, sandía.</t>
-  </si>
-  <si>
     <t>/fichasTecnica/NutriproEnergy.pdf</t>
   </si>
   <si>
@@ -1128,18 +1035,6 @@
     <t>KBorCa</t>
   </si>
   <si>
-    <t>Fertilizante líquido formulado con Boro y Calcio para prevenir y corregir deficiencias en cultivos. Mejora la calidad de frutos, reduce problemas fisiológicos y favorece la floración y cuajado.</t>
-  </si>
-  <si>
-    <t>1-2 L/ha en aplicaciones foliares; 5-10 L/ha en fertirrigación.</t>
-  </si>
-  <si>
-    <t>Cada 8 a 15 días, dependiendo del cultivo y etapa fenológica.</t>
-  </si>
-  <si>
-    <t>Aguacate, vid, cítricos, berries, hortalizas, frutales.</t>
-  </si>
-  <si>
     <t>/fichasTecnica/KBorCa.pdf</t>
   </si>
   <si>
@@ -1149,24 +1044,9 @@
     <t>/FotosProducto/KBorCa.png</t>
   </si>
   <si>
-    <t>12 x 1 L, 4 x 5 L, 1 x 20 L</t>
-  </si>
-  <si>
     <t>RSCO-075/XI/04</t>
   </si>
   <si>
-    <t>Extracto de aminoácidos vegetales que estimula síntesis de proteínas, transporte de microelementos y recuperación del cultivo.</t>
-  </si>
-  <si>
-    <t>2.5–5 L/ha foliar; hasta 5 L/ha por ciclo</t>
-  </si>
-  <si>
-    <t>Cada 2 a 3 semanas durante el ciclo</t>
-  </si>
-  <si>
-    <t>Frutales, ornamentales, hortalizas</t>
-  </si>
-  <si>
     <t>/fichasTecnica/Aminoacidos.pdf</t>
   </si>
   <si>
@@ -1176,9 +1056,6 @@
     <t>/FotosProducto/Aminoacidos.png</t>
   </si>
   <si>
-    <t>Presentación no visible</t>
-  </si>
-  <si>
     <t>Aminofit:Xtra</t>
   </si>
   <si>
@@ -1326,12 +1203,6 @@
     <t>Oil Premium</t>
   </si>
   <si>
-    <t>100% Mezcla de Aceites vegetales y emulsificantes. Concentrado emulsionable.</t>
-  </si>
-  <si>
-    <t>Hortalizas: 0.7 a 2.5 L/100 L agua. Frutales: 1 a 3 L/100 L agua. Plátano: 12 L/ha en aplicación terrestre y 3.5 a 5 L/ha aérea. Cítricos: 10 a 12 L/ha.</t>
-  </si>
-  <si>
     <t>/fichasTecnica/OilPremium.pdf</t>
   </si>
   <si>
@@ -1344,9 +1215,6 @@
     <t>PineOil</t>
   </si>
   <si>
-    <t>100% Mezcla de Pinenos, Aceites vegetales y Emulsificantes. Concentrado soluble.</t>
-  </si>
-  <si>
     <t>0.4 a 0.6 L/ha, 1 L/ha en volumen de agua mayor a 800 L/ha.</t>
   </si>
   <si>
@@ -1362,9 +1230,6 @@
     <t>Ionic Ultra</t>
   </si>
   <si>
-    <t>Nueva generación que contiene mezcla de poliéter polisiloxano modificado, solventes y auxiliares. Concentrado soluble.</t>
-  </si>
-  <si>
     <t>40 a 60 ml/100 L agua; con herbicidas, defoliantes y fertilizantes foliares: 50 a 100 ml/100 L de agua.</t>
   </si>
   <si>
@@ -1560,12 +1425,6 @@
     <t>Carbendazim. Polvo humectable 500 g i.a./kg.</t>
   </si>
   <si>
-    <t>350 a 500 g/ha y 60–90 g/100 L de agua</t>
-  </si>
-  <si>
-    <t>9 a 20 días. Agua (pH): 5 a 5.5</t>
-  </si>
-  <si>
     <t>/fichasTecnica/Carbenpro.pdf</t>
   </si>
   <si>
@@ -1584,12 +1443,6 @@
     <t>Benomilo. Polvo humectable 500 g i.a./kg.</t>
   </si>
   <si>
-    <t>200 a 500 g/ha, 30 a 60 g/100 L de agua. Preventivo y curativo.</t>
-  </si>
-  <si>
-    <t>7 a 14 días en hortalizas y cada 21 días en frutales. Agua (pH): 5 a 5.5</t>
-  </si>
-  <si>
     <t>/fichasTecnica/Promilo.pdf</t>
   </si>
   <si>
@@ -1611,12 +1464,6 @@
     <t>Tiofanato metílico. Suspensión concentrada 503.53 g i.a./L (25ºC).</t>
   </si>
   <si>
-    <t>0.5 a 1.5 L/ha</t>
-  </si>
-  <si>
-    <t>Realizar 3 aplicaciones dirigidas al suelo a intervalo de 14 días; 1150–1250 L de agua/ha.</t>
-  </si>
-  <si>
     <t>/fichasTecnica/PromethylSC.pdf</t>
   </si>
   <si>
@@ -1659,12 +1506,6 @@
     <t>Carbendazim. Suspensión acuosa 500.76 g de i.a./L.</t>
   </si>
   <si>
-    <t>566 a 600 ml/ha. Preventivo y curativo.</t>
-  </si>
-  <si>
-    <t>7 a 10 días. Agua (pH): 5 a 5.5</t>
-  </si>
-  <si>
     <t>/fichasTecnica/Carbenpro500F.pdf</t>
   </si>
   <si>
@@ -1683,9 +1524,6 @@
     <t>Clorotalonil. Suspensión acuosa 700 g de i.a./L.</t>
   </si>
   <si>
-    <t>Frutales: 200 a 350 ml/100 L. Hortalizas: 1.3 a 4 L/ha. Ornamentales: 125 a 200 g/100 L. Preventivo.</t>
-  </si>
-  <si>
     <t>4 a 14 días. Agua (pH): 5.5 a 6.5</t>
   </si>
   <si>
@@ -1710,9 +1548,6 @@
     <t>Piraclostrobina. Concentrado Emulsionable</t>
   </si>
   <si>
-    <t>250 a 750 ml/ha</t>
-  </si>
-  <si>
     <t>7 a 14 días al fruto y follaje al detectar primeros síntomas.</t>
   </si>
   <si>
@@ -1788,9 +1623,6 @@
     <t>Estreptomicina, oxitetraciclina y oxicloruro de cobre. Polvo humectable 17.6 g, 1.76 g, 424 g i.a./kg respectivamente.</t>
   </si>
   <si>
-    <t>625 g/100 L de agua.</t>
-  </si>
-  <si>
     <t>/fichasTecnica/Agrimycu100.pdf</t>
   </si>
   <si>
@@ -1812,9 +1644,6 @@
     <t>Polvo humectable 150 g, y 15 g de i.a./kg respectivamente.</t>
   </si>
   <si>
-    <t>60 g/100 L de agua.</t>
-  </si>
-  <si>
     <t>/fichasTecnica/Agrimycu500.pdf</t>
   </si>
   <si>
@@ -1839,9 +1668,6 @@
     <t>1 a 3 L/ha. y 5 a 10 L/ha.</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>/fichasTecnica/AnibacPlusCu.pdf</t>
   </si>
   <si>
@@ -1866,9 +1692,6 @@
     <t>Cuaternario de amonio (4a. Gen.), Glutaraldehído, Terpenos de naranja tensoactivos. Líquido soluble</t>
   </si>
   <si>
-    <t>1 a 1.5 L /200 L de agua.</t>
-  </si>
-  <si>
     <t>/fichasTecnica/AnibacCitrico.pdf</t>
   </si>
   <si>
@@ -1899,12 +1722,6 @@
     <t>/FotosProducto/Anibac580.png</t>
   </si>
   <si>
-    <t>Aguacatero, ajo, cebolla, cebollin, esparrago, arandano, frambuesa, fresa, hortalizas, tomate, berenjena, chile, pimiento morron, tabaco, maiz, pepino, calabaza, sandia, melon, brocoli, col, col de bruselas, coliflor, ejote, lechuga, espinaca, limon mexicano, lima, toronja, mandarina, naranja, mango, guayaba, zarzamora, mora azul, frambuesa, chayote, entre otros.</t>
-  </si>
-  <si>
-    <t>Aguacatero, ajo, cebolla, cebollin, esparrago, arandano, frambuesa, fresa, grosella, zarzamora, berenjena, chile, jitomate, papa, pimiento, tabaco, tomate de cascara, brocoli, col, col de bruselas, coliflor, calabacita, calabaza, chayote, melon, pepino, pina, sandia, lima, limonero, mandarina, naranjo, tangerino, toronjo, nopal.</t>
-  </si>
-  <si>
     <t>Araña roja (Oligonychus punicae), Trips (Thrips tabaci), Araña roja (Tetranychus urticae), Trips (Frankliniella occidentalis), Mosca del vinagre de las alas manchadas (Drosophila suzukii), Mosquita blanca (Bemisia tabaci), Trips oriental (Thrips palmi), Palomilla dorso de diamante (Plutella xylostella), Gusano falso medidor (Trichoplusia ni), Pulgón (Brevicoryne brassicae), Psílido asiático (Diaphorina citri), Acaro blanco (Polyphagotarsonemus latus), Piojo harinoso (Planococcus citri), Pulgón negro de los cítricos (Toxoptera aurantii), Chinche lygus (Lygus lineolaris), Cochinilla (Dactylopius coccus), Ácaro rojo de las palmas (Raoiella indica), Araña roja (Tetranychus urticae), Trips (Frankliniella occidentalis).</t>
   </si>
   <si>
@@ -1914,9 +1731,6 @@
     <t>Dioctil sulfosuccinato de sodio. Líquido Soluble. (70.00% ).</t>
   </si>
   <si>
-    <t>Es un agente humectante para ser utilizado en aplicaciones de fungicidas, insecticidas y/o herbicidas con el fin de mejorar la distribución de estos productos sobre la superficie de los vegetales. Bio Punch reduce la tensión superficial de las emulsiones a aplicar, favoreciendo la permanencia y penetración del fitosanitario utilizado, así como una mayor retención del producto sobre la superficie objetivo. Promueve una película delgada y uniforme lo que acelera la incorporación de los productos sistémicos aumentando la velocidad de acción y disminuyendo las pérdidas.</t>
-  </si>
-  <si>
     <t xml:space="preserve">.5 mL/L de agua </t>
   </si>
   <si>
@@ -1929,18 +1743,12 @@
     <t>Mezcla de extracto de higuerilla (Ricinus communis), Solvente y Emulsificantes.</t>
   </si>
   <si>
-    <t>Insectos y nematodos y es recomendable vs mosquita blanca, pulgón y otros áfidos, Flexibilidad de uso, Insecticida utilizado en MIP</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 a 1.5 L/200 L de agua. </t>
   </si>
   <si>
     <t xml:space="preserve">Mezcla de poliéter polisiloxano modificado, carbometoxianilina, Solventes y Auxiliares. </t>
   </si>
   <si>
-    <t>Repelente de pájaros</t>
-  </si>
-  <si>
     <t>Granos: Maiz, sorgo, cebada, arroz, trigo, avena.</t>
   </si>
   <si>
@@ -1983,9 +1791,6 @@
     <t>/FotosCatalogo/Omega.png</t>
   </si>
   <si>
-    <t>/FotosCatalogo/NaturalKing.png</t>
-  </si>
-  <si>
     <t>/FotosCatalogo/RepelentAjo.png</t>
   </si>
   <si>
@@ -2167,6 +1972,321 @@
   </si>
   <si>
     <t>/FotosCatalogo/Anibac580.png</t>
+  </si>
+  <si>
+    <t>Aguacatero, ajo, cebolla, cebollín, espárrago, arándano, frambuesa, fresa, grosella, zarzamora, berenjena, chile, chile habanero,chile jalapeño, jitomate, papa, pimiento, morrón, tabaco, tomate de cáscara,  berenjena, brócoli, col, col de bruselas, coliflor, lechuga, lima, limonero, limón mexicano, limón persa, mandarina, naranjo, pomelo, tangerina, toronjo, manzano, peral nopal, palma de coco, papaya, calabacita, calabaza, chayote, melón, pepino, sandía.</t>
+  </si>
+  <si>
+    <t>Aguacatero, ajo, cebolla, cebollín, esparrago, arándano, frambuesa, fresa, grosella, zarzamora, berenjena, chile, jitomate, papa, pimiento, tabaco, tomate de cáscara, brócoli, col, col de bruselas, coliflor, calabacita, calabaza, chayote, melón, pepino, piña, sandía, lima, limonero, mandarino, naranjo, tangerina, toronjo, nopal</t>
+  </si>
+  <si>
+    <t>Araña roja (Oligonychus punicae), Trips (Thrips tabaci), Araña roja (Tetranychus urticae), Barrenador del fruto (Thecla basilides), Trips (Frankliniella occidentalis), Mosca blanca (Bemisia tabaci), Palomilla dorso de diamante (Plutella xylostella), Gusano falso medidor (Trichoplusia ni), Adultos de psílido asiático (Diaphorina citri), Pulgón negro de los cítricos (Toxoptera aurantii), Ácaro blanco (Polyphagotarsonemus latus), Cochinilla (Dactylopius coccus)</t>
+  </si>
+  <si>
+    <t>Aguacatero, ajo, arándano, cebolla, cebollín, espárrago,  frambuesa, fresa, grosella, lima, limonero, mandarino, naranjo, nopal, tangerino, toronjo, zarzamora, berenjena, calabacita, calabaza, chayote, chile, jitomate, melón, papa, pepino, pimiento, tabaco, sandía, tomate de cáscara, vid.</t>
+  </si>
+  <si>
+    <t>Extracto de Canela (Cinnamomum zeylanicum), Emulsión aceite en agua (15.0%).</t>
+  </si>
+  <si>
+    <t>Araña roja (Oligonychus punicae), Trips (Thrips tabaci), Araña roja (Tetranychus urticae), Trips (Frankliniella occidentalis), Mosca blanca (Bemisia tabaci), Psílido asiático (Diaphorina citri), Ácaro blanco (Polyphagotarsonemus latus), Piojo harinoso (Planococcus citri), Cochinilla (Dactylopius coccus), Pulgón (Aphis illinoisensis).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSCO-INAC-0101W-0426-375-50 </t>
+  </si>
+  <si>
+    <t>Ajo, cebolla, cebollín, espárrago,  fresa, zarzamora, frambuesa, arándano, grosella,  limonero, naranjo, lima, tangerino, mandarina, toronja, clementina,  tangerina, pomelo,  nopal, calabacita, calabaza, chayote, melón, sandía, pepino, berenjena, chile, chile habanero, chile jalapeño, jitomate, papa, pimiento morrón, tabaco, tomate de cáscara , piña apio, acelga, espinaca, lechuga, manzano, peral, nogal, vid , papaya</t>
+  </si>
+  <si>
+    <t>Nemátodo agallador (Meloidogyne incognita Nemátodo lesionador (Pratylenchus spp.), Nemátodo daga (Xiphinema sp.), Nemátodo agallador (Meloidogyne spp.)</t>
+  </si>
+  <si>
+    <t>RSCO-FUNG-0301M-303-052-095</t>
+  </si>
+  <si>
+    <t>De 6 a 14 días.</t>
+  </si>
+  <si>
+    <t>7 y 14 días. Agua (pH) 5 a 5.5</t>
+  </si>
+  <si>
+    <t>Azospirillum brasilense (1.75 x 1011 UFC/7 ml de hidrogel), Glomus intraradices (40,000 esporas/ml, esporas viables/7 ml de hidrogel).</t>
+  </si>
+  <si>
+    <t>Brasinolida Líquido soluble (0.01%).</t>
+  </si>
+  <si>
+    <t>Efecto: Regulador de crecimiento extraído de polen que estimula la división celular, elongación celular y actividad fotosintética. Estimula la germinación y promueve el crecimiento de raíces en plántulas y plantas establecidas. Provoca la asimilación, transporte y distribución de los nutrientes hacia los tejidos de la planta estimulando su crecimiento vegetativo, floración, amarre, peso y calidad de los frutos. Prolonga la vida de anaquel de las partes de las cosechas.</t>
+  </si>
+  <si>
+    <t>Efecto: Está elaborado a base de leonardita que mejora las características físico-químicas del suelo, la actividad microbiana y los procesos fisiológicos de las plantas estimulando su crecimiento. Incrementa la capacidad de intercambio catiónico y quelata los nutrientes favoreciendo su disponibilidad y asimilación. Ayuda a restablecer la  fertilidad en sustratos pobres en materia orgánica o suelos degradados</t>
+  </si>
+  <si>
+    <t>Efecto: Hormonal, antioxidante, antibiosis natural, acción coloidal y síntesis de proteínas. Fortalece el sistema inmunológico y alimentario, activando sus funciones fisiológicas (aumento en clorofila y capacidad fotosintética) que se traduce en crecimiento y desarrollo equilibrado. Estimula los mecanismos de defensa natural de la planta contra enfermedades fungosas. Proporciona tolerancia contra el estrés ambiental.</t>
+  </si>
+  <si>
+    <t>Mango, Fam. Rutaceae: limón mexicano, limón persa, naranjo, lima, tangerino, mandarino, toronjo, pomelo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efecto: Es un regulador de crecimiento que contiene auxinas, citocininas, giberelinas, enriquecido con macronutrientes (N, P y K) y micronutrientes, elementos que intervienen en los procesos de formación de tejidos y órganos que determinan el crecimiento y desarrollo normal de 12 x 1 L. las plantas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jitomate, chile, sandía, melón, calabacita, pepino, fresa, papa y ornamentales. </t>
+  </si>
+  <si>
+    <t>Foliar: Cada 7–14 días. Fertirriego: A partir de trasplante.</t>
+  </si>
+  <si>
+    <t>Efecto: Fertilizante organo-mineral en polvo que contiene nitrógeno, potasio, azufre, magnesio, aminoácidos y materia orgánica. Previene y corrige los síntomas causados por la deficiencia de nitrógeno, potasio, azufre y magnesio. Los aminoácidos totales y materia orgánica facilita la penetración y translocación de los nutrientes al interior de la planta, ayudando al cultivo en el desarrollo vegetativo y favorece el amarre y cuajado de los frutos.</t>
+  </si>
+  <si>
+    <t>Efecto: Es un fertilizante organo-mineral líquido que contiene nitrógeno, calcio,magnesio, boro y aminoácidos libres. Por su contenido de calcio ayuda directamente en el crecimiento apical, consistencia de la estructura de la planta y la calidad de los frutos después del amarre., previene y corrige los síntomas causados por la deficiencia de nitrógeno, calcio, magnesio y boro, los aminoácidos libres ayudan a que la planta asimile los nutrientes disponibles, ayuda al cultivo en cuajado y desarrollo del fruto.</t>
+  </si>
+  <si>
+    <t>Aguacate berenjena, chile, jitomate, okra, papa, pimiento morrón, tomate, arándano, frambuesa, fresa, grosella, zarzamora, zarzaparrilla, calabaza, calabacita, chayote, melón, pepino, sandía.</t>
+  </si>
+  <si>
+    <t>Efecto: Nutriente Vegetal formulado en microgránulos altamente solubles en agua que contiene nitrógeno orgánico y aminoácidos activos que permiten una respuesta rápida de los cultivos. Está diseñado para aportar nitrógeno en las etapas de mayor demanda del cultivo, para estimular el desarrollo radicular y vegetal, así como el calibre y calidad de los frutos.</t>
+  </si>
+  <si>
+    <t>Berries, hortalizas, frutales, granos, forrajes y ornamentales.</t>
+  </si>
+  <si>
+    <t>Berries y Hortalizas 1 - 2 L/ha. Frutales 2- 4 L/ha. Granos y Forrajes 1 – 1.5 L/ha. Ornamentales 50 – 70 ml/100 L de agua.</t>
+  </si>
+  <si>
+    <t>Efecto: Es un nutriente vegetal que contiene calcio quelado, boro, potasio y nitrógeno, recomendado para prevenir trastornos fisiológicos asociados con su deficiencia. Promueve vigor en las plantas, tallos fuertes, reduce el aborto de flores y frutos, promueve la floración y el amarre de frutos. Mejora la calidad de los frutos , maduración, firmeza y vida de anaquel.</t>
+  </si>
+  <si>
+    <t>Frutales, ornamentales y hortalizas.</t>
+  </si>
+  <si>
+    <t>Vía foliar: 2.5-5 L/ha. Suelo: 5-15 L/ha/Ciclo</t>
+  </si>
+  <si>
+    <t>Durante todo el ciclo del cultivo y de 2 a 3 semanas.</t>
+  </si>
+  <si>
+    <t>Efecto: Síntesis de proteínas que desarrollan funciones estructurales, enzimáticas y hormonales, relacionadas con los mecanismos de regulación del crecimiento y desarrollo vegetal. Forma quelatos con microelementos favoreciendo su transporte y asimilación. Recupera daños en cultivos.</t>
+  </si>
+  <si>
+    <t>Efecto: Es un regulador de crecimiento que interviene en los procesos metabólicos y fisiológicos de las plantas: división celular, síntesis de clorofila, aporte de energía y sustancias nutritivas. Aplíquelo para estimular la condición nutrimental de la planta, el volumen radicular, la altura de planta, biomasa seca de la planta</t>
+  </si>
+  <si>
+    <t>Efecto: Es un regulador de crecimiento que contiene fitohormonas, extracto de algas marinas, nitrógeno y fósforo en forma asimilable, que provocan la formación y el crecimiento de la raíz.</t>
+  </si>
+  <si>
+    <t>Efecto: Es un nutriente vegetal que contiene cloruro de magnesio líquido, que promueve la síntesis de clorofila (pigmento verde fotosintético), la formación de azúcares y mejora la eficiencia de utilización del Nitrógeno, estimulando el crecimiento de los cultivos, su rendimiento y la calidad de los productos cosechados. Aplicado al follaje, al suelo o fertirriego, provee magnesio y cloruro de fácil asimilación por las plantas para el tratamiento de sus deficiencias. Adicionalmente, ayuda a prevenir la acumulación de aminoácidos libres en las plantas que las hacen atractivas para los insectos plagas.</t>
+  </si>
+  <si>
+    <t>Efecto: Mejora la distribución de los insecticidas sobre la superficie de los vegetales, reduce la tensión superficial de las emulsiones a aplicar, favoreciendo la permanencia y penetración del fitosanitario utilizado, así como una mayor retención del producto sobre la superficie objetivo.</t>
+  </si>
+  <si>
+    <t>Puede mezclarse con otros insumos sin restricción alguna.</t>
+  </si>
+  <si>
+    <t>Efecto: Es un coadyuvante orgánico, no iónico a base de aceite de soya y de ricino y de disolventes exentos de tolerancias, que encapsula los ingredientes activos, protegiéndolos de la degradación, Además proporciona condiciones favorables en las soluciones de aspersión que contienen microorganismos benéficos, promoviendo su establecimiento y actividad inicial en las plagas blanco.</t>
+  </si>
+  <si>
+    <t>Mezcla de Aceites vegetales y emulsificantes (100.00%). Concentrado emulsionable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es compatible con captan, carbaril, dimetoato, azufre y fuentes de NPK foliares. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hortalizas 0.7 a 2.5 L/100 L de agua. Frutales: 1 a 3 L/100 L de agua. Plátano: 12 L/ha en aplicación terrestre y 3.5 a 5 L/ha aérea. Cítricos: 10 a 12 L/ha. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efecto: Es un aceite vegetal diseñado como coadyuvante potencializador de los agroquímicos o bioinsumos con que sea mezclado, ya que les aumenta su efectividad y vida útil en campo, protegiéndolos de los rayos solares. Es indicado para las aplicaciones con insecticidas, fungicidas, herbicidas y acaridas para el control de plagas y enfermedades. </t>
+  </si>
+  <si>
+    <t>Mezcla de Pinenos, Aceites vegetales y Emulsificantes (100.00%). Concentrado Soluble.</t>
+  </si>
+  <si>
+    <t>Incompatible con productos de fuerte reacción alcalina. Es necesario realizar una prueba de compatibilidad previa aplicación.</t>
+  </si>
+  <si>
+    <t>Efecto: Alarga la vida útil de tus aplicaciones, al mantener adheridos al follaje los productos con que se mezcla. Los encapsula y protege de la radiación solar, por lo que impide su lavado por efecto de la lluvia, además tiene un efecto anti-transpirante que evita choque de trasplante y la deshidratación.</t>
+  </si>
+  <si>
+    <t>Mezcla de poliéter polisiloxano modificado, solventes y auxiliares. Concentrado Soluble.</t>
+  </si>
+  <si>
+    <t>Para las mezclas que se realicen con otros productos se recomienda utilizar los que cuenten con registro autorizado y vigente. No presenta cuadros de incompatibilidad debido a que es un coadyuvante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efecto: Nueva generación que contiene una mezcla de poliéter polisiloxano modificado, útil para mejorar las características de humectación, extensión y penetración de soluciones que involucran plaguicidas, facilitando la cobertura, y acentuando la efectividad biológica en aplicaciones foliares de soluciones acuosas. </t>
+  </si>
+  <si>
+    <t>Su naturaleza química lo hace compatible con otros tensoactivos aniónicos, catiónicos y coloides cargados positiva y negativamente.</t>
+  </si>
+  <si>
+    <t>Efecto: Coadyuvante no iónico que por su acción adherente, humectante, dispersante, facilita un cubrimiento adecuado del follaje y superficies tratadas, de los bio plaguicidas y/o plaguicidas aplicados foliarmente en soluciones acuosas, acentuando su efectividad biológica.</t>
+  </si>
+  <si>
+    <t>Efecto: Coadyuvante no ionico que mejora las características de acidificación, adherencia y humectación de soluciones de aspersión que involucran plaguicidas tales como herbicidas, fungicidas, insecticidas y desecantes. Reduce la tensión superficial del agua, homogeniza las mezclas de plaguicidas y facilita una mejor distribución sobre las superficies tratadas, permitiendo que los activos actúen a su máxima capacidad y evita su degradación prematura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No presenta cuadros de incompatibilidad debido a que es un coadyuvante. Evite el contacto con agentes oxidantes fuertes. </t>
+  </si>
+  <si>
+    <t>Efecto: Es una mezcla eficaz de aceites de semillas metilados altamente refinados en combinación con tensioactivos no iónicos especializados a base de organosilicona. El componente de aceite de Prowet Biodyna proporciona una excelente penetración, mientras que el surfactante brinda una cobertura y un esparcimiento altamente efectivos, además ofrece acción antievaporante.</t>
+  </si>
+  <si>
+    <t>Efecto: Es un agente humectante para ser utilizado en aplicaciones de fungicidas, insecticidas y/o herbicidas con el fin de mejorar la distribución de estos productos sobre la superficie de los vegetales. Bio Punch reduce la tensión superficial de las emulsiones a aplicar, favoreciendo la permanencia y penetración del fitosanitario utilizado, así como una mayor retención del producto sobre la superficie objetivo. Promueve una película delgada y uniforme lo que acelera la incorporación de los productos sistémicos aumentando la velocidad de acción y disminuyendo las pérdidas.</t>
+  </si>
+  <si>
+    <t>Efecto: Insectos y nematodos y es recomendable vs mosquita blanca, pulgón y otros áfidos, Flexibilidad de uso, Insecticida utilizado en MIP</t>
+  </si>
+  <si>
+    <t>Efecto: Repelente de pájaros</t>
+  </si>
+  <si>
+    <t>Puede mezclarse con cualquier tipo de plaguicida registrado sin restricción alguna.</t>
+  </si>
+  <si>
+    <t>Efecto: Es un coadyuvante no iónico, provoca gotas finas que mejoran la cobertura, reduce la deriva, la evaporación y el lavado por efecto de la lluvia. Facilita la penetración de los ingredientes activos en superficies de difícil mojado y disminuye el riesgo de manchas o quemaduras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puede mezclarse con cualquier tipo de plaguicida registrado sin restricción alguna. Este material no precipita en presencia de iones de dureza de agua. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efecto: Es un coadyuvante no iónico que mejora las características de adherencia y acidificación de soluciones de aspersión. Reduce la tensión superficial del agua, homogeniza las mezclas de plaguicidas y facilita una mejor distribución sobre las superficies tratadas, permitiendo que los activos actúen a su máxima  capacidad y evita su degradación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puede mezclarse con cualquier tipo de plaguicida registrado sin restricción alguna. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efecto: Reduce la tensión superficial del agua, permitiendo que los ingredientes activos de los insumos fitosanitarios se muevan más rápido en dirección vertical (penetraciòn) y horizontal (dispersión) en suelos arcillosos o subsuelo denso evitando la escorrentía sin deteriorar la estructura del suelo. Promueve la extensión del bulbo de humedecimiento en las capas profundas del perfil del suelo haciendo disponible el agua para las raíces de las plantas. </t>
+  </si>
+  <si>
+    <t>Contiene azúcares, aminoácidos naturales, materia orgánica y ácidos húmicos que estimulan el crecimiento radicular y promueven la flora microbiana, con el enriquecimiento paulatino de la textura y estructura del suelo.</t>
+  </si>
+  <si>
+    <t>Efecto: Es un coadyuvante que mejora la extensión horizontal y retención vertical en el perfil de suelo de las soluciones acuosos que contengan nutrientes vegetales, fertilizantes, reguladores de crecimiento y plaguicidas solubles. Reduce la tensión superficial del agua permitiendo la extensión del bulbo de humedecimiento en el  estrato superior del suelo en donde se localiza la zona radicular de los cultivos, mejorando la absorción de los plaguicidas sistémicos y de las soluciones nutritivas en el menor tiempo de suministro de agua, evitando su escorrentía y lixiviación.</t>
+  </si>
+  <si>
+    <t>9 a 20 días. Realice mezclas con productos de contacto y rotación con productos de diferente modo y mecanismo de acción. Agua (pH): 5 a 5.5</t>
+  </si>
+  <si>
+    <t>Frijol, soya, cacahuate, ornamentales, limón mexicano, limón persa, naranjo, lima, mandarino, tangerino, toronjo, mango, piña, tomate, tomate de cascara.</t>
+  </si>
+  <si>
+    <t>350 a 500 g/ha. y 60-90 g/100 L de agua.</t>
+  </si>
+  <si>
+    <t>Moho gris (Botrytis cinerea), Tizón del tallo y vainas (Diaporthe phaseolorum), Antracnosis (Colletotrichum lindemuthianum), Mancha ojo de rana (Cercospora sojina), Moho gris (Botrytis cinerea), Tizón del tallo y vainas (Diaporthe phaseolorum var. Sojae), Antracnosis (Ascochyta spp), Mancha de la hoja (Cercospora personata, Cercospora arachidicola), Moho gris (Botrytis spp), Mancha foliar (Cercospora spp, Phomosis spp, Ascochyta chrysanthemi, Septoria chrysanthemi) Mancha negra (Diplocarpon rosae) Cenicilla (Sphaerotheca spp) Pudrición del cuello, Damping-off, Pudrición radical (Rhizoctonia spp, Fusarium spp, Sclerotinia spp) Pudrición de corteza (Thielaviopsis spp), Antracnosis (Colletotrichum gloesporioides), Pudrición de raíz y cuello (Fusarium oxysporum).</t>
+  </si>
+  <si>
+    <t>Aguacatero, apio, ciruelo, limonero, mandarino, naranjo, toronjo, col, calabacita, melón, pepino, durazno, fresa, frijol, jitomate, mango, manzano, peral, plátano, soya, vid</t>
+  </si>
+  <si>
+    <t>200 a 500 g/ha, 30 a 60 g/100 L de agua. Preventivo y curativo</t>
+  </si>
+  <si>
+    <t>7 a 14 días en hortalizas y cada 21 días en frutales. Realice mezclas con productos de contacto y rotación con productos de diferente modo y mecanismo de acción. Agua (pH): 5 a 5.5</t>
+  </si>
+  <si>
+    <t>Antracnosis (Colletotrichum gloeosporioides, Colletotrichum lagenarium, Colletotrichum lindemuthianum, Colletotrichum phomoides), Cenicillas (Oidium tingitaninum, Erysiphe cichoracearum), Manchas foliares (Cercospora purpurea, Coryneum beijerinckii, Mycosphaerella fragariae, Septoria lycopersici, Cercospora kikuchii), Fumagina (Capnodium spp.), Pudrición gomosa (Mycosphaerella citrulina), Mohos (Botrytis cinerea, Sclerotinia sclerotiorum, Cladosporium fulvum), Roñas o Sarnas (Sphaceloma perseae, Venturia cerasi, Cladosporium carpophilum, Venturia inaequalis, Venturia pirina), Sigatoka (Mycosphaerella musicola, Mycosphaerella fijiensis var. Difformis), Tizones foliares (Cercospora apii, Septoria apii, Diaporthe phaseolorum), Pudriciones de raíz, tallos, flores y frutos (Monilinia fructicola, Sclerotinia sp., Mycosphaerella citrulina, Botrytis cinerea, Glomerella cingulata, Guignardia bidwellii).</t>
+  </si>
+  <si>
+    <t>Cebolla, ajo, cebollín, espárrago, limón persa, limón mexicano, naranjo, lima, mandarino, tangerino, toronjo, calabaza, calabacita, chayote, melón, pepino, sandia, manzano, peral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5 a 1.5 L/ha. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar 3 aplicaciones dirigidas al suelo a intervalo de 14 días; volumen de aplicación 1150-1250 L de agua/ha. </t>
+  </si>
+  <si>
+    <t>Pudrición blanca (Sclerotium cepivorum), Antracnosis (Colletotrichum acutatum), Marchilez del pepino (Fusarium sp), Pudrición morena (Monilinia fructicola)</t>
+  </si>
+  <si>
+    <t>Ajo, apio, cebolla, cebollin, chabacano, ciruelo, durazno, esparrago, fresa, frijol, manzano, melón, nectarino, papa, pepino, plátano, trigo, sandía.</t>
+  </si>
+  <si>
+    <t>Cenicilla (Oidium sp.), Mohoblanco (Sclerotinia sclerotiorum), Mohogris (Botrytis allii), Antracnosis (Colletotrichum sp.), Mohogris (Botrytis sp.), Pudrición morena (Monilia fructicola), Cenicilla (Sphaerotheca macularis), Roña o sarna (Spilocaea pomi), Antracnosis (Colletotrichum lagenarium), Pudrición del tallo y raíz (Sclerotinia sclerotiorum), Pudrición radical (Verticillium sp.), Costra negra (Rhizoctonia solani), Pudrición radical (Fusarium oxysporum), Antracnosis (Colletotrichum lagenarium), Pudrición del tallo y raíz (Sclerotinia sclerotiorum), Sigatoka negra (Mycosphaerella fijiensis var. difformis) y Cenicilla (Erysiphe graminis), Mancha de hojas y tallos (Septoria tritici).</t>
+  </si>
+  <si>
+    <t>Soya, frijol, piña, tomate.</t>
+  </si>
+  <si>
+    <t>566 a 600 ml/ha. Preventivo y curativo</t>
+  </si>
+  <si>
+    <t>7 a 10 días. Realice mezclas con productos de contacto y rotación con productos de diferente modo y mecanismo de acción. Agua (pH): 5 a 5.5</t>
+  </si>
+  <si>
+    <t>Antracnosis (Colletotrichum lindemuthianum), pudrición de raíz y cuello (fusarium oxysporum).</t>
+  </si>
+  <si>
+    <t>Apio, cacahuate, cacao, cafeto, calabacita, cebolla, col, coliflor, col de bruselas, durazno, frijol, frijol ejotero, jitomate, maíz, melón, pepino, sandía, ornamentales, papa, papayo, plátano, soya.</t>
+  </si>
+  <si>
+    <t>Hortalizas: 1.3 a 4 L/ha, Frutales: 200 a 350 ml/100 L, Ornamentales: 125 a 200 g/100 L de agua. Preventivo.</t>
+  </si>
+  <si>
+    <t>Atracnosis (Colletotrichum gloeosporioides, Colletotrichum dematium), Cenicilla (Erysiphe cichoracearum), Manchas foliares (Cercospora apii, Cercospora coffeicola, Cercospora personata, Alternaria cucumerina, Alternaria porri, Alternaria brassicae, Helminthosporium turcicum, Mycosphaerella brassicola, Stemphylium solani, Corynespora casiicola, Mycosphaerella spp., Diplocarpon rosae, Cercospora sojina), Mohos (Botrytis cinerea, Sclerotinia sclerotiorum), Roya (Uromyces phaseoli), Roña (Cladosporium spp.), Sigatoka (Mycosphaerella musicola, Mycosphaerella fijiensis var. Difformis), Tizones foliares (Septoria apii, Phytophthora infestans, Alternaria solani, Diaporthe phaseolorum), Mildius (Pseudoperonospora cubensis, Peronospora destructor, Peronospora parasitica), Pudriciones de raíz, Tallos, Flores y Frutos (Rhizoctonia solani, Sclerotinia sclerotiorum, Phytophthora spp., Botrytis cinerea, Fusarium sp.), Mal de hilachas (Corticuium koleroga), Ojo de gallo (Mycena citricolor), Pudrición negra (Phytophthora palmivora), Tiro de munición (Coryneum beijerinckii), Verrucosis (Taphrina deformans).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguacate, limonero, naranjo, lima, tangerino, mandarino, toronjo, durazno, manzano, membrillo, peral. </t>
+  </si>
+  <si>
+    <t>250 ml a 750 ml/ha.</t>
+  </si>
+  <si>
+    <t>Antracnosis (Colletotrichum gloeosporioides), Cenicilla (Podosphaera leucotricha)</t>
+  </si>
+  <si>
+    <t>Mango arándano, frambuesa, fresa, grosella, zarzamora, aguacate, ajo, cebolla, cebollín, poro, calabaza, calabacita, chayote, melón, pepino, sandia, berenjena, chile, papa, pimiento morrón, jitomate (tomate rojo), tomate verde, lima, limón mexicano, limón persa, mandarina, naranjo, tanjerino, toronjo, platano.</t>
+  </si>
+  <si>
+    <t>Antracnosis (Colletotrichum gloeosporioides), Cenicilla polvorienta (Sphaerotheca macularis), Mildiu (Peronospora destructor), Mancha púrpura (Alternaria porri), Cenicilla (Golovinomyces cichoracearum Erysiphe cichoracearum), Mildiu (Pseudoperonospora cubensis), Cenicilla (Leveillula taurica= Oidiopsis taurica), Tizón temprano (Alternaria solani), Mancha gris (Stemphylium solani), Antracnosis (Colletotrichum acutatum), Sigatoka negra (Mycosphaerella fijiensis).</t>
+  </si>
+  <si>
+    <t>Peral</t>
+  </si>
+  <si>
+    <t>Tizón de fuego (Erwinia amylovora).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">625 g/100 L de agua. </t>
+  </si>
+  <si>
+    <t>Cada 21 días en árboles frutales. Agua (pH): 5.5 a 6.6</t>
+  </si>
+  <si>
+    <t>Cenicilla (Podosphaera leucotricha), Pudrición amarga (Glomerella cingulata), Pudrición negra (Physalospora obtusa), Tizón de fuego (Erwinia amylovora).</t>
+  </si>
+  <si>
+    <t>60 g/100 L de agua</t>
+  </si>
+  <si>
+    <t>Cada 21 días en árboles frutales. Agua (pH): 5.5 a 6.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tizón de fuego (Erwinia amylovora). </t>
+  </si>
+  <si>
+    <t>Chile, espárrago, jitomate, papa, pimiento, plátano/banano, tomate de cáscara, cabaza, calabacita, chayote, melon, pepino, sandia.</t>
+  </si>
+  <si>
+    <t>Pudrición de raíz y cuello (Fusarium culmorum), Mancha bacteriana (Xanthomonas campestris), Sigatoka negra (Mycosphaerella fijiensis), Fusariosis (Fusarium culmorum).</t>
+  </si>
+  <si>
+    <t>Sobre superficies de cerámica, azulejo y mármol, acero inoxidable, aluminio, cromo, metal galvanizado, estaño, zinc, vidrio, madera tratada no porosa, polietileno, polipropileno, cloruro de polivinil (PVC), vinil, fibra de vidrio, viton, propileno copolímero de etileno, nitrilo, acrílico y poliuretano.</t>
+  </si>
+  <si>
+    <t>1 a 1.5 L /200 L. de agua.</t>
+  </si>
+  <si>
+    <t>Organismos gran positivos y gran negativos, bacterias, virus y hongos proveyendo desinfección.</t>
+  </si>
+  <si>
+    <t>Sanitizante y desinfectante para todas las superficies que tienen contacto con los alimentos aprobado por la USDA, ademas esta declarado por la FDA para uso sobre utensilios, equipos de procesos alimenticios y otros articulos.</t>
+  </si>
+  <si>
+    <t>Bacterias, hongos y algas.</t>
   </si>
 </sst>
 </file>
@@ -2208,8 +2328,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2228,8 +2351,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{039F2443-4A42-41F6-B793-1C636E0B9CE7}" name="Tabla1" displayName="Tabla1" ref="A1:S71" totalsRowShown="0">
-  <autoFilter ref="A1:S71" xr:uid="{039F2443-4A42-41F6-B793-1C636E0B9CE7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{039F2443-4A42-41F6-B793-1C636E0B9CE7}" name="Tabla1" displayName="Tabla1" ref="A1:S70" totalsRowShown="0">
+  <autoFilter ref="A1:S70" xr:uid="{039F2443-4A42-41F6-B793-1C636E0B9CE7}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{1D0C60E3-6557-491A-AE4F-CBA7353FECAA}" name="id"/>
     <tableColumn id="2" xr3:uid="{6B345D3D-0185-4CB6-B44E-FB434CCC9F06}" name="nombre"/>
@@ -2552,38 +2675,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0E1118-D316-435A-B988-9132BD77089D}">
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.265625" customWidth="1"/>
-    <col min="6" max="6" width="17.59765625" customWidth="1"/>
-    <col min="7" max="7" width="50.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1328125" customWidth="1"/>
-    <col min="10" max="10" width="27.265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.1328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.73046875" customWidth="1"/>
-    <col min="17" max="17" width="18.265625" customWidth="1"/>
-    <col min="18" max="18" width="29.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="37.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" customWidth="1"/>
+    <col min="6" max="6" width="139.85546875" customWidth="1"/>
+    <col min="7" max="7" width="255.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="235.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="88.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" customWidth="1"/>
+    <col min="18" max="18" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2640,7 +2763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2648,7 +2771,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -2659,8 +2782,8 @@
       <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
-        <v>621</v>
+      <c r="G2" s="1" t="s">
+        <v>646</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
@@ -2669,7 +2792,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>623</v>
+        <v>562</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
@@ -2687,10 +2810,10 @@
         <v>27</v>
       </c>
       <c r="S2" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2698,7 +2821,7 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -2710,7 +2833,7 @@
         <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="H3" t="s">
         <v>32</v>
@@ -2718,17 +2841,17 @@
       <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="K3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>35</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
       </c>
       <c r="N3" t="s">
         <v>24</v>
@@ -2737,48 +2860,48 @@
         <v>27</v>
       </c>
       <c r="S3" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="G4" t="s">
+        <v>649</v>
+      </c>
+      <c r="H4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="K4" t="s">
         <v>41</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>42</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" t="s">
-        <v>47</v>
       </c>
       <c r="N4" t="s">
         <v>24</v>
@@ -2787,48 +2910,48 @@
         <v>27</v>
       </c>
       <c r="S4" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="s">
+        <v>652</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F5" t="s">
+      <c r="K5" t="s">
         <v>50</v>
       </c>
-      <c r="G5" t="s">
+      <c r="L5" t="s">
         <v>51</v>
       </c>
-      <c r="H5" t="s">
+      <c r="M5" t="s">
         <v>52</v>
-      </c>
-      <c r="I5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" t="s">
-        <v>57</v>
       </c>
       <c r="N5" t="s">
         <v>24</v>
@@ -2837,48 +2960,48 @@
         <v>27</v>
       </c>
       <c r="S5" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
         <v>58</v>
       </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>59</v>
       </c>
-      <c r="G6" t="s">
+      <c r="L6" t="s">
         <v>60</v>
       </c>
-      <c r="H6" t="s">
+      <c r="M6" t="s">
         <v>61</v>
-      </c>
-      <c r="I6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M6" t="s">
-        <v>66</v>
       </c>
       <c r="N6" t="s">
         <v>24</v>
@@ -2887,48 +3010,48 @@
         <v>27</v>
       </c>
       <c r="S6" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
         <v>68</v>
       </c>
-      <c r="F7" t="s">
+      <c r="L7" t="s">
         <v>69</v>
       </c>
-      <c r="G7" t="s">
+      <c r="M7" t="s">
         <v>70</v>
-      </c>
-      <c r="H7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" t="s">
-        <v>75</v>
       </c>
       <c r="N7" t="s">
         <v>24</v>
@@ -2937,48 +3060,48 @@
         <v>27</v>
       </c>
       <c r="S7" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" t="s">
         <v>77</v>
       </c>
-      <c r="F8" t="s">
+      <c r="K8" t="s">
         <v>78</v>
       </c>
-      <c r="G8" t="s">
+      <c r="L8" t="s">
         <v>79</v>
       </c>
-      <c r="H8" t="s">
+      <c r="M8" t="s">
         <v>80</v>
-      </c>
-      <c r="I8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" t="s">
-        <v>85</v>
       </c>
       <c r="N8" t="s">
         <v>24</v>
@@ -2987,48 +3110,48 @@
         <v>27</v>
       </c>
       <c r="S8" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" t="s">
         <v>86</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
         <v>87</v>
       </c>
-      <c r="G9" t="s">
+      <c r="K9" t="s">
         <v>88</v>
       </c>
-      <c r="H9" t="s">
+      <c r="L9" t="s">
         <v>89</v>
       </c>
-      <c r="I9" t="s">
+      <c r="M9" t="s">
         <v>90</v>
-      </c>
-      <c r="J9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" t="s">
-        <v>94</v>
       </c>
       <c r="N9" t="s">
         <v>24</v>
@@ -3037,48 +3160,48 @@
         <v>27</v>
       </c>
       <c r="S9" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" t="s">
         <v>96</v>
       </c>
-      <c r="F10" t="s">
+      <c r="J10" t="s">
         <v>97</v>
       </c>
-      <c r="G10" t="s">
+      <c r="K10" t="s">
         <v>98</v>
       </c>
-      <c r="H10" t="s">
+      <c r="L10" t="s">
         <v>99</v>
       </c>
-      <c r="I10" t="s">
+      <c r="M10" t="s">
         <v>100</v>
-      </c>
-      <c r="J10" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" t="s">
-        <v>103</v>
-      </c>
-      <c r="M10" t="s">
-        <v>104</v>
       </c>
       <c r="N10" t="s">
         <v>24</v>
@@ -3087,48 +3210,48 @@
         <v>27</v>
       </c>
       <c r="S10" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" t="s">
         <v>106</v>
       </c>
-      <c r="F11" t="s">
+      <c r="J11" t="s">
         <v>107</v>
       </c>
-      <c r="G11" t="s">
+      <c r="K11" t="s">
         <v>108</v>
       </c>
-      <c r="H11" t="s">
+      <c r="L11" t="s">
         <v>109</v>
       </c>
-      <c r="I11" t="s">
+      <c r="M11" t="s">
         <v>110</v>
-      </c>
-      <c r="J11" t="s">
-        <v>111</v>
-      </c>
-      <c r="K11" t="s">
-        <v>112</v>
-      </c>
-      <c r="L11" t="s">
-        <v>113</v>
-      </c>
-      <c r="M11" t="s">
-        <v>114</v>
       </c>
       <c r="N11" t="s">
         <v>24</v>
@@ -3137,48 +3260,48 @@
         <v>27</v>
       </c>
       <c r="S11" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" t="s">
         <v>116</v>
       </c>
-      <c r="F12" t="s">
+      <c r="J12" t="s">
         <v>117</v>
       </c>
-      <c r="G12" t="s">
+      <c r="K12" t="s">
         <v>118</v>
       </c>
-      <c r="H12" t="s">
+      <c r="L12" t="s">
         <v>119</v>
       </c>
-      <c r="I12" t="s">
+      <c r="M12" t="s">
         <v>120</v>
-      </c>
-      <c r="J12" t="s">
-        <v>121</v>
-      </c>
-      <c r="K12" t="s">
-        <v>122</v>
-      </c>
-      <c r="L12" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" t="s">
-        <v>124</v>
       </c>
       <c r="N12" t="s">
         <v>24</v>
@@ -3187,48 +3310,48 @@
         <v>27</v>
       </c>
       <c r="S12" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" t="s">
         <v>126</v>
       </c>
-      <c r="F13" t="s">
+      <c r="K13" t="s">
         <v>127</v>
       </c>
-      <c r="G13" t="s">
+      <c r="L13" t="s">
         <v>128</v>
       </c>
-      <c r="H13" t="s">
+      <c r="M13" t="s">
         <v>129</v>
-      </c>
-      <c r="I13" t="s">
-        <v>130</v>
-      </c>
-      <c r="J13" t="s">
-        <v>131</v>
-      </c>
-      <c r="K13" t="s">
-        <v>132</v>
-      </c>
-      <c r="L13" t="s">
-        <v>133</v>
-      </c>
-      <c r="M13" t="s">
-        <v>134</v>
       </c>
       <c r="N13" t="s">
         <v>24</v>
@@ -3237,48 +3360,48 @@
         <v>27</v>
       </c>
       <c r="S13" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H14" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="M14" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="N14" t="s">
         <v>24</v>
@@ -3287,48 +3410,48 @@
         <v>27</v>
       </c>
       <c r="S14" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C15" t="s">
+        <v>572</v>
+      </c>
+      <c r="D15" t="s">
         <v>145</v>
       </c>
-      <c r="C15" t="s">
-        <v>636</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" t="s">
-        <v>54</v>
+        <v>140</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="N15" t="s">
         <v>24</v>
@@ -3337,48 +3460,48 @@
         <v>27</v>
       </c>
       <c r="S15" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>307</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" t="s">
+        <v>149</v>
+      </c>
+      <c r="I16" t="s">
         <v>150</v>
       </c>
-      <c r="F16" t="s">
+      <c r="J16" t="s">
         <v>151</v>
       </c>
-      <c r="G16" t="s">
+      <c r="K16" t="s">
         <v>152</v>
       </c>
-      <c r="H16" t="s">
+      <c r="L16" t="s">
         <v>153</v>
       </c>
-      <c r="I16" t="s">
+      <c r="M16" t="s">
         <v>154</v>
-      </c>
-      <c r="J16" t="s">
-        <v>155</v>
-      </c>
-      <c r="K16" t="s">
-        <v>156</v>
-      </c>
-      <c r="L16" t="s">
-        <v>157</v>
-      </c>
-      <c r="M16" t="s">
-        <v>158</v>
       </c>
       <c r="N16" t="s">
         <v>24</v>
@@ -3387,48 +3510,48 @@
         <v>27</v>
       </c>
       <c r="S16" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C17" t="s">
+        <v>572</v>
+      </c>
+      <c r="D17" t="s">
+        <v>576</v>
+      </c>
+      <c r="E17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" t="s">
         <v>159</v>
       </c>
-      <c r="C17" t="s">
-        <v>636</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="K17" t="s">
         <v>160</v>
       </c>
-      <c r="E17" t="s">
+      <c r="L17" t="s">
         <v>161</v>
       </c>
-      <c r="F17" t="s">
+      <c r="M17" t="s">
         <v>162</v>
-      </c>
-      <c r="G17" t="s">
-        <v>163</v>
-      </c>
-      <c r="H17" t="s">
-        <v>164</v>
-      </c>
-      <c r="I17" t="s">
-        <v>165</v>
-      </c>
-      <c r="J17" t="s">
-        <v>166</v>
-      </c>
-      <c r="K17" t="s">
-        <v>167</v>
-      </c>
-      <c r="L17" t="s">
-        <v>168</v>
-      </c>
-      <c r="M17" t="s">
-        <v>169</v>
       </c>
       <c r="N17" t="s">
         <v>24</v>
@@ -3437,48 +3560,48 @@
         <v>27</v>
       </c>
       <c r="S17" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="C18" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="D18" t="s">
-        <v>640</v>
+        <v>576</v>
       </c>
       <c r="E18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>165</v>
+      </c>
+      <c r="H18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" t="s">
         <v>170</v>
       </c>
-      <c r="F18" t="s">
+      <c r="M18" t="s">
         <v>171</v>
-      </c>
-      <c r="G18" t="s">
-        <v>172</v>
-      </c>
-      <c r="H18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" t="s">
-        <v>173</v>
-      </c>
-      <c r="J18" t="s">
-        <v>174</v>
-      </c>
-      <c r="K18" t="s">
-        <v>175</v>
-      </c>
-      <c r="L18" t="s">
-        <v>176</v>
-      </c>
-      <c r="M18" t="s">
-        <v>177</v>
       </c>
       <c r="N18" t="s">
         <v>24</v>
@@ -3487,48 +3610,48 @@
         <v>27</v>
       </c>
       <c r="S18" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>309</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="D19" t="s">
-        <v>640</v>
+        <v>173</v>
       </c>
       <c r="E19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" t="s">
+        <v>177</v>
+      </c>
+      <c r="I19" t="s">
         <v>178</v>
       </c>
-      <c r="F19" t="s">
+      <c r="J19" t="s">
         <v>179</v>
       </c>
-      <c r="G19" t="s">
+      <c r="K19" t="s">
         <v>180</v>
       </c>
-      <c r="H19" t="s">
+      <c r="L19" t="s">
         <v>181</v>
       </c>
-      <c r="I19" t="s">
+      <c r="M19" t="s">
         <v>182</v>
-      </c>
-      <c r="J19" t="s">
-        <v>183</v>
-      </c>
-      <c r="K19" t="s">
-        <v>184</v>
-      </c>
-      <c r="L19" t="s">
-        <v>185</v>
-      </c>
-      <c r="M19" t="s">
-        <v>186</v>
       </c>
       <c r="N19" t="s">
         <v>24</v>
@@ -3537,48 +3660,48 @@
         <v>27</v>
       </c>
       <c r="S19" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" t="s">
+        <v>572</v>
+      </c>
+      <c r="D20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" t="s">
+        <v>186</v>
+      </c>
+      <c r="H20" t="s">
         <v>187</v>
       </c>
-      <c r="C20" t="s">
-        <v>636</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="I20" t="s">
         <v>188</v>
       </c>
-      <c r="E20" t="s">
+      <c r="J20" t="s">
         <v>189</v>
       </c>
-      <c r="F20" t="s">
+      <c r="K20" t="s">
         <v>190</v>
       </c>
-      <c r="G20" t="s">
+      <c r="L20" t="s">
         <v>191</v>
       </c>
-      <c r="H20" t="s">
+      <c r="M20" t="s">
         <v>192</v>
-      </c>
-      <c r="I20" t="s">
-        <v>193</v>
-      </c>
-      <c r="J20" t="s">
-        <v>194</v>
-      </c>
-      <c r="K20" t="s">
-        <v>195</v>
-      </c>
-      <c r="L20" t="s">
-        <v>196</v>
-      </c>
-      <c r="M20" t="s">
-        <v>197</v>
       </c>
       <c r="N20" t="s">
         <v>24</v>
@@ -3587,48 +3710,48 @@
         <v>27</v>
       </c>
       <c r="S20" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" t="s">
+        <v>572</v>
+      </c>
+      <c r="D21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" t="s">
+        <v>655</v>
+      </c>
+      <c r="F21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" t="s">
+        <v>195</v>
+      </c>
+      <c r="H21" t="s">
+        <v>196</v>
+      </c>
+      <c r="I21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J21" t="s">
         <v>198</v>
       </c>
-      <c r="C21" t="s">
-        <v>636</v>
-      </c>
-      <c r="D21" t="s">
-        <v>188</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="K21" t="s">
         <v>199</v>
       </c>
-      <c r="F21" t="s">
+      <c r="L21" t="s">
         <v>200</v>
       </c>
-      <c r="G21" t="s">
+      <c r="M21" t="s">
         <v>201</v>
-      </c>
-      <c r="H21" t="s">
-        <v>202</v>
-      </c>
-      <c r="I21" t="s">
-        <v>203</v>
-      </c>
-      <c r="J21" t="s">
-        <v>204</v>
-      </c>
-      <c r="K21" t="s">
-        <v>205</v>
-      </c>
-      <c r="L21" t="s">
-        <v>206</v>
-      </c>
-      <c r="M21" t="s">
-        <v>207</v>
       </c>
       <c r="N21" t="s">
         <v>24</v>
@@ -3637,48 +3760,48 @@
         <v>27</v>
       </c>
       <c r="S21" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" t="s">
+        <v>572</v>
+      </c>
+      <c r="D22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" t="s">
+        <v>206</v>
+      </c>
+      <c r="H22" t="s">
+        <v>207</v>
+      </c>
+      <c r="I22" t="s">
         <v>208</v>
       </c>
-      <c r="C22" t="s">
-        <v>636</v>
-      </c>
-      <c r="D22" t="s">
-        <v>217</v>
-      </c>
-      <c r="E22" t="s">
-        <v>218</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="J22" t="s">
         <v>209</v>
       </c>
-      <c r="G22" t="s">
+      <c r="K22" t="s">
         <v>210</v>
       </c>
-      <c r="H22" t="s">
+      <c r="L22" t="s">
         <v>211</v>
       </c>
-      <c r="I22" t="s">
+      <c r="M22" t="s">
         <v>212</v>
-      </c>
-      <c r="J22" t="s">
-        <v>213</v>
-      </c>
-      <c r="K22" t="s">
-        <v>214</v>
-      </c>
-      <c r="L22" t="s">
-        <v>215</v>
-      </c>
-      <c r="M22" t="s">
-        <v>216</v>
       </c>
       <c r="N22" t="s">
         <v>24</v>
@@ -3687,48 +3810,48 @@
         <v>27</v>
       </c>
       <c r="S22" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" t="s">
+        <v>572</v>
+      </c>
+      <c r="D23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F23" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" t="s">
+        <v>215</v>
+      </c>
+      <c r="H23" t="s">
+        <v>216</v>
+      </c>
+      <c r="I23" t="s">
+        <v>217</v>
+      </c>
+      <c r="J23" t="s">
+        <v>218</v>
+      </c>
+      <c r="K23" t="s">
         <v>219</v>
       </c>
-      <c r="C23" t="s">
-        <v>636</v>
-      </c>
-      <c r="D23" t="s">
-        <v>217</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="L23" t="s">
         <v>220</v>
       </c>
-      <c r="F23" t="s">
+      <c r="M23" t="s">
         <v>221</v>
-      </c>
-      <c r="G23" t="s">
-        <v>222</v>
-      </c>
-      <c r="H23" t="s">
-        <v>223</v>
-      </c>
-      <c r="I23" t="s">
-        <v>224</v>
-      </c>
-      <c r="J23" t="s">
-        <v>225</v>
-      </c>
-      <c r="K23" t="s">
-        <v>226</v>
-      </c>
-      <c r="L23" t="s">
-        <v>227</v>
-      </c>
-      <c r="M23" t="s">
-        <v>228</v>
       </c>
       <c r="N23" t="s">
         <v>24</v>
@@ -3737,48 +3860,48 @@
         <v>27</v>
       </c>
       <c r="S23" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="C24" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="D24" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E24" t="s">
+        <v>222</v>
+      </c>
+      <c r="F24" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" t="s">
+        <v>224</v>
+      </c>
+      <c r="H24" t="s">
+        <v>225</v>
+      </c>
+      <c r="I24" t="s">
+        <v>656</v>
+      </c>
+      <c r="J24" t="s">
+        <v>226</v>
+      </c>
+      <c r="K24" t="s">
+        <v>227</v>
+      </c>
+      <c r="L24" t="s">
+        <v>228</v>
+      </c>
+      <c r="M24" t="s">
         <v>229</v>
-      </c>
-      <c r="F24" t="s">
-        <v>230</v>
-      </c>
-      <c r="G24" t="s">
-        <v>231</v>
-      </c>
-      <c r="H24" t="s">
-        <v>232</v>
-      </c>
-      <c r="I24" t="s">
-        <v>233</v>
-      </c>
-      <c r="J24" t="s">
-        <v>234</v>
-      </c>
-      <c r="K24" t="s">
-        <v>235</v>
-      </c>
-      <c r="L24" t="s">
-        <v>236</v>
-      </c>
-      <c r="M24" t="s">
-        <v>237</v>
       </c>
       <c r="N24" t="s">
         <v>24</v>
@@ -3787,48 +3910,48 @@
         <v>27</v>
       </c>
       <c r="S24" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="C25" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="D25" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="E25" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F25" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G25" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="H25" t="s">
-        <v>241</v>
+        <v>139</v>
       </c>
       <c r="I25" t="s">
-        <v>242</v>
+        <v>657</v>
       </c>
       <c r="J25" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="K25" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="N25" t="s">
         <v>24</v>
@@ -3837,48 +3960,48 @@
         <v>27</v>
       </c>
       <c r="S25" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="C26" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="D26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E26" t="s">
+        <v>240</v>
+      </c>
+      <c r="F26" t="s">
+        <v>241</v>
+      </c>
+      <c r="G26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" t="s">
+        <v>243</v>
+      </c>
+      <c r="J26" t="s">
+        <v>244</v>
+      </c>
+      <c r="K26" t="s">
+        <v>245</v>
+      </c>
+      <c r="L26" t="s">
+        <v>246</v>
+      </c>
+      <c r="M26" t="s">
         <v>247</v>
-      </c>
-      <c r="E26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F26" t="s">
-        <v>249</v>
-      </c>
-      <c r="G26" t="s">
-        <v>250</v>
-      </c>
-      <c r="H26" t="s">
-        <v>153</v>
-      </c>
-      <c r="I26" t="s">
-        <v>251</v>
-      </c>
-      <c r="J26" t="s">
-        <v>252</v>
-      </c>
-      <c r="K26" t="s">
-        <v>253</v>
-      </c>
-      <c r="L26" t="s">
-        <v>254</v>
-      </c>
-      <c r="M26" t="s">
-        <v>255</v>
       </c>
       <c r="N26" t="s">
         <v>24</v>
@@ -3887,48 +4010,45 @@
         <v>27</v>
       </c>
       <c r="S26" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="C27" t="s">
-        <v>636</v>
+        <v>573</v>
       </c>
       <c r="D27" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E27" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F27" t="s">
-        <v>259</v>
+        <v>658</v>
       </c>
       <c r="G27" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="H27" t="s">
-        <v>80</v>
-      </c>
-      <c r="I27" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="J27" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="K27" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="M27" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="N27" t="s">
         <v>24</v>
@@ -3937,48 +4057,48 @@
         <v>27</v>
       </c>
       <c r="S27" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="C28" t="s">
-        <v>637</v>
+        <v>573</v>
       </c>
       <c r="D28" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E28" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="F28" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G28" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H28" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="I28" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="J28" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="N28" t="s">
         <v>24</v>
@@ -3987,48 +4107,48 @@
         <v>27</v>
       </c>
       <c r="S28" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C29" t="s">
-        <v>637</v>
+        <v>573</v>
       </c>
       <c r="D29" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="E29" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F29" t="s">
-        <v>278</v>
+        <v>659</v>
       </c>
       <c r="G29" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="H29" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="I29" t="s">
-        <v>281</v>
-      </c>
-      <c r="J29" t="s">
-        <v>282</v>
+        <v>271</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>660</v>
       </c>
       <c r="K29" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="M29" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="N29" t="s">
         <v>24</v>
@@ -4037,45 +4157,48 @@
         <v>27</v>
       </c>
       <c r="S29" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C30" t="s">
-        <v>637</v>
+        <v>573</v>
       </c>
       <c r="D30" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="E30" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F30" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="G30" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="H30" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="I30" t="s">
-        <v>292</v>
+        <v>280</v>
+      </c>
+      <c r="J30" t="s">
+        <v>661</v>
       </c>
       <c r="K30" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="M30" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="N30" t="s">
         <v>24</v>
@@ -4084,45 +4207,48 @@
         <v>27</v>
       </c>
       <c r="S30" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>292</v>
+      </c>
+      <c r="C31" t="s">
+        <v>573</v>
+      </c>
+      <c r="D31" t="s">
+        <v>267</v>
+      </c>
+      <c r="E31" t="s">
+        <v>293</v>
+      </c>
+      <c r="F31" t="s">
+        <v>294</v>
+      </c>
+      <c r="G31" t="s">
+        <v>297</v>
+      </c>
+      <c r="H31" t="s">
+        <v>295</v>
+      </c>
+      <c r="I31" t="s">
         <v>296</v>
       </c>
-      <c r="C31" t="s">
-        <v>637</v>
-      </c>
-      <c r="D31" t="s">
-        <v>287</v>
-      </c>
-      <c r="E31" t="s">
-        <v>297</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="J31" t="s">
+        <v>662</v>
+      </c>
+      <c r="K31" t="s">
         <v>298</v>
       </c>
-      <c r="G31" t="s">
+      <c r="L31" t="s">
         <v>299</v>
       </c>
-      <c r="H31" t="s">
+      <c r="M31" t="s">
         <v>300</v>
-      </c>
-      <c r="I31" t="s">
-        <v>301</v>
-      </c>
-      <c r="K31" t="s">
-        <v>302</v>
-      </c>
-      <c r="L31" t="s">
-        <v>303</v>
-      </c>
-      <c r="M31" t="s">
-        <v>304</v>
       </c>
       <c r="N31" t="s">
         <v>24</v>
@@ -4131,48 +4257,48 @@
         <v>27</v>
       </c>
       <c r="S31" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C32" t="s">
-        <v>637</v>
+        <v>573</v>
       </c>
       <c r="D32" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="E32" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="F32" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="G32" t="s">
-        <v>317</v>
+        <v>663</v>
       </c>
       <c r="H32" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="I32" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="J32" t="s">
-        <v>320</v>
+        <v>664</v>
       </c>
       <c r="K32" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="L32" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="M32" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="N32" t="s">
         <v>24</v>
@@ -4181,148 +4307,148 @@
         <v>27</v>
       </c>
       <c r="S32" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="C33" t="s">
-        <v>637</v>
+        <v>573</v>
       </c>
       <c r="D33" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="E33" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="F33" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="G33" t="s">
-        <v>326</v>
+        <v>665</v>
       </c>
       <c r="H33" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="I33" t="s">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="J33" t="s">
-        <v>329</v>
+        <v>667</v>
       </c>
       <c r="K33" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="L33" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="M33" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="N33" t="s">
-        <v>24</v>
+        <v>314</v>
       </c>
       <c r="O33" t="s">
         <v>27</v>
       </c>
       <c r="S33" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="C34" t="s">
-        <v>637</v>
+        <v>573</v>
       </c>
       <c r="D34" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="E34" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F34" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="G34" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="H34" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="I34" t="s">
-        <v>337</v>
+        <v>261</v>
       </c>
       <c r="J34" t="s">
-        <v>338</v>
+        <v>668</v>
       </c>
       <c r="K34" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="M34" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="N34" t="s">
-        <v>342</v>
+        <v>24</v>
       </c>
       <c r="O34" t="s">
         <v>27</v>
       </c>
       <c r="S34" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="C35" t="s">
-        <v>637</v>
+        <v>573</v>
       </c>
       <c r="D35" t="s">
-        <v>343</v>
+        <v>267</v>
       </c>
       <c r="E35" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="F35" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="G35" t="s">
-        <v>347</v>
+        <v>669</v>
       </c>
       <c r="H35" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="I35" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="J35" t="s">
-        <v>349</v>
+        <v>670</v>
       </c>
       <c r="K35" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="L35" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="M35" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="N35" t="s">
         <v>24</v>
@@ -4331,48 +4457,48 @@
         <v>27</v>
       </c>
       <c r="S35" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="C36" t="s">
-        <v>637</v>
+        <v>573</v>
       </c>
       <c r="D36" t="s">
-        <v>287</v>
+        <v>342</v>
       </c>
       <c r="E36" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="F36" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="G36" t="s">
-        <v>355</v>
+        <v>671</v>
       </c>
       <c r="H36" t="s">
-        <v>356</v>
+        <v>672</v>
       </c>
       <c r="I36" t="s">
-        <v>357</v>
+        <v>261</v>
       </c>
       <c r="J36" t="s">
-        <v>358</v>
+        <v>673</v>
       </c>
       <c r="K36" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="L36" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="M36" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="N36" t="s">
         <v>24</v>
@@ -4381,239 +4507,245 @@
         <v>27</v>
       </c>
       <c r="S36" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="C37" t="s">
-        <v>637</v>
+        <v>573</v>
       </c>
       <c r="D37" t="s">
-        <v>383</v>
+        <v>341</v>
       </c>
       <c r="E37" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F37" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="G37" t="s">
-        <v>364</v>
+        <v>674</v>
       </c>
       <c r="H37" t="s">
-        <v>365</v>
+        <v>675</v>
       </c>
       <c r="I37" t="s">
-        <v>366</v>
+        <v>676</v>
       </c>
       <c r="J37" t="s">
-        <v>367</v>
+        <v>677</v>
       </c>
       <c r="K37" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="L37" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="M37" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="N37" t="s">
-        <v>371</v>
+        <v>24</v>
       </c>
       <c r="O37" t="s">
         <v>27</v>
       </c>
       <c r="S37" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="C38" t="s">
-        <v>637</v>
+        <v>573</v>
       </c>
       <c r="D38" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="E38" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="F38" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="G38" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="H38" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="I38" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="J38" t="s">
-        <v>376</v>
+        <v>678</v>
       </c>
       <c r="K38" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="L38" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="M38" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="N38" t="s">
-        <v>380</v>
+        <v>24</v>
       </c>
       <c r="O38" t="s">
         <v>27</v>
       </c>
       <c r="S38" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="C39" t="s">
-        <v>637</v>
+        <v>573</v>
       </c>
       <c r="D39" t="s">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="E39" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="F39" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="G39" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="H39" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="I39" t="s">
-        <v>392</v>
+        <v>360</v>
+      </c>
+      <c r="J39" t="s">
+        <v>679</v>
       </c>
       <c r="K39" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="L39" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="M39" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="N39" t="s">
-        <v>24</v>
+        <v>314</v>
       </c>
       <c r="O39" t="s">
         <v>27</v>
       </c>
       <c r="S39" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="C40" t="s">
-        <v>637</v>
+        <v>573</v>
       </c>
       <c r="D40" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="E40" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="F40" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="G40" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="H40" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="I40" t="s">
-        <v>401</v>
+        <v>370</v>
+      </c>
+      <c r="J40" t="s">
+        <v>680</v>
       </c>
       <c r="K40" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="L40" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="M40" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="N40" t="s">
-        <v>342</v>
+        <v>24</v>
       </c>
       <c r="O40" t="s">
         <v>27</v>
       </c>
       <c r="S40" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="C41" t="s">
-        <v>637</v>
+        <v>574</v>
       </c>
       <c r="D41" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="E41" t="s">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="F41" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="G41" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="H41" t="s">
-        <v>410</v>
-      </c>
-      <c r="I41" t="s">
-        <v>411</v>
+        <v>378</v>
+      </c>
+      <c r="J41" t="s">
+        <v>681</v>
       </c>
       <c r="K41" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="L41" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="M41" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="N41" t="s">
         <v>24</v>
@@ -4622,42 +4754,45 @@
         <v>27</v>
       </c>
       <c r="S41" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="C42" t="s">
-        <v>638</v>
+        <v>574</v>
       </c>
       <c r="D42" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="E42" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F42" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="G42" t="s">
-        <v>418</v>
+        <v>682</v>
       </c>
       <c r="H42" t="s">
-        <v>419</v>
+        <v>384</v>
+      </c>
+      <c r="J42" t="s">
+        <v>683</v>
       </c>
       <c r="K42" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="L42" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M42" t="s">
-        <v>422</v>
+        <v>387</v>
       </c>
       <c r="N42" t="s">
         <v>24</v>
@@ -4666,39 +4801,42 @@
         <v>27</v>
       </c>
       <c r="S42" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="C43" t="s">
-        <v>638</v>
+        <v>574</v>
       </c>
       <c r="D43" t="s">
-        <v>416</v>
-      </c>
-      <c r="E43" t="s">
-        <v>106</v>
+        <v>375</v>
       </c>
       <c r="F43" t="s">
-        <v>424</v>
+        <v>684</v>
+      </c>
+      <c r="G43" t="s">
+        <v>685</v>
       </c>
       <c r="H43" t="s">
-        <v>425</v>
+        <v>686</v>
+      </c>
+      <c r="J43" t="s">
+        <v>687</v>
       </c>
       <c r="K43" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="L43" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="M43" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
       <c r="N43" t="s">
         <v>24</v>
@@ -4707,36 +4845,42 @@
         <v>27</v>
       </c>
       <c r="S43" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="C44" t="s">
-        <v>638</v>
+        <v>574</v>
       </c>
       <c r="D44" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="F44" t="s">
-        <v>430</v>
+        <v>688</v>
       </c>
       <c r="G44" t="s">
-        <v>431</v>
+        <v>689</v>
+      </c>
+      <c r="H44" t="s">
+        <v>393</v>
+      </c>
+      <c r="J44" t="s">
+        <v>690</v>
       </c>
       <c r="K44" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="L44" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="M44" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="N44" t="s">
         <v>24</v>
@@ -4745,36 +4889,42 @@
         <v>27</v>
       </c>
       <c r="S44" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="C45" t="s">
-        <v>638</v>
+        <v>574</v>
       </c>
       <c r="D45" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="F45" t="s">
-        <v>436</v>
+        <v>691</v>
+      </c>
+      <c r="G45" t="s">
+        <v>692</v>
       </c>
       <c r="H45" t="s">
-        <v>437</v>
+        <v>398</v>
+      </c>
+      <c r="J45" t="s">
+        <v>693</v>
       </c>
       <c r="K45" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="L45" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="M45" t="s">
-        <v>440</v>
+        <v>401</v>
       </c>
       <c r="N45" t="s">
         <v>24</v>
@@ -4783,36 +4933,42 @@
         <v>27</v>
       </c>
       <c r="S45" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="C46" t="s">
-        <v>638</v>
+        <v>574</v>
       </c>
       <c r="D46" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="F46" t="s">
-        <v>442</v>
+        <v>403</v>
+      </c>
+      <c r="G46" t="s">
+        <v>694</v>
       </c>
       <c r="H46" t="s">
-        <v>443</v>
+        <v>404</v>
+      </c>
+      <c r="J46" t="s">
+        <v>695</v>
       </c>
       <c r="K46" t="s">
-        <v>444</v>
+        <v>405</v>
       </c>
       <c r="L46" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
       <c r="M46" t="s">
-        <v>446</v>
+        <v>407</v>
       </c>
       <c r="N46" t="s">
         <v>24</v>
@@ -4821,36 +4977,42 @@
         <v>27</v>
       </c>
       <c r="S46" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="C47" t="s">
-        <v>638</v>
+        <v>574</v>
       </c>
       <c r="D47" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="F47" t="s">
-        <v>448</v>
+        <v>409</v>
+      </c>
+      <c r="G47" t="s">
+        <v>692</v>
       </c>
       <c r="H47" t="s">
-        <v>449</v>
+        <v>410</v>
+      </c>
+      <c r="J47" t="s">
+        <v>696</v>
       </c>
       <c r="K47" t="s">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="L47" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="M47" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="N47" t="s">
         <v>24</v>
@@ -4859,36 +5021,42 @@
         <v>27</v>
       </c>
       <c r="S47" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="C48" t="s">
-        <v>638</v>
+        <v>574</v>
       </c>
       <c r="D48" t="s">
+        <v>375</v>
+      </c>
+      <c r="F48" t="s">
+        <v>415</v>
+      </c>
+      <c r="G48" t="s">
+        <v>697</v>
+      </c>
+      <c r="H48" t="s">
         <v>416</v>
       </c>
-      <c r="F48" t="s">
-        <v>454</v>
-      </c>
-      <c r="H48" t="s">
-        <v>455</v>
+      <c r="J48" t="s">
+        <v>698</v>
       </c>
       <c r="K48" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="L48" t="s">
-        <v>457</v>
+        <v>418</v>
       </c>
       <c r="M48" t="s">
-        <v>458</v>
+        <v>419</v>
       </c>
       <c r="N48" t="s">
         <v>24</v>
@@ -4897,36 +5065,48 @@
         <v>27</v>
       </c>
       <c r="S48" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
       <c r="C49" t="s">
-        <v>638</v>
+        <v>574</v>
       </c>
       <c r="D49" t="s">
-        <v>416</v>
+        <v>375</v>
+      </c>
+      <c r="E49" t="s">
+        <v>563</v>
       </c>
       <c r="F49" t="s">
-        <v>460</v>
+        <v>564</v>
+      </c>
+      <c r="G49" t="s">
+        <v>567</v>
       </c>
       <c r="H49" t="s">
-        <v>461</v>
+        <v>565</v>
+      </c>
+      <c r="I49" t="s">
+        <v>566</v>
+      </c>
+      <c r="J49" t="s">
+        <v>699</v>
       </c>
       <c r="K49" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="L49" t="s">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="M49" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
       <c r="N49" t="s">
         <v>24</v>
@@ -4935,48 +5115,48 @@
         <v>27</v>
       </c>
       <c r="S49" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="C50" t="s">
-        <v>638</v>
+        <v>574</v>
       </c>
       <c r="D50" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="E50" t="s">
-        <v>624</v>
+        <v>563</v>
       </c>
       <c r="F50" t="s">
-        <v>625</v>
+        <v>568</v>
       </c>
       <c r="G50" t="s">
-        <v>626</v>
+        <v>425</v>
       </c>
       <c r="H50" t="s">
-        <v>627</v>
+        <v>569</v>
       </c>
       <c r="I50" t="s">
-        <v>628</v>
+        <v>426</v>
       </c>
       <c r="J50" t="s">
-        <v>629</v>
+        <v>700</v>
       </c>
       <c r="K50" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="L50" t="s">
-        <v>467</v>
+        <v>428</v>
       </c>
       <c r="M50" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="N50" t="s">
         <v>24</v>
@@ -4985,48 +5165,48 @@
         <v>27</v>
       </c>
       <c r="S50" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>469</v>
+        <v>430</v>
       </c>
       <c r="C51" t="s">
-        <v>638</v>
+        <v>574</v>
       </c>
       <c r="D51" t="s">
-        <v>416</v>
+        <v>577</v>
       </c>
       <c r="E51" t="s">
-        <v>624</v>
+        <v>563</v>
       </c>
       <c r="F51" t="s">
-        <v>630</v>
+        <v>570</v>
       </c>
       <c r="G51" t="s">
-        <v>631</v>
+        <v>571</v>
       </c>
       <c r="H51" t="s">
-        <v>632</v>
+        <v>303</v>
       </c>
       <c r="I51" t="s">
-        <v>471</v>
+        <v>261</v>
       </c>
       <c r="J51" t="s">
-        <v>470</v>
+        <v>701</v>
       </c>
       <c r="K51" t="s">
-        <v>472</v>
+        <v>431</v>
       </c>
       <c r="L51" t="s">
-        <v>473</v>
+        <v>432</v>
       </c>
       <c r="M51" t="s">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="N51" t="s">
         <v>24</v>
@@ -5035,48 +5215,42 @@
         <v>27</v>
       </c>
       <c r="S51" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="C52" t="s">
-        <v>638</v>
+        <v>574</v>
       </c>
       <c r="D52" t="s">
-        <v>641</v>
-      </c>
-      <c r="E52" t="s">
-        <v>624</v>
+        <v>435</v>
       </c>
       <c r="F52" t="s">
-        <v>633</v>
+        <v>436</v>
       </c>
       <c r="G52" t="s">
-        <v>634</v>
+        <v>702</v>
       </c>
       <c r="H52" t="s">
-        <v>327</v>
-      </c>
-      <c r="I52" t="s">
-        <v>281</v>
+        <v>437</v>
       </c>
       <c r="J52" t="s">
-        <v>635</v>
+        <v>703</v>
       </c>
       <c r="K52" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="L52" t="s">
-        <v>477</v>
+        <v>439</v>
       </c>
       <c r="M52" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="N52" t="s">
         <v>24</v>
@@ -5085,36 +5259,42 @@
         <v>27</v>
       </c>
       <c r="S52" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
       <c r="C53" t="s">
-        <v>638</v>
+        <v>574</v>
       </c>
       <c r="D53" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="F53" t="s">
-        <v>481</v>
+        <v>442</v>
+      </c>
+      <c r="G53" t="s">
+        <v>704</v>
       </c>
       <c r="H53" t="s">
-        <v>482</v>
+        <v>443</v>
+      </c>
+      <c r="J53" t="s">
+        <v>705</v>
       </c>
       <c r="K53" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
       <c r="L53" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
       <c r="M53" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="N53" t="s">
         <v>24</v>
@@ -5123,36 +5303,42 @@
         <v>27</v>
       </c>
       <c r="S53" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.45">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>486</v>
+        <v>447</v>
       </c>
       <c r="C54" t="s">
-        <v>638</v>
+        <v>574</v>
       </c>
       <c r="D54" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="F54" t="s">
-        <v>487</v>
+        <v>448</v>
+      </c>
+      <c r="G54" t="s">
+        <v>706</v>
       </c>
       <c r="H54" t="s">
-        <v>488</v>
+        <v>449</v>
+      </c>
+      <c r="J54" t="s">
+        <v>707</v>
       </c>
       <c r="K54" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="L54" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="M54" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
       <c r="N54" t="s">
         <v>24</v>
@@ -5161,36 +5347,42 @@
         <v>27</v>
       </c>
       <c r="S54" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.45">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
       <c r="C55" t="s">
-        <v>638</v>
+        <v>574</v>
       </c>
       <c r="D55" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="F55" t="s">
-        <v>493</v>
+        <v>454</v>
+      </c>
+      <c r="G55" t="s">
+        <v>708</v>
       </c>
       <c r="H55" t="s">
-        <v>494</v>
+        <v>455</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>709</v>
       </c>
       <c r="K55" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="L55" t="s">
-        <v>496</v>
+        <v>457</v>
       </c>
       <c r="M55" t="s">
-        <v>497</v>
+        <v>458</v>
       </c>
       <c r="N55" t="s">
         <v>24</v>
@@ -5199,36 +5391,48 @@
         <v>27</v>
       </c>
       <c r="S55" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="C56" t="s">
-        <v>638</v>
+        <v>575</v>
       </c>
       <c r="D56" t="s">
-        <v>480</v>
+        <v>460</v>
+      </c>
+      <c r="E56" t="s">
+        <v>461</v>
       </c>
       <c r="F56" t="s">
-        <v>499</v>
+        <v>462</v>
+      </c>
+      <c r="G56" t="s">
+        <v>711</v>
       </c>
       <c r="H56" t="s">
-        <v>500</v>
+        <v>712</v>
+      </c>
+      <c r="I56" t="s">
+        <v>710</v>
+      </c>
+      <c r="J56" t="s">
+        <v>713</v>
       </c>
       <c r="K56" t="s">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="L56" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
       <c r="M56" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
       <c r="N56" t="s">
         <v>24</v>
@@ -5237,623 +5441,648 @@
         <v>27</v>
       </c>
       <c r="S56" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
       <c r="C57" t="s">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="D57" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="E57" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="F57" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="G57" t="s">
-        <v>508</v>
+        <v>714</v>
       </c>
       <c r="H57" t="s">
-        <v>509</v>
+        <v>715</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="J57" t="s">
+        <v>717</v>
       </c>
       <c r="K57" t="s">
-        <v>510</v>
+        <v>469</v>
       </c>
       <c r="L57" t="s">
-        <v>511</v>
+        <v>470</v>
       </c>
       <c r="M57" t="s">
-        <v>512</v>
+        <v>471</v>
       </c>
       <c r="N57" t="s">
-        <v>24</v>
+        <v>472</v>
       </c>
       <c r="O57" t="s">
         <v>27</v>
       </c>
       <c r="S57" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
       <c r="C58" t="s">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="D58" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="E58" t="s">
-        <v>514</v>
+        <v>474</v>
       </c>
       <c r="F58" t="s">
-        <v>515</v>
+        <v>475</v>
       </c>
       <c r="G58" t="s">
-        <v>516</v>
+        <v>718</v>
       </c>
       <c r="H58" t="s">
-        <v>517</v>
+        <v>719</v>
+      </c>
+      <c r="I58" t="s">
+        <v>720</v>
+      </c>
+      <c r="J58" t="s">
+        <v>721</v>
       </c>
       <c r="K58" t="s">
-        <v>518</v>
+        <v>476</v>
       </c>
       <c r="L58" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
       <c r="M58" t="s">
-        <v>520</v>
+        <v>478</v>
       </c>
       <c r="N58" t="s">
-        <v>521</v>
+        <v>24</v>
       </c>
       <c r="O58" t="s">
         <v>27</v>
       </c>
       <c r="S58" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>522</v>
+        <v>479</v>
       </c>
       <c r="C59" t="s">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="D59" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="E59" t="s">
-        <v>523</v>
+        <v>480</v>
       </c>
       <c r="F59" t="s">
-        <v>524</v>
-      </c>
-      <c r="G59" t="s">
-        <v>525</v>
+        <v>481</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>722</v>
       </c>
       <c r="H59" t="s">
-        <v>526</v>
+        <v>482</v>
+      </c>
+      <c r="I59" t="s">
+        <v>716</v>
+      </c>
+      <c r="J59" t="s">
+        <v>723</v>
       </c>
       <c r="K59" t="s">
-        <v>527</v>
+        <v>483</v>
       </c>
       <c r="L59" t="s">
-        <v>528</v>
+        <v>484</v>
       </c>
       <c r="M59" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="N59" t="s">
-        <v>24</v>
+        <v>486</v>
       </c>
       <c r="O59" t="s">
         <v>27</v>
       </c>
       <c r="S59" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>530</v>
+        <v>487</v>
       </c>
       <c r="C60" t="s">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="D60" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="E60" t="s">
-        <v>531</v>
+        <v>488</v>
       </c>
       <c r="F60" t="s">
-        <v>532</v>
+        <v>489</v>
       </c>
       <c r="G60" t="s">
-        <v>533</v>
+        <v>724</v>
       </c>
       <c r="H60" t="s">
-        <v>517</v>
+        <v>725</v>
+      </c>
+      <c r="I60" t="s">
+        <v>726</v>
+      </c>
+      <c r="J60" t="s">
+        <v>727</v>
       </c>
       <c r="K60" t="s">
-        <v>534</v>
+        <v>490</v>
       </c>
       <c r="L60" t="s">
-        <v>535</v>
+        <v>491</v>
       </c>
       <c r="M60" t="s">
-        <v>536</v>
+        <v>492</v>
       </c>
       <c r="N60" t="s">
-        <v>537</v>
+        <v>24</v>
       </c>
       <c r="O60" t="s">
         <v>27</v>
       </c>
       <c r="S60" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>538</v>
+        <v>493</v>
       </c>
       <c r="C61" t="s">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="D61" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="E61" t="s">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="F61" t="s">
-        <v>540</v>
+        <v>495</v>
       </c>
       <c r="G61" t="s">
-        <v>541</v>
+        <v>728</v>
       </c>
       <c r="H61" t="s">
-        <v>542</v>
+        <v>729</v>
+      </c>
+      <c r="I61" t="s">
+        <v>496</v>
+      </c>
+      <c r="J61" t="s">
+        <v>730</v>
       </c>
       <c r="K61" t="s">
-        <v>543</v>
+        <v>497</v>
       </c>
       <c r="L61" t="s">
-        <v>544</v>
+        <v>498</v>
       </c>
       <c r="M61" t="s">
-        <v>545</v>
+        <v>499</v>
       </c>
       <c r="N61" t="s">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="O61" t="s">
         <v>27</v>
       </c>
       <c r="S61" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>546</v>
+        <v>501</v>
       </c>
       <c r="C62" t="s">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="D62" t="s">
+        <v>460</v>
+      </c>
+      <c r="E62" t="s">
+        <v>502</v>
+      </c>
+      <c r="F62" t="s">
+        <v>503</v>
+      </c>
+      <c r="G62" t="s">
+        <v>731</v>
+      </c>
+      <c r="H62" t="s">
+        <v>732</v>
+      </c>
+      <c r="I62" t="s">
+        <v>504</v>
+      </c>
+      <c r="J62" t="s">
+        <v>733</v>
+      </c>
+      <c r="K62" t="s">
         <v>505</v>
       </c>
-      <c r="E62" t="s">
-        <v>547</v>
-      </c>
-      <c r="F62" t="s">
-        <v>548</v>
-      </c>
-      <c r="G62" t="s">
-        <v>549</v>
-      </c>
-      <c r="H62" t="s">
-        <v>550</v>
-      </c>
-      <c r="K62" t="s">
-        <v>551</v>
-      </c>
       <c r="L62" t="s">
-        <v>552</v>
+        <v>506</v>
       </c>
       <c r="M62" t="s">
-        <v>553</v>
+        <v>507</v>
       </c>
       <c r="N62" t="s">
-        <v>554</v>
+        <v>508</v>
       </c>
       <c r="O62" t="s">
         <v>27</v>
       </c>
       <c r="S62" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>555</v>
+        <v>509</v>
       </c>
       <c r="C63" t="s">
+        <v>575</v>
+      </c>
+      <c r="D63" t="s">
+        <v>460</v>
+      </c>
+      <c r="E63" t="s">
+        <v>510</v>
+      </c>
+      <c r="F63" t="s">
+        <v>511</v>
+      </c>
+      <c r="G63" t="s">
+        <v>734</v>
+      </c>
+      <c r="H63" t="s">
+        <v>512</v>
+      </c>
+      <c r="I63" t="s">
+        <v>513</v>
+      </c>
+      <c r="J63" t="s">
+        <v>735</v>
+      </c>
+      <c r="K63" t="s">
+        <v>514</v>
+      </c>
+      <c r="L63" t="s">
+        <v>515</v>
+      </c>
+      <c r="M63" t="s">
+        <v>516</v>
+      </c>
+      <c r="N63" t="s">
+        <v>500</v>
+      </c>
+      <c r="O63" t="s">
+        <v>27</v>
+      </c>
+      <c r="S63" t="s">
         <v>639</v>
       </c>
-      <c r="D63" t="s">
-        <v>505</v>
-      </c>
-      <c r="E63" t="s">
-        <v>556</v>
-      </c>
-      <c r="F63" t="s">
-        <v>557</v>
-      </c>
-      <c r="G63" t="s">
-        <v>558</v>
-      </c>
-      <c r="H63" t="s">
-        <v>559</v>
-      </c>
-      <c r="K63" t="s">
-        <v>560</v>
-      </c>
-      <c r="L63" t="s">
-        <v>561</v>
-      </c>
-      <c r="M63" t="s">
-        <v>562</v>
-      </c>
-      <c r="N63" t="s">
-        <v>563</v>
-      </c>
-      <c r="O63" t="s">
-        <v>27</v>
-      </c>
-      <c r="S63" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>564</v>
+        <v>517</v>
       </c>
       <c r="C64" t="s">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="D64" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="E64" t="s">
-        <v>565</v>
+        <v>519</v>
       </c>
       <c r="F64" t="s">
-        <v>566</v>
+        <v>520</v>
       </c>
       <c r="G64" t="s">
-        <v>567</v>
+        <v>736</v>
       </c>
       <c r="H64" t="s">
-        <v>568</v>
+        <v>521</v>
+      </c>
+      <c r="I64" t="s">
+        <v>513</v>
+      </c>
+      <c r="J64" t="s">
+        <v>737</v>
       </c>
       <c r="K64" t="s">
-        <v>569</v>
+        <v>522</v>
       </c>
       <c r="L64" t="s">
-        <v>570</v>
+        <v>523</v>
       </c>
       <c r="M64" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="N64" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="O64" t="s">
         <v>27</v>
       </c>
       <c r="S64" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.45">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>572</v>
+        <v>526</v>
       </c>
       <c r="C65" t="s">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="D65" t="s">
-        <v>573</v>
+        <v>518</v>
       </c>
       <c r="E65" t="s">
-        <v>574</v>
+        <v>527</v>
       </c>
       <c r="F65" t="s">
-        <v>575</v>
+        <v>528</v>
       </c>
       <c r="G65" t="s">
-        <v>576</v>
+        <v>736</v>
       </c>
       <c r="H65" t="s">
-        <v>568</v>
+        <v>738</v>
+      </c>
+      <c r="I65" t="s">
+        <v>739</v>
+      </c>
+      <c r="J65" t="s">
+        <v>740</v>
       </c>
       <c r="K65" t="s">
-        <v>577</v>
+        <v>529</v>
       </c>
       <c r="L65" t="s">
-        <v>578</v>
+        <v>530</v>
       </c>
       <c r="M65" t="s">
-        <v>579</v>
+        <v>531</v>
       </c>
       <c r="N65" t="s">
-        <v>580</v>
+        <v>532</v>
       </c>
       <c r="O65" t="s">
         <v>27</v>
       </c>
       <c r="S65" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.45">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>581</v>
+        <v>533</v>
       </c>
       <c r="C66" t="s">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="D66" t="s">
-        <v>573</v>
+        <v>518</v>
       </c>
       <c r="E66" t="s">
-        <v>582</v>
+        <v>534</v>
       </c>
       <c r="F66" t="s">
-        <v>583</v>
+        <v>535</v>
       </c>
       <c r="G66" t="s">
-        <v>584</v>
+        <v>736</v>
       </c>
       <c r="H66" t="s">
-        <v>568</v>
+        <v>741</v>
+      </c>
+      <c r="I66" t="s">
+        <v>742</v>
+      </c>
+      <c r="J66" t="s">
+        <v>743</v>
       </c>
       <c r="K66" t="s">
-        <v>585</v>
+        <v>536</v>
       </c>
       <c r="L66" t="s">
-        <v>586</v>
+        <v>537</v>
       </c>
       <c r="M66" t="s">
-        <v>587</v>
+        <v>538</v>
       </c>
       <c r="N66" t="s">
-        <v>588</v>
+        <v>539</v>
       </c>
       <c r="O66" t="s">
         <v>27</v>
       </c>
       <c r="S66" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.45">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>589</v>
+        <v>540</v>
       </c>
       <c r="C67" t="s">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="D67" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="E67" t="s">
-        <v>590</v>
+        <v>541</v>
       </c>
       <c r="F67" t="s">
-        <v>591</v>
+        <v>542</v>
       </c>
       <c r="G67" t="s">
-        <v>592</v>
+        <v>744</v>
       </c>
       <c r="H67" t="s">
-        <v>568</v>
+        <v>543</v>
+      </c>
+      <c r="J67" t="s">
+        <v>745</v>
       </c>
       <c r="K67" t="s">
-        <v>593</v>
+        <v>544</v>
       </c>
       <c r="L67" t="s">
-        <v>594</v>
+        <v>545</v>
       </c>
       <c r="M67" t="s">
-        <v>595</v>
+        <v>546</v>
       </c>
       <c r="N67" t="s">
-        <v>596</v>
+        <v>547</v>
       </c>
       <c r="O67" t="s">
         <v>27</v>
       </c>
       <c r="S67" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.45">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>597</v>
+        <v>548</v>
       </c>
       <c r="C68" t="s">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="D68" t="s">
-        <v>607</v>
+        <v>460</v>
       </c>
       <c r="E68" t="s">
-        <v>598</v>
+        <v>550</v>
       </c>
       <c r="F68" t="s">
-        <v>599</v>
+        <v>551</v>
       </c>
       <c r="G68" t="s">
-        <v>600</v>
+        <v>746</v>
       </c>
       <c r="H68" t="s">
-        <v>601</v>
+        <v>747</v>
+      </c>
+      <c r="J68" t="s">
+        <v>748</v>
       </c>
       <c r="K68" t="s">
-        <v>602</v>
+        <v>552</v>
       </c>
       <c r="L68" t="s">
-        <v>603</v>
+        <v>553</v>
       </c>
       <c r="M68" t="s">
-        <v>604</v>
+        <v>554</v>
       </c>
       <c r="N68" t="s">
-        <v>605</v>
+        <v>547</v>
       </c>
       <c r="O68" t="s">
         <v>27</v>
       </c>
       <c r="S68" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.45">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>606</v>
+        <v>555</v>
       </c>
       <c r="C69" t="s">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="D69" t="s">
-        <v>505</v>
+        <v>549</v>
       </c>
       <c r="E69" t="s">
-        <v>608</v>
+        <v>556</v>
       </c>
       <c r="F69" t="s">
-        <v>609</v>
+        <v>557</v>
       </c>
       <c r="G69" t="s">
-        <v>610</v>
+        <v>749</v>
       </c>
       <c r="H69" t="s">
-        <v>601</v>
+        <v>558</v>
+      </c>
+      <c r="J69" t="s">
+        <v>750</v>
       </c>
       <c r="K69" t="s">
-        <v>611</v>
+        <v>559</v>
       </c>
       <c r="L69" t="s">
-        <v>612</v>
+        <v>560</v>
       </c>
       <c r="M69" t="s">
-        <v>613</v>
+        <v>561</v>
       </c>
       <c r="N69" t="s">
-        <v>605</v>
+        <v>547</v>
       </c>
       <c r="O69" t="s">
         <v>27</v>
       </c>
       <c r="S69" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>614</v>
-      </c>
-      <c r="C70" t="s">
-        <v>639</v>
-      </c>
-      <c r="D70" t="s">
-        <v>607</v>
-      </c>
-      <c r="E70" t="s">
-        <v>615</v>
-      </c>
-      <c r="F70" t="s">
-        <v>616</v>
-      </c>
-      <c r="G70" t="s">
-        <v>617</v>
-      </c>
-      <c r="H70" t="s">
-        <v>601</v>
-      </c>
-      <c r="K70" t="s">
-        <v>618</v>
-      </c>
-      <c r="L70" t="s">
-        <v>619</v>
-      </c>
-      <c r="M70" t="s">
-        <v>620</v>
-      </c>
-      <c r="N70" t="s">
-        <v>605</v>
-      </c>
-      <c r="O70" t="s">
-        <v>27</v>
-      </c>
-      <c r="S70" t="s">
-        <v>710</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/database/BasesDeDatosCYR.xlsx
+++ b/database/BasesDeDatosCYR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Arizmendi\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Arizmendi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA350214-4008-4A99-A680-56D8349E27A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD56394B-95EB-432D-BDFF-834335FBDF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{7C0439AF-609D-46AB-8CF1-0C1B3AE865CB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="765">
   <si>
     <t>nombre</t>
   </si>
@@ -90,9 +90,6 @@
     <t>FotoCatalogo</t>
   </si>
   <si>
-    <t>StarAgricola</t>
-  </si>
-  <si>
     <t>RSCO-MEZC-110IE-301-406-012</t>
   </si>
   <si>
@@ -123,18 +120,12 @@
     <t>/fichasTecnica/StarAgricola.pdf</t>
   </si>
   <si>
-    <t>NeemCE80</t>
-  </si>
-  <si>
     <t>RSCO-INAC-0103I-303-009-080</t>
   </si>
   <si>
     <t>Extracto de Neem (Azadirachta indica) Concentrado emulsionable (80.0%).</t>
   </si>
   <si>
-    <t>1 a 3 L/ha. Contacto y translaminar.</t>
-  </si>
-  <si>
     <t>7 a 21 dias. Agua (pH): 5.5 a 7</t>
   </si>
   <si>
@@ -147,9 +138,6 @@
     <t>/FotosProducto/NeemCE80.png</t>
   </si>
   <si>
-    <t>Canela</t>
-  </si>
-  <si>
     <t>RSCO-INAC-0104R-301-015-015</t>
   </si>
   <si>
@@ -168,9 +156,6 @@
     <t>/FotosProducto/Canela.png</t>
   </si>
   <si>
-    <t>PotasyMax</t>
-  </si>
-  <si>
     <t>RSCO-INAC-0101W-0426-375-50</t>
   </si>
   <si>
@@ -204,9 +189,6 @@
     <t>Arándano, ajo, berenjena, calabacita, calabaza, cebolla, cebollin, chayote, chile, chile habanero, esparrago, fresa, frambuesa, grosella, jitomate, lechuga, melón, mora, papa, pepino, pimiento, sandia, solanáceas en general, tomate de cáscara, vid, zarzaparrilla y zarzamora.</t>
   </si>
   <si>
-    <t>1 a 2 L/ha. y 0.5 - 2.0 L/100 L agua. Contacto y translaminar.</t>
-  </si>
-  <si>
     <t>7 a 8 días. Agua (pH): 5 a 7</t>
   </si>
   <si>
@@ -222,9 +204,6 @@
     <t>/FotosProducto/CinnaNeemCE.png</t>
   </si>
   <si>
-    <t>Piretinas</t>
-  </si>
-  <si>
     <t>RSCO-INAC-0350T-X0006-009-94.5</t>
   </si>
   <si>
@@ -249,9 +228,6 @@
     <t>/FotosProducto/Piretinas.png</t>
   </si>
   <si>
-    <t>Omega</t>
-  </si>
-  <si>
     <t>RSCO-INAC-0103Y-0266-009-90</t>
   </si>
   <si>
@@ -279,9 +255,6 @@
     <t>/FotosProducto/Omega.png</t>
   </si>
   <si>
-    <t>RepelentAjo</t>
-  </si>
-  <si>
     <t>RSCO-INAC-0104Z-301-375-094</t>
   </si>
   <si>
@@ -315,9 +288,6 @@
     <t>RSCO-INAC-0671A-0509-009-95.0</t>
   </si>
   <si>
-    <t>Aceite parafínico Concentrado emulsionable (95.0%).</t>
-  </si>
-  <si>
     <t>Lima, limonero, mandarina, naranjo, pomelo, tangerina, toronjo.</t>
   </si>
   <si>
@@ -339,27 +309,6 @@
     <t>/FotosProducto/Citroil.png</t>
   </si>
   <si>
-    <t>Natuactivo</t>
-  </si>
-  <si>
-    <t>RSCO-INAC-1106-X0136-009-018</t>
-  </si>
-  <si>
-    <t>Extracto de alcaloides (Argemone mexicana) Concentrado emulsionable (18.0%).</t>
-  </si>
-  <si>
-    <t>Aguacate, arándano, frambuesa, fresa, grosella, vid, zarzamora, berenjena, chile, jitomate, papa, pimiento, tabaco, tomate de cáscara, brócoli, col, coliflor, col de bruselas, colinabo, colza, calabacita, calabaza, chayote, melón, pepino, sandía, lima, limón mexicano, limón persa, mandarina, naranjo, pomelo, tangerino, toronjo, manzana, membrillo, peral.</t>
-  </si>
-  <si>
-    <t>1.5 a 2.0 L/ha. Contacto.</t>
-  </si>
-  <si>
-    <t>7 días. Realizar tres aplicaciones al follaje iniciando a los 20 días después del trasplante. Agua (pH): 6.0 a 7.0</t>
-  </si>
-  <si>
-    <t>Araña roja (Oligonychus punicae), Araña roja (Tetranychus urticae), Mosca blanca (Bemisia tabaci), Pulgón de la col (Brevicoryne brassicae), Mosquita blanca (Bemisiatabaci), Psílido asiático de los cítricos (Diaphorina citri), Pulgón lanígero (Eriosoma lanigerum).</t>
-  </si>
-  <si>
     <t>/fichasTecnica/Natuactivo.pdf</t>
   </si>
   <si>
@@ -369,15 +318,9 @@
     <t>/FotosProducto/Natuactivo.png</t>
   </si>
   <si>
-    <t>Ovifinn</t>
-  </si>
-  <si>
     <t>RSCO-INAC-1105-X0070-052-070</t>
   </si>
   <si>
-    <t>Dioctil sulfosuccinato de sodio Líquido soluble (70.0%).</t>
-  </si>
-  <si>
     <t>Ajo, arándano, grosella, frambuesa, fresa, berenjena, cebolla, cebollín, chile, chile habanero, chile jalapeño, espárrago, jitomate, manzano, nopal, pera, papa, pimiento morrón, tabaco, tomate de cáscara, vid, zarzamora.</t>
   </si>
   <si>
@@ -399,9 +342,6 @@
     <t>/FotosProducto/Ovifinn.png</t>
   </si>
   <si>
-    <t>Gamma</t>
-  </si>
-  <si>
     <t>RSCO-INAC-1802-0243-052-60</t>
   </si>
   <si>
@@ -429,9 +369,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>UltraluxN</t>
-  </si>
-  <si>
     <t>Ajo, cebolla, cebollín, espárrago, fresa, zarzamora, frambuesa, arándano, grosella, lima, tangerino, mandarina, toronjo, naranja, limón, pepino, sandía, melón, berenjena, chile habanero, jalapeño, jitomate, papa, pimiento, chayote, calabaza, calabacita, colinabo, colza, coliflor, brócoli, col de Bruselas, espinaca, lechuga, manzana, peral, nogal, vid, papaya.</t>
   </si>
   <si>
@@ -444,63 +381,9 @@
     <t>/FotosProducto/UltraluxN.png</t>
   </si>
   <si>
-    <t>RSCO-NEMA-0903Q-X0010-052-7.6</t>
-  </si>
-  <si>
-    <t>Quitosana: poli-D-glucosamina. (7.60%) Líquido soluble.</t>
-  </si>
-  <si>
-    <t>Berenjena, chile, jitomate, papa, pimiento morrón, tomate verde, tabaco, calabacita, calabaza, chayote, melón, pepino, sandía, vid.</t>
-  </si>
-  <si>
     <t>1 a 5 L/ha.</t>
   </si>
   <si>
-    <t>Acondicione el pH del agua en el rango de 6.0 a 6.5</t>
-  </si>
-  <si>
-    <t>/fichasTecnica/EcdyFinn.pdf</t>
-  </si>
-  <si>
-    <t>/hojasSeguridad/EcdyFinn.pdf</t>
-  </si>
-  <si>
-    <t>/FotosProducto/EcdyFinn.png</t>
-  </si>
-  <si>
-    <t>Star</t>
-  </si>
-  <si>
-    <t>Bionematicida</t>
-  </si>
-  <si>
-    <t>RSCO-NEMA-0907-X0007-009-0.40</t>
-  </si>
-  <si>
-    <t>Paecilomyces lilacinus Concentrado emulsionable (0.40%) Contiene 1.0 X 10¹¹ UFC/L.</t>
-  </si>
-  <si>
-    <t>Berenjena, chile, chile habanero, chile jalapeño, jitomate, papa, pimiento morrón, tabaco, tomate de cáscara, calabacita, calabaza, chayote, melón, pepino, sandía, piña.</t>
-  </si>
-  <si>
-    <t>4.0 a 8.0 L/ha. Contacto.</t>
-  </si>
-  <si>
-    <t>7 a 14 días. Agua (pH): 5.5 a 7.0</t>
-  </si>
-  <si>
-    <t>Nematodo agallador (Meloidogyne spp., Meloidogyne incognita), Nemátodo lesionador (Pratylenchus spp.).</t>
-  </si>
-  <si>
-    <t>/fichasTecnica/StarBionematicida.pdf</t>
-  </si>
-  <si>
-    <t>/hojasSeguridad/StarBionematicida.pdf</t>
-  </si>
-  <si>
-    <t>/FotosProducto/StarBionematicida.png</t>
-  </si>
-  <si>
     <t>RSCO-INAC-0190-0682-009-0.40</t>
   </si>
   <si>
@@ -552,9 +435,6 @@
     <t>/FotosProducto/BeaB.png</t>
   </si>
   <si>
-    <t>MixTop</t>
-  </si>
-  <si>
     <t>Biofungicida</t>
   </si>
   <si>
@@ -585,39 +465,6 @@
     <t>/FotosProducto/MixTop.png</t>
   </si>
   <si>
-    <t>Pull</t>
-  </si>
-  <si>
-    <t>RSCO-FUNG-0329-308-034-084</t>
-  </si>
-  <si>
-    <t>Óxido cuproso Gránulos dispersables (84.44%).</t>
-  </si>
-  <si>
-    <t>Cafeto, aguacatero, manzano, naranjo, calabaza, jitomate.</t>
-  </si>
-  <si>
-    <t>1.0 a 1.5 kg/ha.</t>
-  </si>
-  <si>
-    <t>7 días.</t>
-  </si>
-  <si>
-    <t>Ojo de gallo (Mycena citricolor), Mal de hilachas (Corticium koleroga), Roya (Hemileia vastatrix), Roña (Sphaceloma perseae), Roña (Venturia inaequalis), Mancha grasienta (Mycosphaerella citri), Antracnosis o Tizón de la flor (Colletotrichum gloeosporioides), Mildiú (Pseudoperonospora cubensis), Tizón tardío (Phytophthora infestans).</t>
-  </si>
-  <si>
-    <t>/fichasTecnica/Pull.pdf</t>
-  </si>
-  <si>
-    <t>/hojasSeguridad/Pull.pdf</t>
-  </si>
-  <si>
-    <t>/FotosProducto/Pull.png</t>
-  </si>
-  <si>
-    <t>Mega</t>
-  </si>
-  <si>
     <t>Extracto de gobernadora (Larrea tridentata) Líquido soluble (95.0%).</t>
   </si>
   <si>
@@ -645,69 +492,12 @@
     <t>Biofungicida Bactericida</t>
   </si>
   <si>
-    <t>Citrus</t>
-  </si>
-  <si>
-    <t>RSCO-FUNG-306T-X0046-375-006</t>
-  </si>
-  <si>
-    <t>Extracto de semilla de toronja (Citrus x paradisi) (6.0%).</t>
-  </si>
-  <si>
-    <t>Albahaca, amarilidáceas, cucurbitáceas, estragón, hierbabuena, manzanilla, menta, orégano, romero, salvia, tomillo, solanáceas.</t>
-  </si>
-  <si>
-    <t>1.0–2.0 L/ha.</t>
-  </si>
-  <si>
-    <t>Realizar dos aplicaciones al follaje, a intervalo de 7 días. Agua (pH): 5 a 6.5</t>
-  </si>
-  <si>
-    <t>Mancha foliar (Cercospora sp.), Mancha necrótica en cebolla (Pseudomonas viridiflava), Mancha bacteriana (Xanthomonas campestris), Mancha angular de las cucurbitáceas (Pseudomonas syringae).</t>
-  </si>
-  <si>
-    <t>/fichasTecnica/Citrus.pdf</t>
-  </si>
-  <si>
-    <t>/hojasSeguridad/Citrus.pdf</t>
-  </si>
-  <si>
-    <t>/FotosProducto/Citrus.png</t>
-  </si>
-  <si>
     <t>RSCO-FUNG-305G-X0045-064-025</t>
   </si>
   <si>
-    <t>Gluconato de cobre Solución concentrada (25.0%).</t>
-  </si>
-  <si>
-    <t>Aguacate, café, calabacita, calabaza, chayote, melón, pepino, sandía, banano / plátano, frambuesa, mango.</t>
-  </si>
-  <si>
-    <t>1 a 3 L/ha. Según el cultivo.</t>
-  </si>
-  <si>
-    <t>Realizar 3 aplicaciones al follaje a intervalo de 7 y 14 días según el cultivo. No acidificar el agua.</t>
-  </si>
-  <si>
-    <t>Antracnosis (Colletotrichum gloeosporioides), Cenicilla (Oidium mangiferae), Roya del cafeto (Hemileia vastatrix), Mildiú (Pseudoperonospora cubensis), Sigatoka negra (Mycosphaerella fijiensis), Roya amarilla (Pucciniastrum americanum).</t>
-  </si>
-  <si>
-    <t>/fichasTecnica/Cu25.pdf</t>
-  </si>
-  <si>
-    <t>/hojasSeguridad/Cu25.pdf</t>
-  </si>
-  <si>
-    <t>/FotosProducto/Cu25.png</t>
-  </si>
-  <si>
     <t>RSCO-FUNG-0395-X0308-064-1.00</t>
   </si>
   <si>
-    <t>Bacillus subtilis Fungicida microbiano (100%) Suspensión Concentrada.</t>
-  </si>
-  <si>
     <t>Aguacate, ajo, cebolla, cebollín, espárrago, arándano, frambuesa, fresa, grosella, zarzamora, piña, vid, lima, limonero, naranja, pomelo, tangerino, toronjo, papaya, calabacita, calabaza, chayote, melón, pepino, sandía, berenjena, chile, chile habanero, jitomate, tomate de cáscara, ajo, albahaca, orégano, hierbabuena, menta, mejorana, melisa, orégano, salvia, romero, tomillo.</t>
   </si>
   <si>
@@ -738,9 +528,6 @@
     <t>Cebolla, cebollín, ajo, espárrago, nopal, papayo, calabacita, calabaza, chayote, melón, pepino, sandía, piña, jitomate, berenjena, chile, chile habanero, pimiento, tomate de cáscara, zarzamora, fresa, frambuesa, mora, zarzaparrilla, arándano, grosella.</t>
   </si>
   <si>
-    <t>Antracnosis (Colletotrichum gloeosporioides), Mildiú (Peronospora destructor), Mancha negra (Pseudocercospora opuntiae), Pudrición de la raíz y cuello (Fusarium oxysporum), (Rhizoctonia solani), Pudrición del cogollo (Phytophthora parasitica).</t>
-  </si>
-  <si>
     <t>/fichasTecnica/TricoBio.pdf</t>
   </si>
   <si>
@@ -750,9 +537,6 @@
     <t>/FotosProducto/TricoBio.png</t>
   </si>
   <si>
-    <t>Moluscocida</t>
-  </si>
-  <si>
     <t>Biomolusquicida</t>
   </si>
   <si>
@@ -804,9 +588,6 @@
     <t>/FotosProducto/MicoRadixL.png</t>
   </si>
   <si>
-    <t>Forte</t>
-  </si>
-  <si>
     <t>RSCO-286/x/08</t>
   </si>
   <si>
@@ -834,9 +615,6 @@
     <t>/FotosProducto/Forte.png</t>
   </si>
   <si>
-    <t>SinalFrut</t>
-  </si>
-  <si>
     <t>Bioestimulante</t>
   </si>
   <si>
@@ -861,9 +639,6 @@
     <t>/FotosProducto/SinalFrut.png</t>
   </si>
   <si>
-    <t>Mix</t>
-  </si>
-  <si>
     <t>RSCO-258/XII/19</t>
   </si>
   <si>
@@ -888,33 +663,9 @@
     <t>/FotosProducto/Mix.png</t>
   </si>
   <si>
-    <t>Cinna-NeemCE</t>
-  </si>
-  <si>
-    <t>Ecdy Finn</t>
-  </si>
-  <si>
-    <t>Meta A</t>
-  </si>
-  <si>
-    <t>Bea B</t>
-  </si>
-  <si>
-    <t>Cu 25</t>
-  </si>
-  <si>
     <t>Probac BS</t>
   </si>
   <si>
-    <t>Trico-Bio</t>
-  </si>
-  <si>
-    <t>MicoRadix L</t>
-  </si>
-  <si>
-    <t>Xtra Alga</t>
-  </si>
-  <si>
     <t>RSCO-163/VII/09</t>
   </si>
   <si>
@@ -939,9 +690,6 @@
     <t>/FotosProducto/XtraAlga.png</t>
   </si>
   <si>
-    <t>Nutripro TR</t>
-  </si>
-  <si>
     <t>Ácidos húmicos, Auxinas 50.048 ppm, Citocininas, Giberelinas 99.875 ppm, Nitrógeno 0.49%, Fósforo (P₂O₅) 0.21%, Potasio (K₂O) 0.41%, Hierro 0.508%, Boro 0.301%, Manganeso 0.251%, Zinc 1.032%, Calcio 1.011%, Magnesio 0.251%, Azufre 0.752%. Líquido. 5.974% Ácidos fúlvicos, 6.911% Líquido soluble.</t>
   </si>
   <si>
@@ -960,9 +708,6 @@
     <t>/FotosProducto/NutriproTR.png</t>
   </si>
   <si>
-    <t>Nutripro KMg</t>
-  </si>
-  <si>
     <t>Nitrógeno total (N): 1.0%, Potasio (K₂O): 40.0%, Azufre (SO₃): 45.0%, Magnesio (MgO): 2.1%. Polvo.</t>
   </si>
   <si>
@@ -1029,12 +774,6 @@
     <t>/FotosProducto/NutriproEnergy.png</t>
   </si>
   <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>KBorCa</t>
-  </si>
-  <si>
     <t>/fichasTecnica/KBorCa.pdf</t>
   </si>
   <si>
@@ -1056,9 +795,6 @@
     <t>/FotosProducto/Aminoacidos.png</t>
   </si>
   <si>
-    <t>Aminofit:Xtra</t>
-  </si>
-  <si>
     <t>Aminoacidos</t>
   </si>
   <si>
@@ -1071,9 +807,6 @@
     <t xml:space="preserve">Calcio (Ca-EDTA): 5.31%, Boro (B): 1.43%, Potasio (K2O) 13.38%, Nitrógeno total (N): 3.26%. Líquido soluble. </t>
   </si>
   <si>
-    <t>Activador</t>
-  </si>
-  <si>
     <t>Regulador de crecimiento</t>
   </si>
   <si>
@@ -1101,9 +834,6 @@
     <t>/FotosProducto/Activador.png</t>
   </si>
   <si>
-    <t>Macroroot</t>
-  </si>
-  <si>
     <t>RSCO-030/IV/20</t>
   </si>
   <si>
@@ -1116,9 +846,6 @@
     <t>1.0 – 1.5 kg/ha</t>
   </si>
   <si>
-    <t>Aplicaciones a partir de la brotación a intervalo de 4 semanas.</t>
-  </si>
-  <si>
     <t>/fichasTecnica/Macroroot.pdf</t>
   </si>
   <si>
@@ -1128,9 +855,6 @@
     <t>/FotosProducto/Macroroot.png</t>
   </si>
   <si>
-    <t>NutriproMag</t>
-  </si>
-  <si>
     <t>Fertilizante Inorganico</t>
   </si>
   <si>
@@ -1158,30 +882,6 @@
     <t>/FotosProducto/NutriproMag.png</t>
   </si>
   <si>
-    <t>Delphinus</t>
-  </si>
-  <si>
-    <t>Biocoadyuvante</t>
-  </si>
-  <si>
-    <t>Aceite vegetal de maíz. Aceite emulsionable (95.0%)</t>
-  </si>
-  <si>
-    <t>Lima, limonero, mandarina, naranjo, pomelo, tangerina, toronja y nopal.</t>
-  </si>
-  <si>
-    <t>Hortalizas: 0.5 a 2.0 L/100 L agua. Ornamentales: 0.25 a 1.0 L/100 L agua. Frutales: 0.5 a 3.0 L/100 L agua. Aguacatero: 5.0 a 8.0 L/ha. Cítricos: 1.0 a 1.5 L/100 L agua. Manzano: 0.25 a 2.0 L/100 L agua. Papaya: 0.5 a 1.0 L/100 L agua. Plátano: 1.0 L/ha; en aplicación aérea de 3.5 a 5.0 L/ha.</t>
-  </si>
-  <si>
-    <t>/fichasTecnica/Delphinus.pdf</t>
-  </si>
-  <si>
-    <t>/hojasSeguridad/Delphinus.pdf</t>
-  </si>
-  <si>
-    <t>/FotosProducto/Delphinus.png</t>
-  </si>
-  <si>
     <t>Bio-Stick</t>
   </si>
   <si>
@@ -1200,9 +900,6 @@
     <t>/FotosProducto/BioStick.png</t>
   </si>
   <si>
-    <t>Oil Premium</t>
-  </si>
-  <si>
     <t>/fichasTecnica/OilPremium.pdf</t>
   </si>
   <si>
@@ -1212,9 +909,6 @@
     <t>/FotosProducto/OilPremium.png</t>
   </si>
   <si>
-    <t>PineOil</t>
-  </si>
-  <si>
     <t>0.4 a 0.6 L/ha, 1 L/ha en volumen de agua mayor a 800 L/ha.</t>
   </si>
   <si>
@@ -1227,9 +921,6 @@
     <t>/FotosProducto/PineOil.png</t>
   </si>
   <si>
-    <t>Ionic Ultra</t>
-  </si>
-  <si>
     <t>40 a 60 ml/100 L agua; con herbicidas, defoliantes y fertilizantes foliares: 50 a 100 ml/100 L de agua.</t>
   </si>
   <si>
@@ -1242,9 +933,6 @@
     <t>/FotosProducto/IonicUltra.png</t>
   </si>
   <si>
-    <t>BioAdher</t>
-  </si>
-  <si>
     <t>Mezcla de dioctil sulfosuccinato de sodio, poliéter polisiloxano modificado, polioxietilen sorbitán mono laurato, solventes y auxiliares. Concentrado soluble.</t>
   </si>
   <si>
@@ -1260,9 +948,6 @@
     <t>/FotosProducto/BioAdher.png</t>
   </si>
   <si>
-    <t>BioPH</t>
-  </si>
-  <si>
     <t>Mezcla de ácido cítrico, ácidos grasos etoxilados, auxiliares y disolvente acuoso. Concentrado soluble.</t>
   </si>
   <si>
@@ -1278,9 +963,6 @@
     <t>/FotosProducto/BioPH.png</t>
   </si>
   <si>
-    <t>Biodyna</t>
-  </si>
-  <si>
     <t>Silicona modificada con poliéter, aceite vegetal. 100% emulsionable. Concentrado emulsionable.</t>
   </si>
   <si>
@@ -1296,21 +978,6 @@
     <t>/FotosProducto/Biodyna.png</t>
   </si>
   <si>
-    <t>Bio Punch</t>
-  </si>
-  <si>
-    <t>/fichasTecnica/BioPunch.pdf</t>
-  </si>
-  <si>
-    <t>/hojasSeguridad/BioPunch.pdf</t>
-  </si>
-  <si>
-    <t>/FotosProducto/BioPunch.png</t>
-  </si>
-  <si>
-    <t>Sigma</t>
-  </si>
-  <si>
     <t>Tomate, chile, pepino, vid y banano</t>
   </si>
   <si>
@@ -1326,18 +993,6 @@
     <t>/FotosProducto/Sigma.png</t>
   </si>
   <si>
-    <t>Tural</t>
-  </si>
-  <si>
-    <t>/fichasTecnica/Tural.pdf</t>
-  </si>
-  <si>
-    <t>/hojasSeguridad/Tural.pdf</t>
-  </si>
-  <si>
-    <t>/FotosProducto/Tural.png</t>
-  </si>
-  <si>
     <t>Prolux Adherente</t>
   </si>
   <si>
@@ -1413,9 +1068,6 @@
     <t>/FotosProducto/ProwetSA.png</t>
   </si>
   <si>
-    <t>Carbenpro 50SC</t>
-  </si>
-  <si>
     <t>Fungicida</t>
   </si>
   <si>
@@ -1434,9 +1086,6 @@
     <t>/FotosProducto/Carbenpro.png</t>
   </si>
   <si>
-    <t>Promilo 50PH</t>
-  </si>
-  <si>
     <t>RSCO-FUNG–0303–003–002–050</t>
   </si>
   <si>
@@ -1455,9 +1104,6 @@
     <t>24 x 250 g, 10 x 1 kg</t>
   </si>
   <si>
-    <t>Promethyl SC 50</t>
-  </si>
-  <si>
     <t>RSCO-FUNG–0369–X0114–064–4214</t>
   </si>
   <si>
@@ -1473,9 +1119,6 @@
     <t>/FotosProducto/PromethylSC.png</t>
   </si>
   <si>
-    <t>Promethyl 70PH</t>
-  </si>
-  <si>
     <t>RSCO-FUNG–0369–309–002–070</t>
   </si>
   <si>
@@ -1497,9 +1140,6 @@
     <t>30 x 200 g, 10 x 1 kg</t>
   </si>
   <si>
-    <t>Carbenpro 500F</t>
-  </si>
-  <si>
     <t>RSCO–FUNG–0307–320–342–043</t>
   </si>
   <si>
@@ -1515,9 +1155,6 @@
     <t>/FotosProducto/Carbenpro500F.png</t>
   </si>
   <si>
-    <t>Coraza 720SC</t>
-  </si>
-  <si>
     <t>RSCO–FUNG–0309–388–008–052</t>
   </si>
   <si>
@@ -1536,12 +1173,6 @@
     <t>/FotosProducto/Coraza720SC.png</t>
   </si>
   <si>
-    <t>12 x 1 L, 1 x 20 L, 1 x 200 L</t>
-  </si>
-  <si>
-    <t>Pyraclostrobin 25SC</t>
-  </si>
-  <si>
     <t>RSCO–FUNG–03010–X0295–009–24.50</t>
   </si>
   <si>
@@ -1563,9 +1194,6 @@
     <t>24 x 250 ml, 12 x 1 L</t>
   </si>
   <si>
-    <t>Bioxystrobin</t>
-  </si>
-  <si>
     <t>RSCO–FUNG–0386–X0247–064–22.95</t>
   </si>
   <si>
@@ -1632,9 +1260,6 @@
     <t>/FotosProducto/Agrimycu100.png</t>
   </si>
   <si>
-    <t>12 x 1 Kg.</t>
-  </si>
-  <si>
     <t>Agrimycu 500</t>
   </si>
   <si>
@@ -1653,12 +1278,6 @@
     <t>/FotosProducto/Agrimycu500.png</t>
   </si>
   <si>
-    <t>30 x 300 g, 12 x 1 Kg.</t>
-  </si>
-  <si>
-    <t>Anibac Plus Cu</t>
-  </si>
-  <si>
     <t>RSCO–MEZC–FUNG–0357–0403–052–64.51</t>
   </si>
   <si>
@@ -1728,30 +1347,12 @@
     <t>No. Registro: no requiere registro sanitario como coadyuvante ante la COFEPRIS.</t>
   </si>
   <si>
-    <t>Dioctil sulfosuccinato de sodio. Líquido Soluble. (70.00% ).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.5 mL/L de agua </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 días. Agua (pH): 6.5 a 7.0 </t>
-  </si>
-  <si>
-    <t>En mezcla con Agroquimicos o Biosoluciones, en aplicaciones foliares por aspersión.</t>
-  </si>
-  <si>
     <t>Mezcla de extracto de higuerilla (Ricinus communis), Solvente y Emulsificantes.</t>
   </si>
   <si>
     <t xml:space="preserve">1 a 1.5 L/200 L de agua. </t>
   </si>
   <si>
-    <t xml:space="preserve">Mezcla de poliéter polisiloxano modificado, carbometoxianilina, Solventes y Auxiliares. </t>
-  </si>
-  <si>
-    <t>Granos: Maiz, sorgo, cebada, arroz, trigo, avena.</t>
-  </si>
-  <si>
     <t>Biocontrol</t>
   </si>
   <si>
@@ -1767,9 +1368,6 @@
     <t>Bioinsecticida microbiano</t>
   </si>
   <si>
-    <t>Repelente</t>
-  </si>
-  <si>
     <t>/FotosCatalogo/StarAgricola.png</t>
   </si>
   <si>
@@ -1809,12 +1407,6 @@
     <t>/FotosCatalogo/UltraluxN.png</t>
   </si>
   <si>
-    <t>/FotosCatalogo/EcdyFinn.png</t>
-  </si>
-  <si>
-    <t>/FotosCatalogo/StarBionematicida.png</t>
-  </si>
-  <si>
     <t>/FotosCatalogo/BeaB.png</t>
   </si>
   <si>
@@ -1824,18 +1416,9 @@
     <t>/FotosCatalogo/MixTop.png</t>
   </si>
   <si>
-    <t>/FotosCatalogo/Pull.png</t>
-  </si>
-  <si>
     <t>/FotosCatalogo/Mega.png</t>
   </si>
   <si>
-    <t>/FotosCatalogo/Citrus.png</t>
-  </si>
-  <si>
-    <t>/FotosCatalogo/Cu25.png</t>
-  </si>
-  <si>
     <t>/FotosCatalogo/ProbacBS.png</t>
   </si>
   <si>
@@ -1887,9 +1470,6 @@
     <t>/FotosCatalogo/NutriproMag.png</t>
   </si>
   <si>
-    <t>/FotosCatalogo/Delphinus.png</t>
-  </si>
-  <si>
     <t>/FotosCatalogo/BioStick.png</t>
   </si>
   <si>
@@ -1911,15 +1491,9 @@
     <t>/FotosCatalogo/Biodyna.png</t>
   </si>
   <si>
-    <t>/FotosCatalogo/BioPunch.png</t>
-  </si>
-  <si>
     <t>/FotosCatalogo/Sigma.png</t>
   </si>
   <si>
-    <t>/FotosCatalogo/Tural.png</t>
-  </si>
-  <si>
     <t>/FotosCatalogo/ProluxAdherente.png</t>
   </si>
   <si>
@@ -1998,9 +1572,6 @@
     <t>Ajo, cebolla, cebollín, espárrago,  fresa, zarzamora, frambuesa, arándano, grosella,  limonero, naranjo, lima, tangerino, mandarina, toronja, clementina,  tangerina, pomelo,  nopal, calabacita, calabaza, chayote, melón, sandía, pepino, berenjena, chile, chile habanero, chile jalapeño, jitomate, papa, pimiento morrón, tabaco, tomate de cáscara , piña apio, acelga, espinaca, lechuga, manzano, peral, nogal, vid , papaya</t>
   </si>
   <si>
-    <t>Nemátodo agallador (Meloidogyne incognita Nemátodo lesionador (Pratylenchus spp.), Nemátodo daga (Xiphinema sp.), Nemátodo agallador (Meloidogyne spp.)</t>
-  </si>
-  <si>
     <t>RSCO-FUNG-0301M-303-052-095</t>
   </si>
   <si>
@@ -2028,9 +1599,6 @@
     <t>Mango, Fam. Rutaceae: limón mexicano, limón persa, naranjo, lima, tangerino, mandarino, toronjo, pomelo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Efecto: Es un regulador de crecimiento que contiene auxinas, citocininas, giberelinas, enriquecido con macronutrientes (N, P y K) y micronutrientes, elementos que intervienen en los procesos de formación de tejidos y órganos que determinan el crecimiento y desarrollo normal de 12 x 1 L. las plantas. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Jitomate, chile, sandía, melón, calabacita, pepino, fresa, papa y ornamentales. </t>
   </si>
   <si>
@@ -2079,9 +1647,6 @@
     <t>Efecto: Es un nutriente vegetal que contiene cloruro de magnesio líquido, que promueve la síntesis de clorofila (pigmento verde fotosintético), la formación de azúcares y mejora la eficiencia de utilización del Nitrógeno, estimulando el crecimiento de los cultivos, su rendimiento y la calidad de los productos cosechados. Aplicado al follaje, al suelo o fertirriego, provee magnesio y cloruro de fácil asimilación por las plantas para el tratamiento de sus deficiencias. Adicionalmente, ayuda a prevenir la acumulación de aminoácidos libres en las plantas que las hacen atractivas para los insectos plagas.</t>
   </si>
   <si>
-    <t>Efecto: Mejora la distribución de los insecticidas sobre la superficie de los vegetales, reduce la tensión superficial de las emulsiones a aplicar, favoreciendo la permanencia y penetración del fitosanitario utilizado, así como una mayor retención del producto sobre la superficie objetivo.</t>
-  </si>
-  <si>
     <t>Puede mezclarse con otros insumos sin restricción alguna.</t>
   </si>
   <si>
@@ -2133,15 +1698,9 @@
     <t>Efecto: Es una mezcla eficaz de aceites de semillas metilados altamente refinados en combinación con tensioactivos no iónicos especializados a base de organosilicona. El componente de aceite de Prowet Biodyna proporciona una excelente penetración, mientras que el surfactante brinda una cobertura y un esparcimiento altamente efectivos, además ofrece acción antievaporante.</t>
   </si>
   <si>
-    <t>Efecto: Es un agente humectante para ser utilizado en aplicaciones de fungicidas, insecticidas y/o herbicidas con el fin de mejorar la distribución de estos productos sobre la superficie de los vegetales. Bio Punch reduce la tensión superficial de las emulsiones a aplicar, favoreciendo la permanencia y penetración del fitosanitario utilizado, así como una mayor retención del producto sobre la superficie objetivo. Promueve una película delgada y uniforme lo que acelera la incorporación de los productos sistémicos aumentando la velocidad de acción y disminuyendo las pérdidas.</t>
-  </si>
-  <si>
     <t>Efecto: Insectos y nematodos y es recomendable vs mosquita blanca, pulgón y otros áfidos, Flexibilidad de uso, Insecticida utilizado en MIP</t>
   </si>
   <si>
-    <t>Efecto: Repelente de pájaros</t>
-  </si>
-  <si>
     <t>Puede mezclarse con cualquier tipo de plaguicida registrado sin restricción alguna.</t>
   </si>
   <si>
@@ -2172,12 +1731,6 @@
     <t>Frijol, soya, cacahuate, ornamentales, limón mexicano, limón persa, naranjo, lima, mandarino, tangerino, toronjo, mango, piña, tomate, tomate de cascara.</t>
   </si>
   <si>
-    <t>350 a 500 g/ha. y 60-90 g/100 L de agua.</t>
-  </si>
-  <si>
-    <t>Moho gris (Botrytis cinerea), Tizón del tallo y vainas (Diaporthe phaseolorum), Antracnosis (Colletotrichum lindemuthianum), Mancha ojo de rana (Cercospora sojina), Moho gris (Botrytis cinerea), Tizón del tallo y vainas (Diaporthe phaseolorum var. Sojae), Antracnosis (Ascochyta spp), Mancha de la hoja (Cercospora personata, Cercospora arachidicola), Moho gris (Botrytis spp), Mancha foliar (Cercospora spp, Phomosis spp, Ascochyta chrysanthemi, Septoria chrysanthemi) Mancha negra (Diplocarpon rosae) Cenicilla (Sphaerotheca spp) Pudrición del cuello, Damping-off, Pudrición radical (Rhizoctonia spp, Fusarium spp, Sclerotinia spp) Pudrición de corteza (Thielaviopsis spp), Antracnosis (Colletotrichum gloesporioides), Pudrición de raíz y cuello (Fusarium oxysporum).</t>
-  </si>
-  <si>
     <t>Aguacatero, apio, ciruelo, limonero, mandarino, naranjo, toronjo, col, calabacita, melón, pepino, durazno, fresa, frijol, jitomate, mango, manzano, peral, plátano, soya, vid</t>
   </si>
   <si>
@@ -2287,13 +1840,502 @@
   </si>
   <si>
     <t>Bacterias, hongos y algas.</t>
+  </si>
+  <si>
+    <t>Ultralux N</t>
+  </si>
+  <si>
+    <t>Progranic Mix Top</t>
+  </si>
+  <si>
+    <t>Spectrum Trico-Bio</t>
+  </si>
+  <si>
+    <t>Spectrum MicoRadix L</t>
+  </si>
+  <si>
+    <t>Nutripro Forte</t>
+  </si>
+  <si>
+    <t>Nutripro Mix</t>
+  </si>
+  <si>
+    <t>Nutripro Kmg</t>
+  </si>
+  <si>
+    <t>Nutripro Energy</t>
+  </si>
+  <si>
+    <t>Aminofit KBorCa</t>
+  </si>
+  <si>
+    <t>Aminofit.Xtra</t>
+  </si>
+  <si>
+    <t>Progrow Activador</t>
+  </si>
+  <si>
+    <t>Progrow Macroroot</t>
+  </si>
+  <si>
+    <t>Nutripro Mag</t>
+  </si>
+  <si>
+    <t>Progranic Oil Premium</t>
+  </si>
+  <si>
+    <t>Prowet PineOil</t>
+  </si>
+  <si>
+    <t>Prowet Bio Adher</t>
+  </si>
+  <si>
+    <t>Prowet Bio pH</t>
+  </si>
+  <si>
+    <t>Prowet Biodyna</t>
+  </si>
+  <si>
+    <t>Progranic Sigma</t>
+  </si>
+  <si>
+    <t>Promethyl 50 SC</t>
+  </si>
+  <si>
+    <t>Promethyl 70% PH</t>
+  </si>
+  <si>
+    <t>Coraza 720S</t>
+  </si>
+  <si>
+    <t>Anibac Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 a 2 L/ha. y 0.5 - 2.0 L/100 L agua. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSCO-INAC-0910A-X0384-009-60.00</t>
+  </si>
+  <si>
+    <t>Extracto de epazote (Chenopodium ambrosioides), Concentrado Soluble (60 %)</t>
+  </si>
+  <si>
+    <t>Chile, papa, pimiento morrón, jitomate, tomate de cáscara, ajo, cebolla, cebollín, espárrago, poro, brócoli, col, col de bruselas, coliflor, colinabo, colza, calabaza, calabacita, chayote, melón, pepino, sandía.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - 2 L/100L de agua. </t>
+  </si>
+  <si>
+    <t>Realizar 3 aplicaciones al follaje con intervalo de 7 días.</t>
+  </si>
+  <si>
+    <t>Pulgón saltador (Bactericera cockerelli), Trips  (Thrips tabaci), Pulgón cenizo  (Brevicoryne brassicae), Pulgón del algodonero (Aphis gossypii),  Mosquita blanca (Bemisia tabaci).</t>
+  </si>
+  <si>
+    <t>Aceite parafínico, Concentrado emulsionable (95.0%).</t>
+  </si>
+  <si>
+    <t>Dioctil sulfosuccinato de sodio, Líquido soluble (70.0%).</t>
+  </si>
+  <si>
+    <t>12 x 1 Kg</t>
+  </si>
+  <si>
+    <t>Cyr Star Agricola</t>
+  </si>
+  <si>
+    <t>Cyr Neem 80 CE</t>
+  </si>
+  <si>
+    <t>Cyr Canela</t>
+  </si>
+  <si>
+    <t>Cyr Potasy Max</t>
+  </si>
+  <si>
+    <t>Cyr Cinna Neem</t>
+  </si>
+  <si>
+    <t>Cyr Piretrinas</t>
+  </si>
+  <si>
+    <t>Cyr Omega</t>
+  </si>
+  <si>
+    <t>Cyr Natuactivo</t>
+  </si>
+  <si>
+    <t>Cyr Repelent Ajo</t>
+  </si>
+  <si>
+    <t>Cyr Ovifinn</t>
+  </si>
+  <si>
+    <t>Cyr Gamma</t>
+  </si>
+  <si>
+    <t>Cyr Mega</t>
+  </si>
+  <si>
+    <t>Cyr Moluscocida</t>
+  </si>
+  <si>
+    <t>Cyr Ssinal Frut</t>
+  </si>
+  <si>
+    <t>Cyr Xtra Alga</t>
+  </si>
+  <si>
+    <t>Cyr Nutripro TR</t>
+  </si>
+  <si>
+    <t>Cyr Zn 70</t>
+  </si>
+  <si>
+    <t>Cyr Dp 98</t>
+  </si>
+  <si>
+    <t>Cyr ZynQ</t>
+  </si>
+  <si>
+    <t>Cyr K41</t>
+  </si>
+  <si>
+    <t>Cyr Bio 20</t>
+  </si>
+  <si>
+    <t>Cyr Calmax Super</t>
+  </si>
+  <si>
+    <t>Cyr Ionic Ultra</t>
+  </si>
+  <si>
+    <t>Cyr ProActiv</t>
+  </si>
+  <si>
+    <t>Cyr Carbenpro 50 p.h.</t>
+  </si>
+  <si>
+    <t>Cyr Promilo 50 p.h.</t>
+  </si>
+  <si>
+    <t>Cyr Carbenpro 500F</t>
+  </si>
+  <si>
+    <t>Cyr Pyraclostrobin 25CE</t>
+  </si>
+  <si>
+    <t>Cyr Bioxystrobin</t>
+  </si>
+  <si>
+    <t>Bacillus subtilis, Fungicida microbiano (100%), Suspensión Concentrada.</t>
+  </si>
+  <si>
+    <t>Cu-Back</t>
+  </si>
+  <si>
+    <t>Gluconato de cobre, Solución concentrada (25.0%).</t>
+  </si>
+  <si>
+    <t>Aguacate, café,  calabacita, calabaza, chayote, melón, pepino, sandía,  banano / plátano,  frambuesa, mango</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 a 3 L/ha segun el cultivo.</t>
+  </si>
+  <si>
+    <t>Realizar 3 aplicaciones al follaje a intervalo de 7 y 14 días según el cultivo. Acondicione el agua para un pH de 6 a 7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antracnosis (Colletotrichum gloeosporioides), Cenicilla (Oidium mangiferae), Roya del cafeto (Hemileia vastatrix), Mildiú (Pseudoperonospora cubensis), Sigatoka negra (Mycosphaerella fijiensis), Roya amarilla (Pucciniastrum americanum). </t>
+  </si>
+  <si>
+    <t>/fichasTecnica/Cu-Back.pdf</t>
+  </si>
+  <si>
+    <t>/hojasSeguridad/Cu-Back.pdf</t>
+  </si>
+  <si>
+    <t>/FotosProducto/Cu-Back.png</t>
+  </si>
+  <si>
+    <t>/FotosCatalogo/Cu-Back.png</t>
+  </si>
+  <si>
+    <t>Antracnosis (Colletotrichum gloeosporioides), Mildiú (Peronospora destructor), Mancha negra (Pseudocer cospora opuntiae), Pudrición de la raíz y cuello (Fusarium oxysporum), (Rhizoctonia solani), Pudrición del cogollo (Biofungicida Bactericida).</t>
+  </si>
+  <si>
+    <t>750 mL, 20 L, 12 x 750 mL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efecto: Es un regulador de crecimiento que contiene auxinas, citocininas, giberelinas, enriquecido con macronutrientes (N, P y K) y micronutrientes, elementos que intervienen en los procesos de formación de tejidos y órganos que determinan el crecimiento y desarrollo normal de las plantas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7 días en plántulas a partir de la emergencia o trasplante; 15 y 30 días en plantas establecidas.</t>
+  </si>
+  <si>
+    <t>RSCO-063/II/13</t>
+  </si>
+  <si>
+    <t>Bionutriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zinc (Zn): 70.00 %.</t>
+  </si>
+  <si>
+    <t>Café, papa, hortalizas, aguacate, frutales, plátano, algodón, maíz, arroz, caña de azúcar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5 - 1 l/ha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aplicaciones al inicio del ciclo de desarrollo del cultivo o como tratamiento de semilla.</t>
+  </si>
+  <si>
+    <t>/fichasTecnica/Zn70.pdf</t>
+  </si>
+  <si>
+    <t>/hojasSeguridad/Zn70.pdf</t>
+  </si>
+  <si>
+    <t>/FotosProducto/Zn70.png</t>
+  </si>
+  <si>
+    <t>12 x 1 L, 1 x 5 L, 1 x 20 L</t>
+  </si>
+  <si>
+    <t>/FotosCatalogo/Zn70.png</t>
+  </si>
+  <si>
+    <t>RSCO-064/II/13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nitrógeno (N): 4.0%, Fósforo (P2O5): 37.8%, Potasio (K2O): 17.5%.</t>
+  </si>
+  <si>
+    <t>Lechuga, papa, brasicáceas, cebolla, poro, zanahoria, manzana, frambuesa, fresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2-4 l/ha</t>
+  </si>
+  <si>
+    <t>Cada 14 a 28 días según se necesite.</t>
+  </si>
+  <si>
+    <t>Efecto: Es una fuente de fósforo altamente soluble en agua. La alta solubilidad de DP98 permite una rápida captura y absorción de fósforo cuando se aplica foliarmente. El fósforo en productos convencionales se mueve en la planta por el xilema. Sin embargo, en DP98 el fósforo se mueve por el floema y xilema llegando entonces a la zona de las raíces y a la parte aérea.</t>
+  </si>
+  <si>
+    <t>Efecto: Es una emulsión de alta concentración de un solo elemento para corregir deficiencias específicas. Se formula con potenciadores para mejorar la asimilación y la acción de CYR Zn 70 con el tiempo. El Zinc juega un papel importante como estimulante metabólico en semillas y en plantas jóvenes donde activa las enzimas claves para el crecimiento radicular. Participa en la conversión de aminoácidos en polipéptidos, proteínas y hormonas tal como auxinas, producidas en las puntas de crecimiento de los tallos y posteriormente traslocadas a la raíz para estimular el crecimiento radicular. El Zinc también juega un papel importante en las modificaciones constantes de la integridad de la membrana celular y así ayuda a la planta a superar el estrés debido a la producción de radicales libres en el proceso de fotosíntesis.</t>
+  </si>
+  <si>
+    <t>/fichasTecnica/Dp98.pdf</t>
+  </si>
+  <si>
+    <t>/hojasSeguridad/Dp98.pdf</t>
+  </si>
+  <si>
+    <t>/FotosProducto/Dp98.png</t>
+  </si>
+  <si>
+    <t>/FotosCatalogo/Dp98.png</t>
+  </si>
+  <si>
+    <t>RSCO-413/VIII/23</t>
+  </si>
+  <si>
+    <t>Cobre (Cu): 2.11%, Zinc (Zn): 3.75%, Azufre (SO3): 7.40%</t>
+  </si>
+  <si>
+    <t>Zanahoria y otros cultivos de raíz, cereales, legumbres, papa, cultivos de invernadero y verduras, verduras en campo abierto, berries, árboles frutales, vid</t>
+  </si>
+  <si>
+    <t>0.5-1 l/ha</t>
+  </si>
+  <si>
+    <t>7-14 días</t>
+  </si>
+  <si>
+    <t>Efecto:  Un complejo único de cobre y de zinc. CYR ZynQ corrige deficiencias de estos elementos, mejora la salud vegetal y vuelve el cultivo más tolerante al estrés abiótico. El Zinc participa en la producción y activación de hormonas que regulan el desarrollo radicular, la asimilación de agua por la raíz, la floración y el amarre de frutas. Además, juega un papel importante en la permeabilidad de la membrana celular y la defensa del cultivo contra enfermedades. El cobre participa en la fotosíntesis y la unión de células que apoyan la estructura de la planta y el desarrollo de tejidos nuevos tanto en la raíz como en el tallo. El cobre está también involucrado en la activación de múltiples sistemas de enzimas relacionados con el metabolismo de proteínas, de carbohidratos y de nitrógeno. El cobre forma parte de los compuestos fenólicos que ayudan a la planta a defenderse contra enfermedades.</t>
+  </si>
+  <si>
+    <t>/fichasTecnica/ZynQ.pdf</t>
+  </si>
+  <si>
+    <t>/hojasSeguridad/ZynQ.pdf</t>
+  </si>
+  <si>
+    <t>/FotosProducto/ZynQ.png</t>
+  </si>
+  <si>
+    <t>12 x 1 L, 1 x 5 L</t>
+  </si>
+  <si>
+    <t>/FotosCatalogo/ZynQ.png</t>
+  </si>
+  <si>
+    <t>RSCO-161/VIII/18</t>
+  </si>
+  <si>
+    <t>Nitrógeno total (N): 2.00%, Potasio (K2O): 26.40%, Magnesio (MgO): 1.60%, Azufre (S): 6.00%.</t>
+  </si>
+  <si>
+    <t>Almendra, manzana, albaricoque, aguacate, pepino, melón, pimiento, tomate, papa, uva de mesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 - 5 lt /ha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 a 3 aplicaciones desde floración hasta formación de frutos o tubérculos.</t>
+  </si>
+  <si>
+    <t>Efecto: Es un fertilizante fluido y totalmente soluble en agua que contiene potasio, magnesio y azufre. El potasio es un macro elemento que se necesita en grandes cantidades para el desarrollo normal de la planta. Está implicado en el metabolismo de la planta y en regular las reservas de agua. Otra función importante es que regula el transporte en el estoma. El potasio interviene en la fotosíntesis y está implicado en el transporte de azúcares en la hoja.</t>
+  </si>
+  <si>
+    <t>/fichasTecnica/K41.pdf</t>
+  </si>
+  <si>
+    <t>/hojasSeguridad/K41.pdf</t>
+  </si>
+  <si>
+    <t>/FotosProducto/K41.png</t>
+  </si>
+  <si>
+    <t>/FotosCatalogo/K41.png</t>
+  </si>
+  <si>
+    <t>RSCO-062/II/13</t>
+  </si>
+  <si>
+    <t>Nitrógeno total, (N): 20.00% , Fósforo (P2O5): 20.00%, Potasio (K2O): 20.00%, Oxido de Magnesio (MgO): 1.50%, Hierro (EDTA) (Fe 0):0.146%, Zinc (EDTA) (Zn): 0.073%, Cobre (EDTA) (Cu): 0.073%, Manganeso (EDTA) (Mn): 0.073%, Boro (B): 0.029%, Cobalto (EDTA) (Co): 0.0012%, Molibdeno (Mo): 0.0012%, Extracto de algas: 28.00%.</t>
+  </si>
+  <si>
+    <t>Remolacha, papa, cereales, hortalizas, frutales, cítricos, ornamentales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-3 l/ha</t>
+  </si>
+  <si>
+    <t>15 días</t>
+  </si>
+  <si>
+    <t>Efecto: Es una emulsión altamente concentrada que contiene macroelementos y microelementos quelatados. El material orgánico proviene de un extracto de algas. Maximiza el potencial de producción de cultivos que tienen peligro de daños por condiciones de estrés, tales como altas temperaturas, determinadas condiciones de suelo, accesibilidad al agua y enfermedades.</t>
+  </si>
+  <si>
+    <t>/fichasTecnica/Bio20.pdf</t>
+  </si>
+  <si>
+    <t>/hojasSeguridad/Bio20.pdf</t>
+  </si>
+  <si>
+    <t>/FotosProducto/Bio20.png</t>
+  </si>
+  <si>
+    <t>/FotosCatalogo/Bio20.png</t>
+  </si>
+  <si>
+    <t>RSCO-065/II/13</t>
+  </si>
+  <si>
+    <t>Nitrógeno (N): 16.00%, Calcio (CaO): 24.00%, Magnesio (MgO): 3.20%, Manganeso (EDTA) (Mn): 0.16%, Hierro (EDTA) (Fe): 0.16%, Boro (B): 0.080%, Cobre (EDTA) (Cu): 0.080%, Zinc (EDTA) (Zn) 0.080%, Molibdeno (Mo): 0.016%.</t>
+  </si>
+  <si>
+    <t>Frutales (tanto de hueso como de pepita), uva, tomate, pepino, calabaza, berenjena habichuela, fresa, coles, alcachofa, lechuga, papa, melón, cítricos, algodón.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.5 L/ha</t>
+  </si>
+  <si>
+    <t>2 ó 3 aplicaciones desde el inicio de la floración a intervalos de 8 – 20 días.</t>
+  </si>
+  <si>
+    <t>Efecto: Es una emulsión fluida totalmente soluble en agua con 22.5% de calcio y una gama completa de microelementos. Calmax Super contiene todos los aminoácidos esenciales para la planta. El calcio es un constituyente primario de las paredes celulares y de las membranas. El componente Super aporta aminoácidos a la formulación de Calmax. Son bioactivadores del metabolismo de la planta especialmente indicados para superar situaciones de estrés tales como frío, heladas, enfermedades o calor y para estimular la planta en las etapas críticas del ciclo biológico : floración, cuajado y fructificación. Calmax Super potencia la actividad de la flor y la fruta aumentando su capacidad de asimilación de azúcares y otros productos de la fotosíntesis para su posterior desarrollo, engrosamiento y maduración. Calmax Super ayuda a aumentar el rendimiento y la calidad de la cosecha.</t>
+  </si>
+  <si>
+    <t>/fichasTecnica/CalmaxSuper.pdf</t>
+  </si>
+  <si>
+    <t>/hojasSeguridad/CalmaxSuper.pdf</t>
+  </si>
+  <si>
+    <t>/FotosProducto/CalmaxSuper.png</t>
+  </si>
+  <si>
+    <t>/FotosCatalogo/CalmaxSuper.png</t>
+  </si>
+  <si>
+    <t>Bioadherente</t>
+  </si>
+  <si>
+    <t>Potencializador</t>
+  </si>
+  <si>
+    <t>BioAntitranspirante</t>
+  </si>
+  <si>
+    <t>Bioextensor y penetrante</t>
+  </si>
+  <si>
+    <t>Bioacidificante</t>
+  </si>
+  <si>
+    <t>Biodispersante Biohumectante Biopenetrante</t>
+  </si>
+  <si>
+    <t>Aceite Vegetal</t>
+  </si>
+  <si>
+    <t>Biorepelente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mezcla de poliéter polisiloxano modificado, carbometoxianilina, Solventes y Auxiliares.</t>
+  </si>
+  <si>
+    <t>Granos: Maiz, sorgo, cebada, arroz, trigo, avena</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 a 2 L/ha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7 a 14 días.</t>
+  </si>
+  <si>
+    <t>Efecto:  Repelente de pájaros</t>
+  </si>
+  <si>
+    <t>/fichasTecnica/ProActiv.pdf</t>
+  </si>
+  <si>
+    <t>/hojasSeguridad/ProActiv.pdf</t>
+  </si>
+  <si>
+    <t>/FotosProducto/ProActiv.png</t>
+  </si>
+  <si>
+    <t>/FotosCatalogo/ProActiv.png</t>
+  </si>
+  <si>
+    <t>Efecto: Moho gris (Botrytis cinerea), Tizón del tallo y vainas (Diaporthe phaseolorum), Antracnosis (Colletotrichum lindemuthianum), Mancha ojo de rana (Cercospora sojina), Moho gris (Botrytis cinerea), Tizón del tallo y vainas (Diaporthe phaseolorum var. Sojae), Antracnosis (Ascochyta spp), Mancha de la hoja (Cercospora personata, Cercospora arachidicola), Moho gris (Botrytis spp), Mancha foliar (Cercospora spp, Phomosis spp, Ascochyta chrysanthemi, Septoria chrysanthemi) Mancha negra (Diplocarpon rosae) Cenicilla (Sphaerotheca spp) Pudrición del cuello, Damping-off, Pudrición radical (Rhizoctonia spp, Fusarium spp, Sclerotinia spp) Pudrición de corteza (Thielaviopsis spp), Antracnosis (Colletotrichum gloesporioides), Pudrición de raíz y cuello (Fusarium oxysporum).</t>
+  </si>
+  <si>
+    <t>24 x 250 g, 10 x 1 Kg</t>
+  </si>
+  <si>
+    <t>12 x 1 Kg, 30 x 300 g</t>
+  </si>
+  <si>
+    <t>Bactericidad-Fungicida</t>
+  </si>
+  <si>
+    <t>Spectrum Meta A</t>
+  </si>
+  <si>
+    <t>Spectrum Bea B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2303,6 +2345,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2328,11 +2376,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2351,8 +2401,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{039F2443-4A42-41F6-B793-1C636E0B9CE7}" name="Tabla1" displayName="Tabla1" ref="A1:S70" totalsRowShown="0">
-  <autoFilter ref="A1:S70" xr:uid="{039F2443-4A42-41F6-B793-1C636E0B9CE7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{039F2443-4A42-41F6-B793-1C636E0B9CE7}" name="Tabla1" displayName="Tabla1" ref="A1:S71" totalsRowShown="0">
+  <autoFilter ref="A1:S71" xr:uid="{039F2443-4A42-41F6-B793-1C636E0B9CE7}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{1D0C60E3-6557-491A-AE4F-CBA7353FECAA}" name="id"/>
     <tableColumn id="2" xr3:uid="{6B345D3D-0185-4CB6-B44E-FB434CCC9F06}" name="nombre"/>
@@ -2677,14 +2727,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0E1118-D316-435A-B988-9132BD77089D}">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.28515625" customWidth="1"/>
@@ -2706,7 +2756,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2768,49 +2818,49 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>572</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>435</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
-        <v>562</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>578</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -2818,49 +2868,49 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
-        <v>572</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
+        <v>505</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="K3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
-        <v>647</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>579</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -2868,49 +2918,49 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G4" t="s">
+        <v>507</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="K4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="L4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="G4" t="s">
-        <v>649</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="M4" t="s">
         <v>39</v>
       </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" t="s">
-        <v>43</v>
-      </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S4" t="s">
-        <v>580</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -2918,49 +2968,49 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>638</v>
+      </c>
+      <c r="C5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>510</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C5" t="s">
-        <v>572</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>652</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="M5" t="s">
         <v>47</v>
       </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" t="s">
-        <v>52</v>
-      </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S5" t="s">
-        <v>581</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -2968,49 +3018,49 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>639</v>
       </c>
       <c r="C6" t="s">
-        <v>572</v>
+        <v>439</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>625</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="G6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
       </c>
-      <c r="H6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M6" t="s">
-        <v>61</v>
-      </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S6" t="s">
-        <v>582</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -3018,49 +3068,49 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>640</v>
+      </c>
+      <c r="C7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" t="s">
         <v>62</v>
       </c>
-      <c r="C7" t="s">
-        <v>572</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="M7" t="s">
         <v>63</v>
       </c>
-      <c r="F7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" t="s">
-        <v>70</v>
-      </c>
       <c r="N7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S7" t="s">
-        <v>583</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -3068,49 +3118,49 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>641</v>
+      </c>
+      <c r="C8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" t="s">
         <v>71</v>
       </c>
-      <c r="C8" t="s">
-        <v>572</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="M8" t="s">
         <v>72</v>
       </c>
-      <c r="F8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" t="s">
-        <v>80</v>
-      </c>
       <c r="N8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S8" t="s">
-        <v>584</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -3118,49 +3168,49 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>642</v>
       </c>
       <c r="C9" t="s">
-        <v>572</v>
+        <v>439</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>626</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>627</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>628</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>629</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>630</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>631</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S9" t="s">
-        <v>585</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -3168,49 +3218,49 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>643</v>
       </c>
       <c r="C10" t="s">
-        <v>572</v>
+        <v>439</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="M10" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="N10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S10" t="s">
-        <v>586</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -3218,49 +3268,49 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>572</v>
+        <v>439</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>632</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="M11" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S11" t="s">
-        <v>587</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -3268,49 +3318,49 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>644</v>
       </c>
       <c r="C12" t="s">
-        <v>572</v>
+        <v>439</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>633</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="H12" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="M12" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="N12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S12" t="s">
-        <v>588</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -3318,49 +3368,49 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>645</v>
       </c>
       <c r="C13" t="s">
-        <v>572</v>
+        <v>439</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="H13" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="M13" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="N13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S13" t="s">
-        <v>589</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -3368,49 +3418,49 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>602</v>
       </c>
       <c r="C14" t="s">
-        <v>572</v>
+        <v>439</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="M14" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="N14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S14" t="s">
-        <v>590</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -3418,49 +3468,49 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>285</v>
+        <v>763</v>
       </c>
       <c r="C15" t="s">
-        <v>572</v>
+        <v>439</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>443</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="G15" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H15" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>654</v>
+        <v>119</v>
+      </c>
+      <c r="J15" t="s">
+        <v>120</v>
       </c>
       <c r="K15" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="L15" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="M15" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="N15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S15" t="s">
-        <v>591</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -3468,49 +3518,49 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>764</v>
       </c>
       <c r="C16" t="s">
-        <v>572</v>
+        <v>439</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>443</v>
       </c>
       <c r="E16" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="G16" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="H16" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="K16" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="M16" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="N16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S16" t="s">
-        <v>592</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -3518,49 +3568,49 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>286</v>
+        <v>603</v>
       </c>
       <c r="C17" t="s">
-        <v>572</v>
+        <v>439</v>
       </c>
       <c r="D17" t="s">
-        <v>576</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="G17" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="J17" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="L17" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="M17" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="N17" t="s">
-        <v>24</v>
+        <v>634</v>
       </c>
       <c r="O17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S17" t="s">
-        <v>594</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -3568,49 +3618,49 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>287</v>
+        <v>646</v>
       </c>
       <c r="C18" t="s">
-        <v>572</v>
+        <v>439</v>
       </c>
       <c r="D18" t="s">
-        <v>576</v>
+        <v>151</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>512</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G18" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="H18" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="J18" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="M18" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="N18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S18" t="s">
-        <v>593</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -3618,99 +3668,99 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="C19" t="s">
-        <v>572</v>
+        <v>439</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E19" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>664</v>
       </c>
       <c r="G19" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="H19" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>513</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="L19" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="M19" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="N19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S19" t="s">
-        <v>595</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>183</v>
+      <c r="B20" s="2" t="s">
+        <v>665</v>
       </c>
       <c r="C20" t="s">
-        <v>572</v>
+        <v>439</v>
       </c>
       <c r="D20" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>666</v>
       </c>
       <c r="G20" t="s">
-        <v>186</v>
+        <v>667</v>
       </c>
       <c r="H20" t="s">
-        <v>187</v>
+        <v>668</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>669</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>670</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>671</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>672</v>
       </c>
       <c r="M20" t="s">
-        <v>192</v>
+        <v>673</v>
       </c>
       <c r="N20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S20" t="s">
-        <v>596</v>
+        <v>674</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -3718,49 +3768,49 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>193</v>
+        <v>604</v>
       </c>
       <c r="C21" t="s">
-        <v>572</v>
+        <v>439</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="E21" t="s">
-        <v>655</v>
+        <v>161</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="H21" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="I21" t="s">
-        <v>197</v>
+        <v>514</v>
       </c>
       <c r="J21" t="s">
-        <v>198</v>
+        <v>675</v>
       </c>
       <c r="K21" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="L21" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="M21" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="N21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S21" t="s">
-        <v>597</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -3768,49 +3818,49 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>647</v>
       </c>
       <c r="C22" t="s">
-        <v>572</v>
+        <v>439</v>
       </c>
       <c r="D22" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="E22" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="G22" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="H22" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="I22" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="J22" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="K22" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="M22" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="N22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S22" t="s">
-        <v>598</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -3818,49 +3868,46 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>288</v>
+        <v>605</v>
       </c>
       <c r="C23" t="s">
-        <v>572</v>
+        <v>440</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="E23" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="F23" t="s">
-        <v>214</v>
+        <v>515</v>
       </c>
       <c r="G23" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="H23" t="s">
-        <v>216</v>
-      </c>
-      <c r="I23" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="J23" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="L23" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="M23" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="N23" t="s">
-        <v>24</v>
+        <v>676</v>
       </c>
       <c r="O23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S23" t="s">
-        <v>599</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -3868,99 +3915,99 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>289</v>
+        <v>606</v>
       </c>
       <c r="C24" t="s">
-        <v>572</v>
+        <v>440</v>
       </c>
       <c r="D24" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E24" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="F24" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="G24" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="H24" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="I24" t="s">
-        <v>656</v>
+        <v>188</v>
       </c>
       <c r="J24" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="K24" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="M24" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="N24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>290</v>
+        <v>648</v>
       </c>
       <c r="C25" t="s">
-        <v>572</v>
+        <v>440</v>
       </c>
       <c r="D25" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="E25" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="F25" t="s">
-        <v>232</v>
+        <v>516</v>
       </c>
       <c r="G25" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="H25" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="I25" t="s">
-        <v>657</v>
-      </c>
-      <c r="J25" t="s">
-        <v>234</v>
+        <v>197</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="K25" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="M25" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="N25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S25" t="s">
-        <v>601</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -3968,49 +4015,49 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>238</v>
+        <v>607</v>
       </c>
       <c r="C26" t="s">
-        <v>572</v>
+        <v>440</v>
       </c>
       <c r="D26" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="E26" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="F26" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="G26" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="H26" t="s">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="I26" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="J26" t="s">
-        <v>244</v>
+        <v>518</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="L26" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="M26" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="N26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S26" t="s">
-        <v>602</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -4018,46 +4065,49 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>291</v>
+        <v>649</v>
       </c>
       <c r="C27" t="s">
-        <v>573</v>
+        <v>440</v>
       </c>
       <c r="D27" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="E27" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="F27" t="s">
-        <v>658</v>
+        <v>211</v>
       </c>
       <c r="G27" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="H27" t="s">
-        <v>251</v>
+        <v>212</v>
+      </c>
+      <c r="I27" t="s">
+        <v>213</v>
       </c>
       <c r="J27" t="s">
-        <v>252</v>
+        <v>519</v>
       </c>
       <c r="K27" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="M27" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="N27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>603</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -4065,99 +4115,99 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>256</v>
+        <v>650</v>
       </c>
       <c r="C28" t="s">
-        <v>573</v>
+        <v>440</v>
       </c>
       <c r="D28" t="s">
-        <v>267</v>
+        <v>193</v>
       </c>
       <c r="E28" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="F28" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="G28" t="s">
-        <v>259</v>
+        <v>520</v>
       </c>
       <c r="H28" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="I28" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="J28" t="s">
-        <v>262</v>
+        <v>677</v>
       </c>
       <c r="K28" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="L28" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="M28" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="N28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S28" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>266</v>
+        <v>608</v>
       </c>
       <c r="C29" t="s">
-        <v>573</v>
+        <v>440</v>
       </c>
       <c r="D29" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="E29" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="F29" t="s">
-        <v>659</v>
+        <v>224</v>
       </c>
       <c r="G29" t="s">
-        <v>269</v>
+        <v>521</v>
       </c>
       <c r="H29" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="I29" t="s">
-        <v>271</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>660</v>
+        <v>522</v>
+      </c>
+      <c r="J29" t="s">
+        <v>523</v>
       </c>
       <c r="K29" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="L29" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="M29" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="N29" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="O29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S29" t="s">
-        <v>605</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -4165,49 +4215,49 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="C30" t="s">
-        <v>573</v>
+        <v>440</v>
       </c>
       <c r="D30" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="E30" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="F30" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="G30" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="H30" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="I30" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="J30" t="s">
-        <v>661</v>
+        <v>524</v>
       </c>
       <c r="K30" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="L30" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="M30" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="N30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S30" t="s">
-        <v>606</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -4215,49 +4265,49 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>292</v>
+        <v>609</v>
       </c>
       <c r="C31" t="s">
-        <v>573</v>
+        <v>440</v>
       </c>
       <c r="D31" t="s">
-        <v>267</v>
+        <v>193</v>
       </c>
       <c r="E31" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="F31" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="G31" t="s">
-        <v>297</v>
+        <v>525</v>
       </c>
       <c r="H31" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="I31" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="J31" t="s">
-        <v>662</v>
+        <v>526</v>
       </c>
       <c r="K31" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="M31" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="N31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S31" t="s">
-        <v>607</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -4265,49 +4315,49 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>301</v>
+        <v>610</v>
       </c>
       <c r="C32" t="s">
-        <v>573</v>
+        <v>440</v>
       </c>
       <c r="D32" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="E32" t="s">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="F32" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="G32" t="s">
-        <v>663</v>
+        <v>527</v>
       </c>
       <c r="H32" t="s">
-        <v>303</v>
+        <v>528</v>
       </c>
       <c r="I32" t="s">
-        <v>304</v>
+        <v>188</v>
       </c>
       <c r="J32" t="s">
-        <v>664</v>
+        <v>529</v>
       </c>
       <c r="K32" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="L32" t="s">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="M32" t="s">
-        <v>307</v>
+        <v>248</v>
       </c>
       <c r="N32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S32" t="s">
-        <v>608</v>
+        <v>473</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -4315,49 +4365,49 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>308</v>
+        <v>611</v>
       </c>
       <c r="C33" t="s">
-        <v>573</v>
+        <v>440</v>
       </c>
       <c r="D33" t="s">
-        <v>315</v>
+        <v>253</v>
       </c>
       <c r="E33" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="F33" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="G33" t="s">
-        <v>665</v>
+        <v>530</v>
       </c>
       <c r="H33" t="s">
-        <v>310</v>
+        <v>531</v>
       </c>
       <c r="I33" t="s">
-        <v>666</v>
+        <v>532</v>
       </c>
       <c r="J33" t="s">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="K33" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="L33" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="M33" t="s">
-        <v>313</v>
+        <v>252</v>
       </c>
       <c r="N33" t="s">
-        <v>314</v>
+        <v>23</v>
       </c>
       <c r="O33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S33" t="s">
-        <v>609</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -4365,49 +4415,49 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>316</v>
+        <v>612</v>
       </c>
       <c r="C34" t="s">
-        <v>573</v>
+        <v>440</v>
       </c>
       <c r="D34" t="s">
-        <v>315</v>
+        <v>257</v>
       </c>
       <c r="E34" t="s">
-        <v>317</v>
+        <v>258</v>
       </c>
       <c r="F34" t="s">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="G34" t="s">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="H34" t="s">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="I34" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J34" t="s">
-        <v>668</v>
+        <v>534</v>
       </c>
       <c r="K34" t="s">
-        <v>321</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s">
-        <v>322</v>
+        <v>264</v>
       </c>
       <c r="M34" t="s">
-        <v>323</v>
+        <v>265</v>
       </c>
       <c r="N34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S34" t="s">
-        <v>610</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -4415,49 +4465,49 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>331</v>
+        <v>613</v>
       </c>
       <c r="C35" t="s">
-        <v>573</v>
+        <v>440</v>
       </c>
       <c r="D35" t="s">
+        <v>257</v>
+      </c>
+      <c r="E35" t="s">
+        <v>266</v>
+      </c>
+      <c r="F35" t="s">
         <v>267</v>
       </c>
-      <c r="E35" t="s">
-        <v>324</v>
-      </c>
-      <c r="F35" t="s">
-        <v>325</v>
-      </c>
       <c r="G35" t="s">
-        <v>669</v>
+        <v>268</v>
       </c>
       <c r="H35" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="I35" t="s">
-        <v>327</v>
+        <v>678</v>
       </c>
       <c r="J35" t="s">
-        <v>670</v>
+        <v>535</v>
       </c>
       <c r="K35" t="s">
-        <v>328</v>
+        <v>270</v>
       </c>
       <c r="L35" t="s">
-        <v>329</v>
+        <v>271</v>
       </c>
       <c r="M35" t="s">
-        <v>330</v>
+        <v>272</v>
       </c>
       <c r="N35" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="O35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S35" t="s">
-        <v>611</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -4465,343 +4515,349 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>332</v>
+        <v>614</v>
       </c>
       <c r="C36" t="s">
-        <v>573</v>
+        <v>440</v>
       </c>
       <c r="D36" t="s">
-        <v>342</v>
+        <v>273</v>
       </c>
       <c r="E36" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="F36" t="s">
-        <v>344</v>
+        <v>275</v>
       </c>
       <c r="G36" t="s">
-        <v>671</v>
+        <v>276</v>
       </c>
       <c r="H36" t="s">
-        <v>672</v>
+        <v>277</v>
       </c>
       <c r="I36" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="J36" t="s">
-        <v>673</v>
+        <v>536</v>
       </c>
       <c r="K36" t="s">
-        <v>333</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s">
-        <v>334</v>
+        <v>280</v>
       </c>
       <c r="M36" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="N36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S36" t="s">
-        <v>612</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>340</v>
-      </c>
-      <c r="C37" t="s">
-        <v>573</v>
+      <c r="B37" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>440</v>
       </c>
       <c r="D37" t="s">
-        <v>341</v>
+        <v>680</v>
       </c>
       <c r="E37" t="s">
-        <v>336</v>
+        <v>679</v>
       </c>
       <c r="F37" t="s">
-        <v>343</v>
+        <v>681</v>
       </c>
       <c r="G37" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="H37" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="I37" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="J37" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
       <c r="K37" t="s">
-        <v>337</v>
+        <v>685</v>
       </c>
       <c r="L37" t="s">
-        <v>338</v>
+        <v>686</v>
       </c>
       <c r="M37" t="s">
-        <v>339</v>
+        <v>687</v>
       </c>
       <c r="N37" t="s">
-        <v>24</v>
+        <v>688</v>
       </c>
       <c r="O37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S37" t="s">
-        <v>613</v>
+        <v>689</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>345</v>
+      <c r="B38" s="2" t="s">
+        <v>652</v>
       </c>
       <c r="C38" t="s">
-        <v>573</v>
+        <v>440</v>
       </c>
       <c r="D38" t="s">
-        <v>346</v>
+        <v>680</v>
       </c>
       <c r="E38" t="s">
-        <v>347</v>
+        <v>690</v>
       </c>
       <c r="F38" t="s">
-        <v>348</v>
+        <v>691</v>
       </c>
       <c r="G38" t="s">
-        <v>349</v>
+        <v>692</v>
       </c>
       <c r="H38" t="s">
-        <v>350</v>
+        <v>693</v>
       </c>
       <c r="I38" t="s">
-        <v>351</v>
+        <v>694</v>
       </c>
       <c r="J38" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
       <c r="K38" t="s">
-        <v>352</v>
+        <v>697</v>
       </c>
       <c r="L38" t="s">
-        <v>353</v>
+        <v>698</v>
       </c>
       <c r="M38" t="s">
-        <v>354</v>
+        <v>699</v>
       </c>
       <c r="N38" t="s">
-        <v>24</v>
+        <v>688</v>
       </c>
       <c r="O38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S38" t="s">
-        <v>614</v>
+        <v>700</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>355</v>
+      <c r="B39" s="2" t="s">
+        <v>653</v>
       </c>
       <c r="C39" t="s">
-        <v>573</v>
+        <v>440</v>
       </c>
       <c r="D39" t="s">
-        <v>346</v>
+        <v>680</v>
       </c>
       <c r="E39" t="s">
-        <v>356</v>
+        <v>701</v>
       </c>
       <c r="F39" t="s">
-        <v>357</v>
+        <v>702</v>
       </c>
       <c r="G39" t="s">
-        <v>358</v>
+        <v>703</v>
       </c>
       <c r="H39" t="s">
-        <v>359</v>
+        <v>704</v>
       </c>
       <c r="I39" t="s">
-        <v>360</v>
+        <v>705</v>
       </c>
       <c r="J39" t="s">
-        <v>679</v>
+        <v>706</v>
       </c>
       <c r="K39" t="s">
-        <v>361</v>
+        <v>707</v>
       </c>
       <c r="L39" t="s">
-        <v>362</v>
+        <v>708</v>
       </c>
       <c r="M39" t="s">
-        <v>363</v>
+        <v>709</v>
       </c>
       <c r="N39" t="s">
-        <v>314</v>
+        <v>710</v>
       </c>
       <c r="O39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S39" t="s">
-        <v>615</v>
+        <v>711</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>364</v>
+      <c r="B40" s="2" t="s">
+        <v>654</v>
       </c>
       <c r="C40" t="s">
-        <v>573</v>
+        <v>440</v>
       </c>
       <c r="D40" t="s">
-        <v>365</v>
+        <v>680</v>
       </c>
       <c r="E40" t="s">
-        <v>366</v>
+        <v>712</v>
       </c>
       <c r="F40" t="s">
-        <v>367</v>
+        <v>713</v>
       </c>
       <c r="G40" t="s">
-        <v>368</v>
+        <v>714</v>
       </c>
       <c r="H40" t="s">
-        <v>369</v>
+        <v>715</v>
       </c>
       <c r="I40" t="s">
-        <v>370</v>
+        <v>716</v>
       </c>
       <c r="J40" t="s">
-        <v>680</v>
+        <v>717</v>
       </c>
       <c r="K40" t="s">
-        <v>371</v>
+        <v>718</v>
       </c>
       <c r="L40" t="s">
-        <v>372</v>
+        <v>719</v>
       </c>
       <c r="M40" t="s">
-        <v>373</v>
+        <v>720</v>
       </c>
       <c r="N40" t="s">
-        <v>24</v>
+        <v>688</v>
       </c>
       <c r="O40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S40" t="s">
-        <v>616</v>
+        <v>721</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>374</v>
+      <c r="B41" s="2" t="s">
+        <v>655</v>
       </c>
       <c r="C41" t="s">
-        <v>574</v>
+        <v>440</v>
       </c>
       <c r="D41" t="s">
-        <v>375</v>
+        <v>680</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>722</v>
       </c>
       <c r="F41" t="s">
-        <v>376</v>
+        <v>723</v>
       </c>
       <c r="G41" t="s">
-        <v>377</v>
+        <v>724</v>
       </c>
       <c r="H41" t="s">
-        <v>378</v>
+        <v>725</v>
+      </c>
+      <c r="I41" t="s">
+        <v>726</v>
       </c>
       <c r="J41" t="s">
-        <v>681</v>
+        <v>727</v>
       </c>
       <c r="K41" t="s">
-        <v>379</v>
+        <v>728</v>
       </c>
       <c r="L41" t="s">
-        <v>380</v>
+        <v>729</v>
       </c>
       <c r="M41" t="s">
-        <v>381</v>
+        <v>730</v>
       </c>
       <c r="N41" t="s">
-        <v>24</v>
+        <v>688</v>
       </c>
       <c r="O41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S41" t="s">
-        <v>617</v>
+        <v>731</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>382</v>
+      <c r="B42" s="2" t="s">
+        <v>656</v>
       </c>
       <c r="C42" t="s">
-        <v>574</v>
+        <v>440</v>
       </c>
       <c r="D42" t="s">
-        <v>375</v>
+        <v>680</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
+        <v>732</v>
       </c>
       <c r="F42" t="s">
-        <v>383</v>
+        <v>733</v>
       </c>
       <c r="G42" t="s">
-        <v>682</v>
+        <v>734</v>
       </c>
       <c r="H42" t="s">
-        <v>384</v>
+        <v>735</v>
+      </c>
+      <c r="I42" t="s">
+        <v>736</v>
       </c>
       <c r="J42" t="s">
-        <v>683</v>
+        <v>737</v>
       </c>
       <c r="K42" t="s">
-        <v>385</v>
+        <v>738</v>
       </c>
       <c r="L42" t="s">
-        <v>386</v>
+        <v>739</v>
       </c>
       <c r="M42" t="s">
-        <v>387</v>
+        <v>740</v>
       </c>
       <c r="N42" t="s">
-        <v>24</v>
+        <v>688</v>
       </c>
       <c r="O42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S42" t="s">
-        <v>618</v>
+        <v>741</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -4809,43 +4865,46 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>388</v>
+        <v>282</v>
       </c>
       <c r="C43" t="s">
-        <v>574</v>
+        <v>441</v>
       </c>
       <c r="D43" t="s">
-        <v>375</v>
+        <v>742</v>
+      </c>
+      <c r="E43" t="s">
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>684</v>
+        <v>283</v>
       </c>
       <c r="G43" t="s">
-        <v>685</v>
+        <v>537</v>
       </c>
       <c r="H43" t="s">
-        <v>686</v>
+        <v>284</v>
       </c>
       <c r="J43" t="s">
-        <v>687</v>
+        <v>538</v>
       </c>
       <c r="K43" t="s">
-        <v>389</v>
+        <v>285</v>
       </c>
       <c r="L43" t="s">
-        <v>390</v>
+        <v>286</v>
       </c>
       <c r="M43" t="s">
-        <v>391</v>
+        <v>287</v>
       </c>
       <c r="N43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S43" t="s">
-        <v>619</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -4853,43 +4912,43 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>392</v>
+        <v>615</v>
       </c>
       <c r="C44" t="s">
-        <v>574</v>
+        <v>441</v>
       </c>
       <c r="D44" t="s">
-        <v>375</v>
+        <v>743</v>
       </c>
       <c r="F44" t="s">
-        <v>688</v>
+        <v>539</v>
       </c>
       <c r="G44" t="s">
-        <v>689</v>
+        <v>540</v>
       </c>
       <c r="H44" t="s">
-        <v>393</v>
+        <v>541</v>
       </c>
       <c r="J44" t="s">
-        <v>690</v>
+        <v>542</v>
       </c>
       <c r="K44" t="s">
-        <v>394</v>
+        <v>288</v>
       </c>
       <c r="L44" t="s">
-        <v>395</v>
+        <v>289</v>
       </c>
       <c r="M44" t="s">
-        <v>396</v>
+        <v>290</v>
       </c>
       <c r="N44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S44" t="s">
-        <v>620</v>
+        <v>479</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -4897,43 +4956,43 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>397</v>
+        <v>616</v>
       </c>
       <c r="C45" t="s">
-        <v>574</v>
+        <v>441</v>
       </c>
       <c r="D45" t="s">
-        <v>375</v>
+        <v>744</v>
       </c>
       <c r="F45" t="s">
-        <v>691</v>
+        <v>543</v>
       </c>
       <c r="G45" t="s">
-        <v>692</v>
+        <v>544</v>
       </c>
       <c r="H45" t="s">
-        <v>398</v>
+        <v>291</v>
       </c>
       <c r="J45" t="s">
-        <v>693</v>
+        <v>545</v>
       </c>
       <c r="K45" t="s">
-        <v>399</v>
+        <v>292</v>
       </c>
       <c r="L45" t="s">
-        <v>400</v>
+        <v>293</v>
       </c>
       <c r="M45" t="s">
-        <v>401</v>
+        <v>294</v>
       </c>
       <c r="N45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S45" t="s">
-        <v>621</v>
+        <v>480</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -4941,43 +5000,43 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>402</v>
+        <v>657</v>
       </c>
       <c r="C46" t="s">
-        <v>574</v>
+        <v>441</v>
       </c>
       <c r="D46" t="s">
-        <v>375</v>
+        <v>745</v>
       </c>
       <c r="F46" t="s">
-        <v>403</v>
+        <v>546</v>
       </c>
       <c r="G46" t="s">
-        <v>694</v>
+        <v>547</v>
       </c>
       <c r="H46" t="s">
-        <v>404</v>
+        <v>295</v>
       </c>
       <c r="J46" t="s">
-        <v>695</v>
+        <v>548</v>
       </c>
       <c r="K46" t="s">
-        <v>405</v>
+        <v>296</v>
       </c>
       <c r="L46" t="s">
-        <v>406</v>
+        <v>297</v>
       </c>
       <c r="M46" t="s">
-        <v>407</v>
+        <v>298</v>
       </c>
       <c r="N46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S46" t="s">
-        <v>622</v>
+        <v>481</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -4985,43 +5044,43 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>408</v>
+        <v>617</v>
       </c>
       <c r="C47" t="s">
-        <v>574</v>
+        <v>441</v>
       </c>
       <c r="D47" t="s">
-        <v>375</v>
+        <v>744</v>
       </c>
       <c r="F47" t="s">
-        <v>409</v>
+        <v>299</v>
       </c>
       <c r="G47" t="s">
-        <v>692</v>
+        <v>549</v>
       </c>
       <c r="H47" t="s">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="J47" t="s">
-        <v>696</v>
+        <v>550</v>
       </c>
       <c r="K47" t="s">
-        <v>411</v>
+        <v>301</v>
       </c>
       <c r="L47" t="s">
-        <v>412</v>
+        <v>302</v>
       </c>
       <c r="M47" t="s">
-        <v>413</v>
+        <v>303</v>
       </c>
       <c r="N47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S47" t="s">
-        <v>623</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -5029,43 +5088,43 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>414</v>
+        <v>618</v>
       </c>
       <c r="C48" t="s">
-        <v>574</v>
+        <v>441</v>
       </c>
       <c r="D48" t="s">
-        <v>375</v>
+        <v>746</v>
       </c>
       <c r="F48" t="s">
-        <v>415</v>
+        <v>304</v>
       </c>
       <c r="G48" t="s">
-        <v>697</v>
+        <v>547</v>
       </c>
       <c r="H48" t="s">
-        <v>416</v>
+        <v>305</v>
       </c>
       <c r="J48" t="s">
-        <v>698</v>
+        <v>551</v>
       </c>
       <c r="K48" t="s">
-        <v>417</v>
+        <v>306</v>
       </c>
       <c r="L48" t="s">
-        <v>418</v>
+        <v>307</v>
       </c>
       <c r="M48" t="s">
-        <v>419</v>
+        <v>308</v>
       </c>
       <c r="N48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S48" t="s">
-        <v>624</v>
+        <v>483</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -5073,49 +5132,43 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>420</v>
+        <v>619</v>
       </c>
       <c r="C49" t="s">
-        <v>574</v>
+        <v>441</v>
       </c>
       <c r="D49" t="s">
-        <v>375</v>
-      </c>
-      <c r="E49" t="s">
-        <v>563</v>
+        <v>747</v>
       </c>
       <c r="F49" t="s">
-        <v>564</v>
+        <v>309</v>
       </c>
       <c r="G49" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="H49" t="s">
-        <v>565</v>
-      </c>
-      <c r="I49" t="s">
-        <v>566</v>
+        <v>310</v>
       </c>
       <c r="J49" t="s">
-        <v>699</v>
+        <v>553</v>
       </c>
       <c r="K49" t="s">
-        <v>421</v>
+        <v>311</v>
       </c>
       <c r="L49" t="s">
-        <v>422</v>
+        <v>312</v>
       </c>
       <c r="M49" t="s">
-        <v>423</v>
+        <v>313</v>
       </c>
       <c r="N49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S49" t="s">
-        <v>625</v>
+        <v>484</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -5123,99 +5176,99 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>424</v>
+        <v>620</v>
       </c>
       <c r="C50" t="s">
-        <v>574</v>
+        <v>441</v>
       </c>
       <c r="D50" t="s">
-        <v>375</v>
+        <v>748</v>
       </c>
       <c r="E50" t="s">
-        <v>563</v>
+        <v>436</v>
       </c>
       <c r="F50" t="s">
-        <v>568</v>
+        <v>437</v>
       </c>
       <c r="G50" t="s">
-        <v>425</v>
+        <v>314</v>
       </c>
       <c r="H50" t="s">
-        <v>569</v>
+        <v>438</v>
       </c>
       <c r="I50" t="s">
-        <v>426</v>
+        <v>315</v>
       </c>
       <c r="J50" t="s">
-        <v>700</v>
+        <v>554</v>
       </c>
       <c r="K50" t="s">
-        <v>427</v>
+        <v>316</v>
       </c>
       <c r="L50" t="s">
-        <v>428</v>
+        <v>317</v>
       </c>
       <c r="M50" t="s">
-        <v>429</v>
+        <v>318</v>
       </c>
       <c r="N50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S50" t="s">
-        <v>626</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>430</v>
+      <c r="B51" s="2" t="s">
+        <v>658</v>
       </c>
       <c r="C51" t="s">
-        <v>574</v>
+        <v>441</v>
       </c>
       <c r="D51" t="s">
-        <v>577</v>
+        <v>749</v>
       </c>
       <c r="E51" t="s">
-        <v>563</v>
+        <v>436</v>
       </c>
       <c r="F51" t="s">
-        <v>570</v>
+        <v>750</v>
       </c>
       <c r="G51" t="s">
-        <v>571</v>
+        <v>751</v>
       </c>
       <c r="H51" t="s">
-        <v>303</v>
+        <v>752</v>
       </c>
       <c r="I51" t="s">
-        <v>261</v>
+        <v>753</v>
       </c>
       <c r="J51" t="s">
-        <v>701</v>
+        <v>754</v>
       </c>
       <c r="K51" t="s">
-        <v>431</v>
+        <v>755</v>
       </c>
       <c r="L51" t="s">
-        <v>432</v>
+        <v>756</v>
       </c>
       <c r="M51" t="s">
-        <v>433</v>
+        <v>757</v>
       </c>
       <c r="N51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S51" t="s">
-        <v>627</v>
+        <v>758</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -5223,43 +5276,43 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>434</v>
+        <v>319</v>
       </c>
       <c r="C52" t="s">
-        <v>574</v>
+        <v>441</v>
       </c>
       <c r="D52" t="s">
-        <v>435</v>
+        <v>320</v>
       </c>
       <c r="F52" t="s">
-        <v>436</v>
+        <v>321</v>
       </c>
       <c r="G52" t="s">
-        <v>702</v>
+        <v>555</v>
       </c>
       <c r="H52" t="s">
-        <v>437</v>
+        <v>322</v>
       </c>
       <c r="J52" t="s">
-        <v>703</v>
+        <v>556</v>
       </c>
       <c r="K52" t="s">
-        <v>438</v>
+        <v>323</v>
       </c>
       <c r="L52" t="s">
-        <v>439</v>
+        <v>324</v>
       </c>
       <c r="M52" t="s">
-        <v>440</v>
+        <v>325</v>
       </c>
       <c r="N52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S52" t="s">
-        <v>628</v>
+        <v>486</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
@@ -5267,43 +5320,43 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>326</v>
+      </c>
+      <c r="C53" t="s">
         <v>441</v>
       </c>
-      <c r="C53" t="s">
-        <v>574</v>
-      </c>
       <c r="D53" t="s">
-        <v>435</v>
+        <v>320</v>
       </c>
       <c r="F53" t="s">
-        <v>442</v>
+        <v>327</v>
       </c>
       <c r="G53" t="s">
-        <v>704</v>
+        <v>557</v>
       </c>
       <c r="H53" t="s">
-        <v>443</v>
+        <v>328</v>
       </c>
       <c r="J53" t="s">
-        <v>705</v>
+        <v>558</v>
       </c>
       <c r="K53" t="s">
-        <v>444</v>
+        <v>329</v>
       </c>
       <c r="L53" t="s">
-        <v>445</v>
+        <v>330</v>
       </c>
       <c r="M53" t="s">
-        <v>446</v>
+        <v>331</v>
       </c>
       <c r="N53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S53" t="s">
-        <v>629</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
@@ -5311,43 +5364,43 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>447</v>
+        <v>332</v>
       </c>
       <c r="C54" t="s">
-        <v>574</v>
+        <v>441</v>
       </c>
       <c r="D54" t="s">
-        <v>435</v>
+        <v>320</v>
       </c>
       <c r="F54" t="s">
-        <v>448</v>
+        <v>333</v>
       </c>
       <c r="G54" t="s">
-        <v>706</v>
+        <v>559</v>
       </c>
       <c r="H54" t="s">
-        <v>449</v>
+        <v>334</v>
       </c>
       <c r="J54" t="s">
-        <v>707</v>
+        <v>560</v>
       </c>
       <c r="K54" t="s">
-        <v>450</v>
+        <v>335</v>
       </c>
       <c r="L54" t="s">
-        <v>451</v>
+        <v>336</v>
       </c>
       <c r="M54" t="s">
-        <v>452</v>
+        <v>337</v>
       </c>
       <c r="N54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S54" t="s">
-        <v>630</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -5355,43 +5408,43 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>453</v>
+        <v>338</v>
       </c>
       <c r="C55" t="s">
-        <v>574</v>
+        <v>441</v>
       </c>
       <c r="D55" t="s">
-        <v>435</v>
+        <v>320</v>
       </c>
       <c r="F55" t="s">
-        <v>454</v>
+        <v>339</v>
       </c>
       <c r="G55" t="s">
-        <v>708</v>
+        <v>561</v>
       </c>
       <c r="H55" t="s">
-        <v>455</v>
+        <v>340</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>709</v>
+        <v>562</v>
       </c>
       <c r="K55" t="s">
-        <v>456</v>
+        <v>341</v>
       </c>
       <c r="L55" t="s">
-        <v>457</v>
+        <v>342</v>
       </c>
       <c r="M55" t="s">
-        <v>458</v>
+        <v>343</v>
       </c>
       <c r="N55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S55" t="s">
-        <v>631</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
@@ -5399,49 +5452,46 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>459</v>
+        <v>659</v>
       </c>
       <c r="C56" t="s">
-        <v>575</v>
+        <v>442</v>
       </c>
       <c r="D56" t="s">
-        <v>460</v>
+        <v>344</v>
       </c>
       <c r="E56" t="s">
-        <v>461</v>
+        <v>345</v>
       </c>
       <c r="F56" t="s">
-        <v>462</v>
+        <v>346</v>
       </c>
       <c r="G56" t="s">
-        <v>711</v>
-      </c>
-      <c r="H56" t="s">
-        <v>712</v>
+        <v>564</v>
       </c>
       <c r="I56" t="s">
-        <v>710</v>
+        <v>563</v>
       </c>
       <c r="J56" t="s">
-        <v>713</v>
+        <v>759</v>
       </c>
       <c r="K56" t="s">
-        <v>463</v>
+        <v>347</v>
       </c>
       <c r="L56" t="s">
-        <v>464</v>
+        <v>348</v>
       </c>
       <c r="M56" t="s">
-        <v>465</v>
+        <v>349</v>
       </c>
       <c r="N56" t="s">
-        <v>24</v>
+        <v>760</v>
       </c>
       <c r="O56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S56" t="s">
-        <v>632</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -5449,49 +5499,49 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>466</v>
+        <v>660</v>
       </c>
       <c r="C57" t="s">
-        <v>575</v>
+        <v>442</v>
       </c>
       <c r="D57" t="s">
-        <v>460</v>
+        <v>344</v>
       </c>
       <c r="E57" t="s">
-        <v>467</v>
+        <v>350</v>
       </c>
       <c r="F57" t="s">
-        <v>468</v>
+        <v>351</v>
       </c>
       <c r="G57" t="s">
-        <v>714</v>
+        <v>565</v>
       </c>
       <c r="H57" t="s">
-        <v>715</v>
+        <v>566</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>716</v>
+        <v>567</v>
       </c>
       <c r="J57" t="s">
-        <v>717</v>
+        <v>568</v>
       </c>
       <c r="K57" t="s">
-        <v>469</v>
+        <v>352</v>
       </c>
       <c r="L57" t="s">
-        <v>470</v>
+        <v>353</v>
       </c>
       <c r="M57" t="s">
-        <v>471</v>
+        <v>354</v>
       </c>
       <c r="N57" t="s">
-        <v>472</v>
+        <v>355</v>
       </c>
       <c r="O57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S57" t="s">
-        <v>633</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -5499,49 +5549,49 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>473</v>
+        <v>621</v>
       </c>
       <c r="C58" t="s">
-        <v>575</v>
+        <v>442</v>
       </c>
       <c r="D58" t="s">
-        <v>460</v>
+        <v>344</v>
       </c>
       <c r="E58" t="s">
-        <v>474</v>
+        <v>356</v>
       </c>
       <c r="F58" t="s">
-        <v>475</v>
+        <v>357</v>
       </c>
       <c r="G58" t="s">
-        <v>718</v>
+        <v>569</v>
       </c>
       <c r="H58" t="s">
-        <v>719</v>
+        <v>570</v>
       </c>
       <c r="I58" t="s">
-        <v>720</v>
+        <v>571</v>
       </c>
       <c r="J58" t="s">
-        <v>721</v>
+        <v>572</v>
       </c>
       <c r="K58" t="s">
-        <v>476</v>
+        <v>358</v>
       </c>
       <c r="L58" t="s">
-        <v>477</v>
+        <v>359</v>
       </c>
       <c r="M58" t="s">
-        <v>478</v>
+        <v>360</v>
       </c>
       <c r="N58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S58" t="s">
-        <v>634</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -5549,49 +5599,49 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>479</v>
+        <v>622</v>
       </c>
       <c r="C59" t="s">
-        <v>575</v>
+        <v>442</v>
       </c>
       <c r="D59" t="s">
-        <v>460</v>
+        <v>344</v>
       </c>
       <c r="E59" t="s">
-        <v>480</v>
+        <v>361</v>
       </c>
       <c r="F59" t="s">
-        <v>481</v>
+        <v>362</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>722</v>
+        <v>573</v>
       </c>
       <c r="H59" t="s">
-        <v>482</v>
+        <v>363</v>
       </c>
       <c r="I59" t="s">
-        <v>716</v>
+        <v>567</v>
       </c>
       <c r="J59" t="s">
-        <v>723</v>
+        <v>574</v>
       </c>
       <c r="K59" t="s">
-        <v>483</v>
+        <v>364</v>
       </c>
       <c r="L59" t="s">
-        <v>484</v>
+        <v>365</v>
       </c>
       <c r="M59" t="s">
-        <v>485</v>
+        <v>366</v>
       </c>
       <c r="N59" t="s">
-        <v>486</v>
+        <v>367</v>
       </c>
       <c r="O59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S59" t="s">
-        <v>635</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -5599,49 +5649,49 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>487</v>
+        <v>661</v>
       </c>
       <c r="C60" t="s">
+        <v>442</v>
+      </c>
+      <c r="D60" t="s">
+        <v>344</v>
+      </c>
+      <c r="E60" t="s">
+        <v>368</v>
+      </c>
+      <c r="F60" t="s">
+        <v>369</v>
+      </c>
+      <c r="G60" t="s">
         <v>575</v>
       </c>
-      <c r="D60" t="s">
-        <v>460</v>
-      </c>
-      <c r="E60" t="s">
-        <v>488</v>
-      </c>
-      <c r="F60" t="s">
-        <v>489</v>
-      </c>
-      <c r="G60" t="s">
-        <v>724</v>
-      </c>
       <c r="H60" t="s">
-        <v>725</v>
+        <v>576</v>
       </c>
       <c r="I60" t="s">
-        <v>726</v>
+        <v>577</v>
       </c>
       <c r="J60" t="s">
-        <v>727</v>
+        <v>578</v>
       </c>
       <c r="K60" t="s">
-        <v>490</v>
+        <v>370</v>
       </c>
       <c r="L60" t="s">
-        <v>491</v>
+        <v>371</v>
       </c>
       <c r="M60" t="s">
-        <v>492</v>
+        <v>372</v>
       </c>
       <c r="N60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S60" t="s">
-        <v>636</v>
+        <v>494</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -5649,49 +5699,49 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>493</v>
+        <v>623</v>
       </c>
       <c r="C61" t="s">
-        <v>575</v>
+        <v>442</v>
       </c>
       <c r="D61" t="s">
-        <v>460</v>
+        <v>344</v>
       </c>
       <c r="E61" t="s">
-        <v>494</v>
+        <v>373</v>
       </c>
       <c r="F61" t="s">
+        <v>374</v>
+      </c>
+      <c r="G61" t="s">
+        <v>579</v>
+      </c>
+      <c r="H61" t="s">
+        <v>580</v>
+      </c>
+      <c r="I61" t="s">
+        <v>375</v>
+      </c>
+      <c r="J61" t="s">
+        <v>581</v>
+      </c>
+      <c r="K61" t="s">
+        <v>376</v>
+      </c>
+      <c r="L61" t="s">
+        <v>377</v>
+      </c>
+      <c r="M61" t="s">
+        <v>378</v>
+      </c>
+      <c r="N61" t="s">
+        <v>23</v>
+      </c>
+      <c r="O61" t="s">
+        <v>26</v>
+      </c>
+      <c r="S61" t="s">
         <v>495</v>
-      </c>
-      <c r="G61" t="s">
-        <v>728</v>
-      </c>
-      <c r="H61" t="s">
-        <v>729</v>
-      </c>
-      <c r="I61" t="s">
-        <v>496</v>
-      </c>
-      <c r="J61" t="s">
-        <v>730</v>
-      </c>
-      <c r="K61" t="s">
-        <v>497</v>
-      </c>
-      <c r="L61" t="s">
-        <v>498</v>
-      </c>
-      <c r="M61" t="s">
-        <v>499</v>
-      </c>
-      <c r="N61" t="s">
-        <v>500</v>
-      </c>
-      <c r="O61" t="s">
-        <v>27</v>
-      </c>
-      <c r="S61" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -5699,49 +5749,49 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>501</v>
+        <v>662</v>
       </c>
       <c r="C62" t="s">
-        <v>575</v>
+        <v>442</v>
       </c>
       <c r="D62" t="s">
-        <v>460</v>
+        <v>344</v>
       </c>
       <c r="E62" t="s">
-        <v>502</v>
+        <v>379</v>
       </c>
       <c r="F62" t="s">
-        <v>503</v>
+        <v>380</v>
       </c>
       <c r="G62" t="s">
-        <v>731</v>
+        <v>582</v>
       </c>
       <c r="H62" t="s">
-        <v>732</v>
+        <v>583</v>
       </c>
       <c r="I62" t="s">
-        <v>504</v>
+        <v>381</v>
       </c>
       <c r="J62" t="s">
-        <v>733</v>
+        <v>584</v>
       </c>
       <c r="K62" t="s">
-        <v>505</v>
+        <v>382</v>
       </c>
       <c r="L62" t="s">
-        <v>506</v>
+        <v>383</v>
       </c>
       <c r="M62" t="s">
-        <v>507</v>
+        <v>384</v>
       </c>
       <c r="N62" t="s">
-        <v>508</v>
+        <v>385</v>
       </c>
       <c r="O62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S62" t="s">
-        <v>638</v>
+        <v>496</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -5749,49 +5799,49 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>509</v>
+        <v>663</v>
       </c>
       <c r="C63" t="s">
-        <v>575</v>
+        <v>442</v>
       </c>
       <c r="D63" t="s">
-        <v>460</v>
+        <v>394</v>
       </c>
       <c r="E63" t="s">
-        <v>510</v>
+        <v>386</v>
       </c>
       <c r="F63" t="s">
-        <v>511</v>
+        <v>387</v>
       </c>
       <c r="G63" t="s">
-        <v>734</v>
+        <v>585</v>
       </c>
       <c r="H63" t="s">
-        <v>512</v>
+        <v>388</v>
       </c>
       <c r="I63" t="s">
-        <v>513</v>
+        <v>389</v>
       </c>
       <c r="J63" t="s">
-        <v>735</v>
+        <v>586</v>
       </c>
       <c r="K63" t="s">
-        <v>514</v>
+        <v>390</v>
       </c>
       <c r="L63" t="s">
-        <v>515</v>
+        <v>391</v>
       </c>
       <c r="M63" t="s">
-        <v>516</v>
+        <v>392</v>
       </c>
       <c r="N63" t="s">
-        <v>500</v>
+        <v>23</v>
       </c>
       <c r="O63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S63" t="s">
-        <v>639</v>
+        <v>497</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -5799,49 +5849,49 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>517</v>
+        <v>393</v>
       </c>
       <c r="C64" t="s">
-        <v>575</v>
+        <v>442</v>
       </c>
       <c r="D64" t="s">
-        <v>518</v>
+        <v>394</v>
       </c>
       <c r="E64" t="s">
-        <v>519</v>
+        <v>395</v>
       </c>
       <c r="F64" t="s">
-        <v>520</v>
+        <v>396</v>
       </c>
       <c r="G64" t="s">
-        <v>736</v>
+        <v>587</v>
       </c>
       <c r="H64" t="s">
-        <v>521</v>
+        <v>397</v>
       </c>
       <c r="I64" t="s">
-        <v>513</v>
+        <v>389</v>
       </c>
       <c r="J64" t="s">
-        <v>737</v>
+        <v>588</v>
       </c>
       <c r="K64" t="s">
-        <v>522</v>
+        <v>398</v>
       </c>
       <c r="L64" t="s">
-        <v>523</v>
+        <v>399</v>
       </c>
       <c r="M64" t="s">
-        <v>524</v>
+        <v>400</v>
       </c>
       <c r="N64" t="s">
-        <v>525</v>
+        <v>401</v>
       </c>
       <c r="O64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S64" t="s">
-        <v>640</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -5849,49 +5899,49 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>526</v>
+        <v>408</v>
       </c>
       <c r="C65" t="s">
-        <v>575</v>
+        <v>442</v>
       </c>
       <c r="D65" t="s">
-        <v>518</v>
+        <v>394</v>
       </c>
       <c r="E65" t="s">
-        <v>527</v>
+        <v>409</v>
       </c>
       <c r="F65" t="s">
-        <v>528</v>
+        <v>410</v>
       </c>
       <c r="G65" t="s">
-        <v>736</v>
+        <v>587</v>
       </c>
       <c r="H65" t="s">
-        <v>738</v>
+        <v>592</v>
       </c>
       <c r="I65" t="s">
-        <v>739</v>
+        <v>593</v>
       </c>
       <c r="J65" t="s">
-        <v>740</v>
+        <v>594</v>
       </c>
       <c r="K65" t="s">
-        <v>529</v>
+        <v>411</v>
       </c>
       <c r="L65" t="s">
-        <v>530</v>
+        <v>412</v>
       </c>
       <c r="M65" t="s">
-        <v>531</v>
+        <v>413</v>
       </c>
       <c r="N65" t="s">
-        <v>532</v>
+        <v>634</v>
       </c>
       <c r="O65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S65" t="s">
-        <v>641</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
@@ -5899,49 +5949,49 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>533</v>
+        <v>402</v>
       </c>
       <c r="C66" t="s">
-        <v>575</v>
+        <v>442</v>
       </c>
       <c r="D66" t="s">
-        <v>518</v>
+        <v>394</v>
       </c>
       <c r="E66" t="s">
-        <v>534</v>
+        <v>403</v>
       </c>
       <c r="F66" t="s">
-        <v>535</v>
+        <v>404</v>
       </c>
       <c r="G66" t="s">
-        <v>736</v>
+        <v>587</v>
       </c>
       <c r="H66" t="s">
-        <v>741</v>
+        <v>589</v>
       </c>
       <c r="I66" t="s">
-        <v>742</v>
+        <v>590</v>
       </c>
       <c r="J66" t="s">
-        <v>743</v>
+        <v>591</v>
       </c>
       <c r="K66" t="s">
-        <v>536</v>
+        <v>405</v>
       </c>
       <c r="L66" t="s">
-        <v>537</v>
+        <v>406</v>
       </c>
       <c r="M66" t="s">
-        <v>538</v>
+        <v>407</v>
       </c>
       <c r="N66" t="s">
-        <v>539</v>
+        <v>761</v>
       </c>
       <c r="O66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S66" t="s">
-        <v>642</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -5949,46 +5999,46 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>540</v>
+        <v>624</v>
       </c>
       <c r="C67" t="s">
-        <v>575</v>
+        <v>442</v>
       </c>
       <c r="D67" t="s">
-        <v>549</v>
+        <v>762</v>
       </c>
       <c r="E67" t="s">
-        <v>541</v>
+        <v>414</v>
       </c>
       <c r="F67" t="s">
-        <v>542</v>
+        <v>415</v>
       </c>
       <c r="G67" t="s">
-        <v>744</v>
+        <v>595</v>
       </c>
       <c r="H67" t="s">
-        <v>543</v>
+        <v>416</v>
       </c>
       <c r="J67" t="s">
-        <v>745</v>
+        <v>596</v>
       </c>
       <c r="K67" t="s">
-        <v>544</v>
+        <v>417</v>
       </c>
       <c r="L67" t="s">
-        <v>545</v>
+        <v>418</v>
       </c>
       <c r="M67" t="s">
-        <v>546</v>
+        <v>419</v>
       </c>
       <c r="N67" t="s">
-        <v>547</v>
+        <v>420</v>
       </c>
       <c r="O67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S67" t="s">
-        <v>643</v>
+        <v>501</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
@@ -5996,46 +6046,46 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>548</v>
+        <v>421</v>
       </c>
       <c r="C68" t="s">
-        <v>575</v>
+        <v>442</v>
       </c>
       <c r="D68" t="s">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="E68" t="s">
-        <v>550</v>
+        <v>423</v>
       </c>
       <c r="F68" t="s">
-        <v>551</v>
+        <v>424</v>
       </c>
       <c r="G68" t="s">
-        <v>746</v>
+        <v>597</v>
       </c>
       <c r="H68" t="s">
-        <v>747</v>
+        <v>598</v>
       </c>
       <c r="J68" t="s">
-        <v>748</v>
+        <v>599</v>
       </c>
       <c r="K68" t="s">
-        <v>552</v>
+        <v>425</v>
       </c>
       <c r="L68" t="s">
-        <v>553</v>
+        <v>426</v>
       </c>
       <c r="M68" t="s">
-        <v>554</v>
+        <v>427</v>
       </c>
       <c r="N68" t="s">
-        <v>547</v>
+        <v>420</v>
       </c>
       <c r="O68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S68" t="s">
-        <v>644</v>
+        <v>502</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
@@ -6043,46 +6093,46 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>555</v>
+        <v>428</v>
       </c>
       <c r="C69" t="s">
-        <v>575</v>
+        <v>442</v>
       </c>
       <c r="D69" t="s">
-        <v>549</v>
+        <v>422</v>
       </c>
       <c r="E69" t="s">
-        <v>556</v>
+        <v>429</v>
       </c>
       <c r="F69" t="s">
-        <v>557</v>
+        <v>430</v>
       </c>
       <c r="G69" t="s">
-        <v>749</v>
+        <v>600</v>
       </c>
       <c r="H69" t="s">
-        <v>558</v>
+        <v>431</v>
       </c>
       <c r="J69" t="s">
-        <v>750</v>
+        <v>601</v>
       </c>
       <c r="K69" t="s">
-        <v>559</v>
+        <v>432</v>
       </c>
       <c r="L69" t="s">
-        <v>560</v>
+        <v>433</v>
       </c>
       <c r="M69" t="s">
-        <v>561</v>
+        <v>434</v>
       </c>
       <c r="N69" t="s">
-        <v>547</v>
+        <v>420</v>
       </c>
       <c r="O69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S69" t="s">
-        <v>645</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
